--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM10.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM10.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM10</t>
+  </si>
+  <si>
+    <t>01_car_PM10_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM10</t>
+  </si>
+  <si>
+    <t>03_van_PM10_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM10</t>
+  </si>
+  <si>
+    <t>04_bus_PM10_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM10 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2164 +418,2380 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM10 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
         <v>2024121610</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1.362511348072801</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>23.3025819945529</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.004634064398728885</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0.004952221075302019</v>
+      </c>
+      <c r="E2">
         <v>1.79122495160312</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>2.109000077377867</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>10.1316085788437</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
+        <v>0.1582848148924289</v>
+      </c>
+      <c r="I2">
+        <v>4.461083811705341</v>
+      </c>
+      <c r="J2">
         <v>1.831175083973692</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2">
         <v>9.222471903289474</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2">
         <v>3.878427683669691</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2">
         <v>23.62273574772212</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2">
         <v>0.05977983718715425</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2">
         <v>0.9447669374665059</v>
       </c>
-      <c r="N2" t="n">
-        <v>78.26091820815776</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="P2">
+        <v>82.88060499143211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
         <v>2024121611</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1.419354425805296</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>24.2747503963484</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.005687260852985449</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>0.006077725865143386</v>
+      </c>
+      <c r="E3">
         <v>2.19832153151292</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>2.025750074323476</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>9.731676661257762</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
+        <v>0.1774708530612081</v>
+      </c>
+      <c r="I3">
+        <v>5.001821243427199</v>
+      </c>
+      <c r="J3">
         <v>1.70615509832087</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3">
         <v>8.592825227161274</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3">
         <v>3.439360398725953</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3">
         <v>20.94846377628188</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3">
         <v>0.0459844901439648</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3">
         <v>0.7267437980511584</v>
       </c>
-      <c r="N3" t="n">
-        <v>75.11507313878595</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="P3">
+        <v>80.2947557002865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
         <v>2024121612</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1.50289652489699</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>25.70354335050239</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.005476621562134136</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>0.005852624907175114</v>
+      </c>
+      <c r="E4">
         <v>2.11690221553096</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>2.053500075341606</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>9.864987300453073</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
+        <v>0.1630813244346237</v>
+      </c>
+      <c r="I4">
+        <v>4.596268169635806</v>
+      </c>
+      <c r="J4">
         <v>1.676738631108441</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4">
         <v>8.444673068072291</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4">
         <v>3.268612010136721</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4">
         <v>19.90846912072179</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4">
         <v>0.07817363324474018</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4">
         <v>1.235464456686969</v>
       </c>
-      <c r="N4" t="n">
-        <v>75.85943700825811</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="P4">
+        <v>80.61916250567359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
         <v>2024121613</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1.488255126087106</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>25.4531363379187</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.004950023335005854</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0.00528987251225443</v>
+      </c>
+      <c r="E5">
         <v>1.91335392557606</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>1.720500063124049</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>8.265259630109334</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
+        <v>0.1774708530612081</v>
+      </c>
+      <c r="I5">
+        <v>5.001821243427199</v>
+      </c>
+      <c r="J5">
         <v>1.912070368807871</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5">
         <v>9.629890340784188</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5">
         <v>2.244121678601331</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5">
         <v>13.66850118736123</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5">
         <v>0.05977983718715425</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5">
         <v>0.9447669374665059</v>
       </c>
-      <c r="N5" t="n">
-        <v>67.30458545635854</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="P5">
+        <v>72.4842174020242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
         <v>2024121614</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1.594189952770389</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>27.26490472308305</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.004844703689580196</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0.005177322033270292</v>
+      </c>
+      <c r="E6">
         <v>1.87264426758508</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>2.386500087559165</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>11.46471497079681</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
+        <v>0.182267362603403</v>
+      </c>
+      <c r="I6">
+        <v>5.137005601357666</v>
+      </c>
+      <c r="J6">
         <v>1.764988032745728</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6">
         <v>8.88912954533925</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6">
         <v>2.707581590486389</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6">
         <v>16.49134382388149</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6">
         <v>0.05977983718715425</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6">
         <v>0.9447669374665059</v>
       </c>
-      <c r="N6" t="n">
-        <v>75.44538847259059</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="P6">
+        <v>80.76499405489535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
         <v>2024121615</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1.66998072308038</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>28.56112925881038</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.005055342980431511</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>0.005402422991238567</v>
+      </c>
+      <c r="E7">
         <v>1.95406358356704</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>2.275500083486646</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>10.93147241401557</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
+        <v>0.1726743435190134</v>
+      </c>
+      <c r="I7">
+        <v>4.866636885496734</v>
+      </c>
+      <c r="J7">
         <v>1.713509215123977</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7">
         <v>8.629863266933521</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7">
         <v>2.317299559425287</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7">
         <v>14.11421318260127</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7">
         <v>0.06897673521594722</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7">
         <v>1.090115697076738</v>
       </c>
-      <c r="N7" t="n">
-        <v>73.33117906231719</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="P7">
+        <v>78.37083737134374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
         <v>2024121616</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1.898214292763879</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>32.46453269026205</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.003791507235323632</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>0.004051817243428925</v>
+      </c>
+      <c r="E8">
         <v>1.46554768767528</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>2.442000089595425</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>11.73133624918743</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
+        <v>0.2542150057363252</v>
+      </c>
+      <c r="I8">
+        <v>7.164770970314637</v>
+      </c>
+      <c r="J8">
         <v>1.639968047092905</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8">
         <v>8.259482869211054</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8">
         <v>1.365987108713854</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8">
         <v>8.319957244480751</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8">
         <v>0.08737053127353309</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8">
         <v>1.380813216297201</v>
       </c>
-      <c r="N8" t="n">
-        <v>71.0590015337887</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="P8">
+        <v>78.47824781984775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
         <v>2024121617</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>2.074772337236019</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>35.48414666553596</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.003054269717344038</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>0.003263963890539967</v>
+      </c>
+      <c r="E9">
         <v>1.18058008173842</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>2.109000077377867</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>10.1316085788437</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
+        <v>0.3597382156646112</v>
+      </c>
+      <c r="I9">
+        <v>10.13882684478486</v>
+      </c>
+      <c r="J9">
         <v>1.191366922103366</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9">
         <v>6.000162443103994</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9">
         <v>1.048882958476709</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9">
         <v>6.388538598440575</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9">
         <v>0.02759069408637888</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9">
         <v>0.436046278830695</v>
       </c>
-      <c r="N9" t="n">
-        <v>66.07574990549102</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="P9">
+        <v>76.5745246601137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>2024121618</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>2.107500169869877</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>36.04387998778187</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.00358086794447232</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>0.003826716285460651</v>
+      </c>
+      <c r="E10">
         <v>1.38412837169332</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>1.66500006108779</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>7.998638351718709</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
+        <v>0.3837207633755852</v>
+      </c>
+      <c r="I10">
+        <v>10.81474863443719</v>
+      </c>
+      <c r="J10">
         <v>0.6398081618703262</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10">
         <v>3.222309460185478</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10">
         <v>0.5610304196503328</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10">
         <v>3.417125296840307</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10">
         <v>0.01379534704318944</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10">
         <v>0.2180231394153475</v>
       </c>
-      <c r="N10" t="n">
-        <v>57.27481963510103</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="P10">
+        <v>68.47353488125479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
         <v>2024121619</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1.360788830565756</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>23.27312234601362</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.005581941207559793</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>0.005965175386159251</v>
+      </c>
+      <c r="E11">
         <v>2.15761187352194</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.999000036652674</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>4.799183011031226</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
+        <v>0.3165696297848578</v>
+      </c>
+      <c r="I11">
+        <v>8.922167623410681</v>
+      </c>
+      <c r="J11">
         <v>0.294164672124288</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11">
         <v>1.481521590889875</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11">
         <v>0.4146746580024201</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11">
         <v>2.525701306360227</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11">
         <v>0.01839379605758592</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11">
         <v>0.2906975192204635</v>
       </c>
-      <c r="N11" t="n">
-        <v>37.62044158164764</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="P11">
+        <v>46.85956206902178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
         <v>2024121620</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1.1721731635443</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>20.0472908309649</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.00621385908011373</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>0.006640478260064071</v>
+      </c>
+      <c r="E12">
         <v>2.40186982146782</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>0.8325000305438949</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>3.999319175859354</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
+        <v>0.2734010439051046</v>
+      </c>
+      <c r="I12">
+        <v>7.705508402036497</v>
+      </c>
+      <c r="J12">
         <v>0.3529976065491455</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12">
         <v>1.77782590906785</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12">
         <v>0.3658894041197821</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12">
         <v>2.2285599762002</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12">
         <v>0.01379534704318944</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12">
         <v>0.2180231394153475</v>
       </c>
-      <c r="N12" t="n">
-        <v>33.41645826385591</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="P12">
+        <v>41.39579432897745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
         <v>2024121621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>0.8922640686494449</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>15.26009794333552</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.003475548299046664</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>0.003714165806476515</v>
+      </c>
+      <c r="E13">
         <v>1.34341871370234</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>0.7215000264713756</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>3.466076619078107</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
+        <v>0.2206394389409616</v>
+      </c>
+      <c r="I13">
+        <v>6.218480464801384</v>
+      </c>
+      <c r="J13">
         <v>0.2426858545025376</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13">
         <v>1.222255312484147</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13">
         <v>0.2683188963545068</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13">
         <v>1.634277315880147</v>
       </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
-        <v>25.05437029875717</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="P13">
+        <v>31.49372882000695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
         <v>2024121622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.6519728764166313</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>11.15047697210906</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.003686187589897976</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>0.003939266764444788</v>
+      </c>
+      <c r="E14">
         <v>1.4248380296843</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>0.5827500213807265</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>2.799523423101549</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
+        <v>0.1103197194704808</v>
+      </c>
+      <c r="I14">
+        <v>3.109240232400692</v>
+      </c>
+      <c r="J14">
         <v>0.2426858545025376</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14">
         <v>1.222255312484147</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14">
         <v>0.2927115232958259</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14">
         <v>1.78284798096016</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14">
         <v>0.004598449014396479</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14">
         <v>0.07267437980511587</v>
       </c>
-      <c r="N14" t="n">
-        <v>20.23102101034435</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="P14">
+        <v>23.45083404139007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
         <v>2024121623</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.408236649169727</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>6.98193670380409</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.0009478768088309081</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15">
+        <v>0.001012954310857231</v>
+      </c>
+      <c r="E15">
         <v>0.3663869219188201</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.2497500091631685</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>1.199795752757806</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
+        <v>0.1007267003860911</v>
+      </c>
+      <c r="I15">
+        <v>2.838871516539763</v>
+      </c>
+      <c r="J15">
         <v>0.1323741024559296</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15">
         <v>0.6666847159004438</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15">
         <v>0.4146746580024201</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15">
         <v>2.525701306360227</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15">
         <v>0.004598449014396479</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15">
         <v>0.07267437980511587</v>
       </c>
-      <c r="N15" t="n">
-        <v>13.02376152516097</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="P15">
+        <v>15.96342481958886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
         <v>2024121700</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.2867991649230359</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>4.905031481786416</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.002211712553938786</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16">
+        <v>0.002363560058666873</v>
+      </c>
+      <c r="E16">
         <v>0.8549028178105801</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.166500006108779</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>0.7998638351718708</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
+        <v>0.04796509542194815</v>
+      </c>
+      <c r="I16">
+        <v>1.351843579304649</v>
+      </c>
+      <c r="J16">
         <v>0.2721023217149663</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16">
         <v>1.370407471573134</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16">
         <v>0.2683188963545068</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16">
         <v>1.634277315880147</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16">
         <v>0.009196898028792958</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16">
         <v>0.1453487596102317</v>
       </c>
-      <c r="N16" t="n">
-        <v>10.7149606815164</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="P16">
+        <v>12.11492120374773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
         <v>2024121701</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.1851706320073656</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>3.166912217970208</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.003264909008195351</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>0.00348906484850824</v>
+      </c>
+      <c r="E17">
         <v>1.26199939772038</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.05550000203625965</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.2666212783906237</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17">
         <v>0.1985611536838944</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17">
         <v>1.000027073850666</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17">
         <v>0.4390672849437388</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17">
         <v>2.67427197144024</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>9.251395921051571</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="P17">
+        <v>9.251620076891886</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
         <v>2024121702</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.1197149667396456</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>2.047445573478414</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.002211712553938786</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>0.002363560058666873</v>
+      </c>
+      <c r="E18">
         <v>0.8549028178105801</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.1942500071269088</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>0.9331744743671827</v>
       </c>
-      <c r="H18" t="n">
+      <c r="J18">
         <v>0.1323741024559296</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18">
         <v>0.6666847159004438</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18">
         <v>0.5610304196503328</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18">
         <v>3.417125296840307</v>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>8.928914086923683</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="P18">
+        <v>8.929065934428412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
         <v>2024121703</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.1343563655495304</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>2.297852586062105</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.001895753617661816</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>0.002025908621714462</v>
+      </c>
+      <c r="E19">
         <v>0.7327738438376401</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.166500006108779</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>0.7998638351718708</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
+        <v>0.03837207633755852</v>
+      </c>
+      <c r="I19">
+        <v>1.081474863443719</v>
+      </c>
+      <c r="J19">
         <v>0.1691446864714655</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19">
         <v>0.8518749147616782</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19">
         <v>0.5366377927090137</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19">
         <v>3.268554631760294</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>8.959454416050038</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="P19">
+        <v>10.07943151083537</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
         <v>2024121704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.2402911922328139</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>4.109620971226459</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.001263835745107878</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>0.001350605747809642</v>
+      </c>
+      <c r="E20">
         <v>0.48851589589176</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.3885000142538176</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>1.866348948734365</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
+        <v>0.01918603816877926</v>
+      </c>
+      <c r="I20">
+        <v>0.5407374317218595</v>
+      </c>
+      <c r="J20">
         <v>0.3382893729429311</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20">
         <v>1.703749829523356</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20">
         <v>0.6829935543569269</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20">
         <v>4.159978622240375</v>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
-        <v>13.97955223714792</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="P20">
+        <v>14.53956247704125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
         <v>2024121705</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>0.5779046236136849</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>9.883712084920978</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.0009478768088309081</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21">
+        <v>0.001012954310857231</v>
+      </c>
+      <c r="E21">
         <v>0.3663869219188201</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>0.8325000305438949</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>3.999319175859354</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
+        <v>0.1774708530612081</v>
+      </c>
+      <c r="I21">
+        <v>5.001821243427199</v>
+      </c>
+      <c r="J21">
         <v>0.6030375778547905</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21">
         <v>3.037119261324245</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21">
         <v>1.000097704594072</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21">
         <v>6.091397268280546</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21">
         <v>0.01379534704318944</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21">
         <v>0.2180231394153475</v>
       </c>
-      <c r="N21" t="n">
-        <v>26.62424101217775</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="P21">
+        <v>31.80359818616818</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
         <v>2024121706</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>1.098104910741355</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>18.78052594377683</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.001369155390533534</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22">
+        <v>0.001463156226793778</v>
+      </c>
+      <c r="E22">
         <v>0.52922555388274</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>1.776000065160309</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>8.531880908499959</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
+        <v>0.4748544446772868</v>
+      </c>
+      <c r="I22">
+        <v>13.38325143511602</v>
+      </c>
+      <c r="J22">
         <v>1.036930469238115</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22">
         <v>5.222363607886809</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22">
         <v>1.756269139774955</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22">
         <v>10.69708788576096</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22">
         <v>0.0459844901439648</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22">
         <v>0.7267437980511584</v>
       </c>
-      <c r="N22" t="n">
-        <v>50.20248592830769</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="P22">
+        <v>64.06068580893727</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
         <v>2024121707</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1.767302962228438</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>30.22559940127845</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.001474475035959191</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23">
+        <v>0.001575706705777915</v>
+      </c>
+      <c r="E23">
         <v>0.5699352118737202</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>1.387500050906491</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>6.665531959765592</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
+        <v>0.470057935135092</v>
+      </c>
+      <c r="I23">
+        <v>13.24806707718555</v>
+      </c>
+      <c r="J23">
         <v>1.206075155709581</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23">
         <v>6.074238522648489</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23">
         <v>2.219729051660012</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23">
         <v>13.51993052228121</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23">
         <v>0.04138604112956834</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23">
         <v>0.6540694182460427</v>
       </c>
-      <c r="N23" t="n">
-        <v>64.33277277276356</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="P23">
+        <v>78.05099901675402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
         <v>2024121708</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>2.169510800123507</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>37.10442733519517</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.003054269717344038</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24">
+        <v>0.003263963890539967</v>
+      </c>
+      <c r="E24">
         <v>1.18058008173842</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>2.025750074323476</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>9.731676661257762</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
+        <v>0.2877905725316889</v>
+      </c>
+      <c r="I24">
+        <v>8.111061475827892</v>
+      </c>
+      <c r="J24">
         <v>1.478177477424547</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24">
         <v>7.444645994221622</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24">
         <v>2.707581590486389</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24">
         <v>16.49134382388149</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24">
         <v>0.0919689802879296</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24">
         <v>1.453487596102317</v>
       </c>
-      <c r="N24" t="n">
-        <v>81.88220468475998</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="P24">
+        <v>90.28126642729273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
         <v>2024121709</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1.577826036453459</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>26.98503806196009</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.00537130191670848</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25">
+        <v>0.005740074428190977</v>
+      </c>
+      <c r="E25">
         <v>2.07619255753998</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>2.830500103849241</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>13.59768519792181</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
+        <v>0.2877905725316889</v>
+      </c>
+      <c r="I25">
+        <v>8.111061475827892</v>
+      </c>
+      <c r="J25">
         <v>1.662030397502227</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25">
         <v>8.370596988527794</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25">
         <v>3.610108787315184</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25">
         <v>21.98845843184197</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25">
         <v>0.1287565724031015</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25">
         <v>2.034882634543244</v>
       </c>
-      <c r="N25" t="n">
-        <v>84.86744707177479</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="P25">
+        <v>93.26666789264587</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
         <v>2024121710</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1.334951067960078</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>22.83122761792476</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.00358086794447232</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26">
+        <v>0.003826716285460651</v>
+      </c>
+      <c r="E26">
         <v>1.38412837169332</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>3.024750110976151</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>14.53085967228899</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
+        <v>0.1534883053502341</v>
+      </c>
+      <c r="I26">
+        <v>4.325899453774876</v>
+      </c>
+      <c r="J26">
         <v>1.78705038315505</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26">
         <v>9.00024366465599</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26">
         <v>4.219924460848158</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26">
         <v>25.7027250588423</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26">
         <v>0.06437828620155073</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26">
         <v>1.017441317271622</v>
       </c>
-      <c r="N26" t="n">
-        <v>84.90126087976243</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="P26">
+        <v>89.38089448722853</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
         <v>2024121711</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1.390932886939048</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>23.78866619545063</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.004423425107877572</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27">
+        <v>0.004727120117333746</v>
+      </c>
+      <c r="E27">
         <v>1.70980563562116</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>2.913750106903631</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>13.99761711550774</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
+        <v>0.1726743435190134</v>
+      </c>
+      <c r="I27">
+        <v>4.866636885496734</v>
+      </c>
+      <c r="J27">
         <v>1.662030397502227</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27">
         <v>8.370596988527794</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27">
         <v>3.756464548963097</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27">
         <v>22.87988242232205</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27">
         <v>0.05058293915836126</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27">
         <v>0.7994181778562742</v>
       </c>
-      <c r="N27" t="n">
-        <v>81.32417083985989</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="P27">
+        <v>86.36378576388509</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
         <v>2024121712</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1.472752468523699</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>25.18799950106537</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.004212785817026258</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28">
+        <v>0.004502019159365471</v>
+      </c>
+      <c r="E28">
         <v>1.6283863196392</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>2.96925010893989</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>14.26423839389836</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
+        <v>0.1582848148924289</v>
+      </c>
+      <c r="I28">
+        <v>4.461083811705341</v>
+      </c>
+      <c r="J28">
         <v>1.632613930289798</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28">
         <v>8.222444829438807</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28">
         <v>3.561323533432548</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28">
         <v>21.69131710168195</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28">
         <v>0.08737053127353309</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28">
         <v>1.380813216297201</v>
       </c>
-      <c r="N28" t="n">
-        <v>82.10272272029738</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="P28">
+        <v>86.72238058023748</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
         <v>2024121713</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1.458111069713813</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>24.93759248848169</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.003791507235323632</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29">
+        <v>0.004051817243428925</v>
+      </c>
+      <c r="E29">
         <v>1.46554768767528</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>2.469750090613555</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>11.86464688838275</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
+        <v>0.1726743435190134</v>
+      </c>
+      <c r="I29">
+        <v>4.866636885496734</v>
+      </c>
+      <c r="J29">
         <v>1.860591551186122</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29">
         <v>9.370624062378457</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29">
         <v>2.439262694131882</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29">
         <v>14.85706650800133</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29">
         <v>0.06437828620155073</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29">
         <v>1.017441317271622</v>
       </c>
-      <c r="N29" t="n">
-        <v>71.80880415127338</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="P29">
+        <v>76.84837569029723</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
         <v>2024121714</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1.562323378890052</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>26.71990122510679</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.003686187589897976</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30">
+        <v>0.003939266764444788</v>
+      </c>
+      <c r="E30">
         <v>1.4248380296843</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>3.441000126248098</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>16.53051926021867</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
+        <v>0.1774708530612081</v>
+      </c>
+      <c r="I30">
+        <v>5.001821243427199</v>
+      </c>
+      <c r="J30">
         <v>1.720863331927085</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30">
         <v>8.666901306705768</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30">
         <v>2.951507859899578</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30">
         <v>17.97705047468162</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30">
         <v>0.06437828620155073</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30">
         <v>1.017441317271622</v>
       </c>
-      <c r="N30" t="n">
-        <v>82.08041078442503</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="P30">
+        <v>87.25995596008798</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
         <v>2024121715</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>1.636391631692997</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>27.98666611229488</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.003896826880749289</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31">
+        <v>0.004164367722413061</v>
+      </c>
+      <c r="E31">
         <v>1.50625734566626</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>3.274500120139319</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>15.73065542504679</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
+        <v>0.1678778339768185</v>
+      </c>
+      <c r="I31">
+        <v>4.731452527566271</v>
+      </c>
+      <c r="J31">
         <v>1.669384514305334</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31">
         <v>8.407635028300041</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31">
         <v>2.536833201897156</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31">
         <v>15.45134916832139</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31">
         <v>0.07357518423034366</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31">
         <v>1.162790076881854</v>
       </c>
-      <c r="N31" t="n">
-        <v>79.43993463565711</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="P31">
+        <v>84.33953253804185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
         <v>2024121716</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1.860318907608882</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>31.81642042239838</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.002948950071918382</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32">
+        <v>0.00315141341155583</v>
+      </c>
+      <c r="E32">
         <v>1.13987042374744</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>3.524250129302487</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>16.9304511778046</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
+        <v>0.2446219866519356</v>
+      </c>
+      <c r="I32">
+        <v>6.894402254453707</v>
+      </c>
+      <c r="J32">
         <v>1.595843346274262</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32">
         <v>8.037254630577571</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32">
         <v>1.487950243420448</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32">
         <v>9.062810569880812</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32">
         <v>0.09656742930232609</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32">
         <v>1.526161975907433</v>
       </c>
-      <c r="N32" t="n">
-        <v>77.08084820629657</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="P32">
+        <v>84.22007491074183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
         <v>2024121717</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>2.033431917066931</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>34.77711510059376</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.002317032199364443</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33">
+        <v>0.002476110537651009</v>
+      </c>
+      <c r="E33">
         <v>0.89561247580156</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>3.024750110976151</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>14.53085967228899</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
+        <v>0.3501451965802215</v>
+      </c>
+      <c r="I33">
+        <v>9.868458128923937</v>
+      </c>
+      <c r="J33">
         <v>1.161950454890937</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33">
         <v>5.852010284015006</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33">
         <v>1.146453466241984</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33">
         <v>6.982821258760627</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33">
         <v>0.03218914310077536</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33">
         <v>0.508720658635811</v>
       </c>
-      <c r="N33" t="n">
-        <v>70.94823157457189</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="P33">
+        <v>81.16699397841434</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
         <v>2024121718</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>2.065298490947269</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>35.32211859857005</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.002738310781067068</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34">
+        <v>0.002926312453587557</v>
+      </c>
+      <c r="E34">
         <v>1.05845110776548</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>2.386500087559165</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>11.46471497079681</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
+        <v>0.3741277442911955</v>
+      </c>
+      <c r="I34">
+        <v>10.54437991857626</v>
+      </c>
+      <c r="J34">
         <v>0.625099928264112</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34">
         <v>3.148233380640984</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34">
         <v>0.6098156735329704</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34">
         <v>3.714266627000334</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34">
         <v>0.01379534704318944</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34">
         <v>0.2180231394153475</v>
       </c>
-      <c r="N34" t="n">
-        <v>60.62905566231678</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="P34">
+        <v>71.54775132685675</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
         <v>2024121719</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>1.333228550453031</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>22.8017679693855</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.004318105462451914</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35">
+        <v>0.004614569638349606</v>
+      </c>
+      <c r="E35">
         <v>1.66909597763018</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>1.443000052942751</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>6.932153238156213</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
+        <v>0.3069766107004682</v>
+      </c>
+      <c r="I35">
+        <v>8.651798907549752</v>
+      </c>
+      <c r="J35">
         <v>0.2868105553211808</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35">
         <v>1.444483551117628</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35">
         <v>0.4634599118850575</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35">
         <v>2.822842636520253</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35">
         <v>0.01839379605758592</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35">
         <v>0.2906975192204635</v>
       </c>
-      <c r="N35" t="n">
-        <v>39.5102518641523</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="P35">
+        <v>48.46932384657843</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
         <v>2024121720</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>1.148919177199189</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>19.64958557568492</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.004739384044154542</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36">
+        <v>0.005064771554286155</v>
+      </c>
+      <c r="E36">
         <v>1.8319346095941</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>1.193250043779582</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>5.732357485398407</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
+        <v>0.2638080248207148</v>
+      </c>
+      <c r="I36">
+        <v>7.435139686175567</v>
+      </c>
+      <c r="J36">
         <v>0.3456434897460384</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36">
         <v>1.740787869295603</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36">
         <v>0.390282031061101</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36">
         <v>2.377130641280214</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36">
         <v>0.01379534704318944</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36">
         <v>0.2180231394153475</v>
       </c>
-      <c r="N36" t="n">
-        <v>34.64644879354185</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="P36">
+        <v>42.34572189204827</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
         <v>2024121721</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>0.8741776348254696</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>14.95077163367332</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.002632991135641412</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="D37">
+        <v>0.00281376197460342</v>
+      </c>
+      <c r="E37">
         <v>1.0177414497745</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>1.026750037670803</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>4.932493650226537</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
+        <v>0.2158429293987667</v>
+      </c>
+      <c r="I37">
+        <v>6.083296106870919</v>
+      </c>
+      <c r="J37">
         <v>0.2353317376994303</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37">
         <v>1.1852172727119</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37">
         <v>0.2927115232958259</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37">
         <v>1.78284798096016</v>
       </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
-        <v>26.30067591197358</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="P37">
+        <v>32.59999571908223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
         <v>2024121722</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>0.6390539951137918</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>10.92952960806464</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.002843630426492725</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38">
+        <v>0.003038862932571693</v>
+      </c>
+      <c r="E38">
         <v>1.09916076575646</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>0.8325000305438949</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>3.999319175859354</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
+        <v>0.105523209928286</v>
+      </c>
+      <c r="I38">
+        <v>2.974055874470228</v>
+      </c>
+      <c r="J38">
         <v>0.2353317376994303</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38">
         <v>1.1852172727119</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38">
         <v>0.3171041502371445</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38">
         <v>1.931418646040174</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38">
         <v>0.004598449014396479</v>
       </c>
-      <c r="M38" t="n">
+      <c r="O38">
         <v>0.07267437980511587</v>
       </c>
-      <c r="N38" t="n">
-        <v>21.24875184127279</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="P38">
+        <v>24.32852615817739</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
         <v>2024121723</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.3996240616345005</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>6.834638461107801</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.0007372375179795955</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="D39">
+        <v>0.0007878533528889576</v>
+      </c>
+      <c r="E39">
         <v>0.2849676059368601</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>0.3607500132356878</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>1.733038309539053</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
+        <v>0.0959301908438963</v>
+      </c>
+      <c r="I39">
+        <v>2.703687158609297</v>
+      </c>
+      <c r="J39">
         <v>0.1323741024559296</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39">
         <v>0.6666847159004438</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39">
         <v>0.4634599118850575</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39">
         <v>2.822842636520253</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39">
         <v>0.004598449014396479</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39">
         <v>0.07267437980511587</v>
       </c>
-      <c r="N39" t="n">
-        <v>13.77638988455308</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="P39">
+        <v>16.57605784984118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
         <v>2024121800</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.2807703536483776</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>4.801922711899015</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.001685114326810503</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40">
+        <v>0.001800807663746189</v>
+      </c>
+      <c r="E40">
         <v>0.6513545278556802</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>0.2497500091631685</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>1.199795752757806</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
+        <v>0.04796509542194815</v>
+      </c>
+      <c r="I40">
+        <v>1.351843579304649</v>
+      </c>
+      <c r="J40">
         <v>0.2647482049118591</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40">
         <v>1.333369431800888</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40">
         <v>0.2927115232958259</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40">
         <v>1.78284798096016</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40">
         <v>0.009196898028792958</v>
       </c>
-      <c r="M40" t="n">
+      <c r="O40">
         <v>0.1453487596102317</v>
       </c>
-      <c r="N40" t="n">
-        <v>11.01350126825861</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="P40">
+        <v>12.41342563632215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
         <v>2024121801</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.1817255969932751</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>3.107992920891694</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.002527671490215756</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41">
+        <v>0.002701211495619283</v>
+      </c>
+      <c r="E41">
         <v>0.9770317917835201</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>0.08325000305438948</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0.3999319175859354</v>
       </c>
-      <c r="H41" t="n">
+      <c r="J41">
         <v>0.1912070368807871</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41">
         <v>0.9629890340784187</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41">
         <v>0.4878525388263764</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41">
         <v>2.971413301600267</v>
       </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
-        <v>9.36592181318488</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="P41">
+        <v>9.366095353190282</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
         <v>2024121802</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.1171311904790778</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>2.003256100669527</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.001685114326810503</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>0.001800807663746189</v>
+      </c>
+      <c r="E42">
         <v>0.6513545278556802</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>0.2775000101812982</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>1.333106391953118</v>
       </c>
-      <c r="H42" t="n">
+      <c r="J42">
         <v>0.1323741024559296</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42">
         <v>0.6666847159004438</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42">
         <v>0.6098156735329704</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42">
         <v>3.714266627000334</v>
       </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
-        <v>9.507174454355191</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="P42">
+        <v>9.507290147692125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
         <v>2024121803</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.1317725892889624</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>2.253663113253219</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.001474475035959191</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="D43">
+        <v>0.001575706705777915</v>
+      </c>
+      <c r="E43">
         <v>0.5699352118737202</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>0.2497500091631685</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>1.199795752757806</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
+        <v>0.03837207633755852</v>
+      </c>
+      <c r="I43">
+        <v>1.081474863443719</v>
+      </c>
+      <c r="J43">
         <v>0.1617905696683584</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43">
         <v>0.8148368749894315</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43">
         <v>0.5854230465916518</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43">
         <v>3.565695961920321</v>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
-        <v>9.534137604542599</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="P43">
+        <v>10.65408577599369</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
         <v>2024121804</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.2351236397116782</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>4.021242025608685</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.0009478768088309081</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44">
+        <v>0.001012954310857231</v>
+      </c>
+      <c r="E44">
         <v>0.3663869219188201</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>0.5550000203625963</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>2.666212783906236</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
+        <v>0.01918603816877926</v>
+      </c>
+      <c r="I44">
+        <v>0.5407374317218595</v>
+      </c>
+      <c r="J44">
         <v>0.3309352561398239</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44">
         <v>1.666711789751109</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44">
         <v>0.756171435180883</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44">
         <v>4.605690617480414</v>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
-        <v>15.20442236686908</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="P44">
+        <v>15.76441091426174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
         <v>2024121805</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>0.5658470010643686</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>9.67749454514618</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.0007372375179795955</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45">
+        <v>0.0007878533528889576</v>
+      </c>
+      <c r="E45">
         <v>0.2849676059368601</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>1.193250043779582</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>5.732357485398407</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
+        <v>0.1726743435190134</v>
+      </c>
+      <c r="I45">
+        <v>4.866636885496734</v>
+      </c>
+      <c r="J45">
         <v>0.588329344248576</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45">
         <v>2.96304318177975</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45">
         <v>1.097668212359347</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45">
         <v>6.6856799286006</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45">
         <v>0.01379534704318944</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45">
         <v>0.2180231394153475</v>
       </c>
-      <c r="N45" t="n">
-        <v>29.02119307229018</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="P45">
+        <v>34.06055491714085</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
         <v>2024121806</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>1.075712183149765</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>18.39755051276646</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.001053196454256564</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="D46">
+        <v>0.001125504789841368</v>
+      </c>
+      <c r="E46">
         <v>0.4070965799098</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>2.553000093667944</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>12.26457880596869</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
+        <v>0.4604649160507022</v>
+      </c>
+      <c r="I46">
+        <v>12.97769836132463</v>
+      </c>
+      <c r="J46">
         <v>1.007514002025686</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46">
         <v>5.074211448797822</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46">
         <v>1.902624901422868</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46">
         <v>11.58851187624104</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46">
         <v>0.05058293915836126</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46">
         <v>0.7994181778562742</v>
       </c>
-      <c r="N46" t="n">
-        <v>55.12185471741898</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="P46">
+        <v>68.56009030312988</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
         <v>2024121807</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1.73199135333401</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>29.62167660622367</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.001158516099682221</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47">
+        <v>0.001238055268825505</v>
+      </c>
+      <c r="E47">
         <v>0.44780623790078</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>1.998000073305348</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>9.598366022062452</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
+        <v>0.4556684065085073</v>
+      </c>
+      <c r="I47">
+        <v>12.84251400339416</v>
+      </c>
+      <c r="J47">
         <v>1.176658688497152</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47">
         <v>5.9260863635595</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47">
         <v>2.414870067190563</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47">
         <v>14.70849584292132</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47">
         <v>0.0459844901439648</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47">
         <v>0.7267437980511584</v>
       </c>
-      <c r="N47" t="n">
-        <v>68.3978380592896</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="P47">
+        <v>81.69610000836141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
         <v>2024121808</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>2.125586603693852</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>36.35320629744407</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.002317032199364443</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48">
+        <v>0.002476110537651009</v>
+      </c>
+      <c r="E48">
         <v>0.89561247580156</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>2.913750106903631</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>13.99761711550774</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
+        <v>0.2781975534472993</v>
+      </c>
+      <c r="I48">
+        <v>7.840692759966965</v>
+      </c>
+      <c r="J48">
         <v>1.441406893409011</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48">
         <v>7.259455795360387</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48">
         <v>2.951507859899578</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48">
         <v>17.97705047468162</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48">
         <v>0.1011658783167225</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48">
         <v>1.598836355712548</v>
       </c>
-      <c r="N48" t="n">
-        <v>87.61751288893008</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="P48">
+        <v>95.73656228068263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
         <v>2024121809</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1.545959462573121</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>26.44003456398384</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.004107466171600602</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49">
+        <v>0.004389468680381335</v>
+      </c>
+      <c r="E49">
         <v>1.58767666164822</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>4.079250149665083</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>19.59666396171084</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
+        <v>0.2781975534472993</v>
+      </c>
+      <c r="I49">
+        <v>7.840692759966965</v>
+      </c>
+      <c r="J49">
         <v>1.617905696683584</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49">
         <v>8.148368749894313</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49">
         <v>3.927212937552329</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49">
         <v>23.91987707788214</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49">
         <v>0.1425519194462909</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49">
         <v>2.252905773958592</v>
       </c>
-      <c r="N49" t="n">
-        <v>93.26251442116995</v>
+      <c r="P49">
+        <v>101.381686737093</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM10.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>1.362511348072801</v>
+        <v>4.191147074490102</v>
       </c>
       <c r="C2">
-        <v>23.3025819945529</v>
+        <v>71.67980545092504</v>
       </c>
       <c r="D2">
-        <v>0.004952221075302019</v>
+        <v>0.01523325798448415</v>
       </c>
       <c r="E2">
-        <v>1.79122495160312</v>
+        <v>5.509889680026329</v>
       </c>
       <c r="F2">
-        <v>2.109000077377867</v>
+        <v>6.48738046615473</v>
       </c>
       <c r="G2">
-        <v>10.1316085788437</v>
+        <v>31.16529026724164</v>
       </c>
       <c r="H2">
-        <v>0.1582848148924289</v>
+        <v>0.4868913127299429</v>
       </c>
       <c r="I2">
-        <v>4.461083811705341</v>
+        <v>13.72249735235597</v>
       </c>
       <c r="J2">
-        <v>1.831175083973692</v>
+        <v>5.632778110017935</v>
       </c>
       <c r="K2">
-        <v>9.222471903289474</v>
+        <v>28.36874437171551</v>
       </c>
       <c r="L2">
-        <v>3.878427683669691</v>
+        <v>11.93022051744783</v>
       </c>
       <c r="M2">
-        <v>23.62273574772212</v>
+        <v>72.66461300344942</v>
       </c>
       <c r="N2">
-        <v>0.05977983718715425</v>
+        <v>0.1838855067848205</v>
       </c>
       <c r="O2">
-        <v>0.9447669374665059</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="P2">
-        <v>82.88060499143211</v>
+        <v>254.9445225782074</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>1.419354425805296</v>
+        <v>4.365998975195756</v>
       </c>
       <c r="C3">
-        <v>24.2747503963484</v>
+        <v>74.67023981234166</v>
       </c>
       <c r="D3">
-        <v>0.006077725865143386</v>
+        <v>0.01869536207186692</v>
       </c>
       <c r="E3">
-        <v>2.19832153151292</v>
+        <v>6.762137334577766</v>
       </c>
       <c r="F3">
-        <v>2.025750074323476</v>
+        <v>6.231299658280202</v>
       </c>
       <c r="G3">
-        <v>9.731676661257762</v>
+        <v>29.93508144090316</v>
       </c>
       <c r="H3">
-        <v>0.1774708530612081</v>
+        <v>0.5459084415456935</v>
       </c>
       <c r="I3">
-        <v>5.001821243427199</v>
+        <v>15.38583036476276</v>
       </c>
       <c r="J3">
-        <v>1.70615509832087</v>
+        <v>5.248210929815908</v>
       </c>
       <c r="K3">
-        <v>8.592825227161274</v>
+        <v>26.43192246681928</v>
       </c>
       <c r="L3">
-        <v>3.439360398725953</v>
+        <v>10.5796295154726</v>
       </c>
       <c r="M3">
-        <v>20.94846377628188</v>
+        <v>64.43843039928535</v>
       </c>
       <c r="N3">
-        <v>0.0459844901439648</v>
+        <v>0.1414503898344773</v>
       </c>
       <c r="O3">
-        <v>0.7267437980511584</v>
+        <v>2.235497082218202</v>
       </c>
       <c r="P3">
-        <v>80.2947557002865</v>
+        <v>246.9903321731247</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>1.50289652489699</v>
+        <v>4.622978283808614</v>
       </c>
       <c r="C4">
-        <v>25.70354335050239</v>
+        <v>79.06527213139331</v>
       </c>
       <c r="D4">
-        <v>0.005852624907175114</v>
+        <v>0.01800294125439037</v>
       </c>
       <c r="E4">
-        <v>2.11690221553096</v>
+        <v>6.511687803667479</v>
       </c>
       <c r="F4">
-        <v>2.053500075341606</v>
+        <v>6.316659927571711</v>
       </c>
       <c r="G4">
-        <v>9.864987300453073</v>
+        <v>30.34515104968265</v>
       </c>
       <c r="H4">
-        <v>0.1630813244346237</v>
+        <v>0.5016455949338807</v>
       </c>
       <c r="I4">
-        <v>4.596268169635806</v>
+        <v>14.13833060545767</v>
       </c>
       <c r="J4">
-        <v>1.676738631108441</v>
+        <v>5.157724534474257</v>
       </c>
       <c r="K4">
-        <v>8.444673068072291</v>
+        <v>25.97619966566723</v>
       </c>
       <c r="L4">
-        <v>3.268612010136721</v>
+        <v>10.05439968137113</v>
       </c>
       <c r="M4">
-        <v>19.90846912072179</v>
+        <v>61.23935938655483</v>
       </c>
       <c r="N4">
-        <v>0.07817363324474018</v>
+        <v>0.2404656627186113</v>
       </c>
       <c r="O4">
-        <v>1.235464456686969</v>
+        <v>3.800345039770944</v>
       </c>
       <c r="P4">
-        <v>80.61916250567359</v>
+        <v>247.9882223083267</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>1.488255126087106</v>
+        <v>4.577940673020796</v>
       </c>
       <c r="C5">
-        <v>25.4531363379187</v>
+        <v>78.29500873527086</v>
       </c>
       <c r="D5">
-        <v>0.00528987251225443</v>
+        <v>0.01627188921069899</v>
       </c>
       <c r="E5">
-        <v>1.91335392557606</v>
+        <v>5.885563976391759</v>
       </c>
       <c r="F5">
-        <v>1.720500063124049</v>
+        <v>5.292336696073594</v>
       </c>
       <c r="G5">
-        <v>8.265259630109334</v>
+        <v>25.4243157443287</v>
       </c>
       <c r="H5">
-        <v>0.1774708530612081</v>
+        <v>0.5459084415456935</v>
       </c>
       <c r="I5">
-        <v>5.001821243427199</v>
+        <v>15.38583036476276</v>
       </c>
       <c r="J5">
-        <v>1.912070368807871</v>
+        <v>5.881615697207485</v>
       </c>
       <c r="K5">
-        <v>9.629890340784188</v>
+        <v>29.62198207488368</v>
       </c>
       <c r="L5">
-        <v>2.244121678601331</v>
+        <v>6.903020676762272</v>
       </c>
       <c r="M5">
-        <v>13.66850118736123</v>
+        <v>42.04493331017199</v>
       </c>
       <c r="N5">
-        <v>0.05977983718715425</v>
+        <v>0.1838855067848205</v>
       </c>
       <c r="O5">
-        <v>0.9447669374665059</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="P5">
-        <v>72.4842174020242</v>
+        <v>222.9647599932988</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>1.594189952770389</v>
+        <v>4.903801033426788</v>
       </c>
       <c r="C6">
-        <v>27.26490472308305</v>
+        <v>83.86809095427448</v>
       </c>
       <c r="D6">
-        <v>0.005177322033270292</v>
+        <v>0.01592567880196071</v>
       </c>
       <c r="E6">
-        <v>1.87264426758508</v>
+        <v>5.760339210936616</v>
       </c>
       <c r="F6">
-        <v>2.386500087559165</v>
+        <v>7.340983159069825</v>
       </c>
       <c r="G6">
-        <v>11.46471497079681</v>
+        <v>35.2659863550366</v>
       </c>
       <c r="H6">
-        <v>0.182267362603403</v>
+        <v>0.5606627237496311</v>
       </c>
       <c r="I6">
-        <v>5.137005601357666</v>
+        <v>15.80166361786445</v>
       </c>
       <c r="J6">
-        <v>1.764988032745728</v>
+        <v>5.429183720499216</v>
       </c>
       <c r="K6">
-        <v>8.88912954533925</v>
+        <v>27.3433680691234</v>
       </c>
       <c r="L6">
-        <v>2.707581590486389</v>
+        <v>8.328644512180567</v>
       </c>
       <c r="M6">
-        <v>16.49134382388149</v>
+        <v>50.72812605901185</v>
       </c>
       <c r="N6">
-        <v>0.05977983718715425</v>
+        <v>0.1838855067848205</v>
       </c>
       <c r="O6">
-        <v>0.9447669374665059</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="P6">
-        <v>80.76499405489535</v>
+        <v>248.4368068076439</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>1.66998072308038</v>
+        <v>5.136936901034329</v>
       </c>
       <c r="C7">
-        <v>28.56112925881038</v>
+        <v>87.85533676949662</v>
       </c>
       <c r="D7">
-        <v>0.005402422991238567</v>
+        <v>0.01661809961943726</v>
       </c>
       <c r="E7">
-        <v>1.95406358356704</v>
+        <v>6.010788741846902</v>
       </c>
       <c r="F7">
-        <v>2.275500083486646</v>
+        <v>6.999542081903787</v>
       </c>
       <c r="G7">
-        <v>10.93147241401557</v>
+        <v>33.62570791991861</v>
       </c>
       <c r="H7">
-        <v>0.1726743435190134</v>
+        <v>0.5311541593417558</v>
       </c>
       <c r="I7">
-        <v>4.866636885496734</v>
+        <v>14.96999711166106</v>
       </c>
       <c r="J7">
-        <v>1.713509215123977</v>
+        <v>5.270832528651322</v>
       </c>
       <c r="K7">
-        <v>8.629863266933521</v>
+        <v>26.5458531671073</v>
       </c>
       <c r="L7">
-        <v>2.317299559425287</v>
+        <v>7.128119177091476</v>
       </c>
       <c r="M7">
-        <v>14.11421318260127</v>
+        <v>43.41596374419932</v>
       </c>
       <c r="N7">
-        <v>0.06897673521594722</v>
+        <v>0.2121755847517159</v>
       </c>
       <c r="O7">
-        <v>1.090115697076738</v>
+        <v>3.353245623327304</v>
       </c>
       <c r="P7">
-        <v>78.37083737134374</v>
+        <v>241.072271609951</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>1.898214292763879</v>
+        <v>5.838993775079761</v>
       </c>
       <c r="C8">
-        <v>32.46453269026205</v>
+        <v>99.86238382669966</v>
       </c>
       <c r="D8">
-        <v>0.004051817243428925</v>
+        <v>0.01246357471457795</v>
       </c>
       <c r="E8">
-        <v>1.46554768767528</v>
+        <v>4.508091556385176</v>
       </c>
       <c r="F8">
-        <v>2.442000089595425</v>
+        <v>7.511703697652847</v>
       </c>
       <c r="G8">
-        <v>11.73133624918743</v>
+        <v>36.08612557259559</v>
       </c>
       <c r="H8">
-        <v>0.2542150057363252</v>
+        <v>0.7819769568086961</v>
       </c>
       <c r="I8">
-        <v>7.164770970314637</v>
+        <v>22.03916241438989</v>
       </c>
       <c r="J8">
-        <v>1.639968047092905</v>
+        <v>5.044616540297187</v>
       </c>
       <c r="K8">
-        <v>8.259482869211054</v>
+        <v>25.40654616422716</v>
       </c>
       <c r="L8">
-        <v>1.365987108713854</v>
+        <v>4.201838672811818</v>
       </c>
       <c r="M8">
-        <v>8.319957244480751</v>
+        <v>25.59256810184381</v>
       </c>
       <c r="N8">
-        <v>0.08737053127353309</v>
+        <v>0.2687557406855068</v>
       </c>
       <c r="O8">
-        <v>1.380813216297201</v>
+        <v>4.247444456214585</v>
       </c>
       <c r="P8">
-        <v>78.47824781984775</v>
+        <v>241.4026710504063</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>2.074772337236019</v>
+        <v>6.382094375756417</v>
       </c>
       <c r="C9">
-        <v>35.48414666553596</v>
+        <v>109.1508541917057</v>
       </c>
       <c r="D9">
-        <v>0.003263963890539967</v>
+        <v>0.01004010185341001</v>
       </c>
       <c r="E9">
-        <v>1.18058008173842</v>
+        <v>3.63151819819917</v>
       </c>
       <c r="F9">
-        <v>2.109000077377867</v>
+        <v>6.48738046615473</v>
       </c>
       <c r="G9">
-        <v>10.1316085788437</v>
+        <v>31.16529026724164</v>
       </c>
       <c r="H9">
-        <v>0.3597382156646112</v>
+        <v>1.106571165295325</v>
       </c>
       <c r="I9">
-        <v>10.13882684478486</v>
+        <v>31.1874939826272</v>
       </c>
       <c r="J9">
-        <v>1.191366922103366</v>
+        <v>3.66469901133697</v>
       </c>
       <c r="K9">
-        <v>6.000162443103994</v>
+        <v>18.4567734466583</v>
       </c>
       <c r="L9">
-        <v>1.048882958476709</v>
+        <v>3.226411838051929</v>
       </c>
       <c r="M9">
-        <v>6.388538598440575</v>
+        <v>19.65143622105864</v>
       </c>
       <c r="N9">
-        <v>0.02759069408637888</v>
+        <v>0.08487023390068639</v>
       </c>
       <c r="O9">
-        <v>0.436046278830695</v>
+        <v>1.341298249330922</v>
       </c>
       <c r="P9">
-        <v>76.5745246601137</v>
+        <v>235.546731749171</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>2.107500169869877</v>
+        <v>6.482766682223309</v>
       </c>
       <c r="C10">
-        <v>36.04387998778187</v>
+        <v>110.872619430097</v>
       </c>
       <c r="D10">
-        <v>0.003826716285460651</v>
+        <v>0.0117711538971014</v>
       </c>
       <c r="E10">
-        <v>1.38412837169332</v>
+        <v>4.257642025474889</v>
       </c>
       <c r="F10">
-        <v>1.66500006108779</v>
+        <v>5.121616157490578</v>
       </c>
       <c r="G10">
-        <v>7.998638351718709</v>
+        <v>24.60417652676972</v>
       </c>
       <c r="H10">
-        <v>0.3837207633755852</v>
+        <v>1.180342576315013</v>
       </c>
       <c r="I10">
-        <v>10.81474863443719</v>
+        <v>33.26666024813569</v>
       </c>
       <c r="J10">
-        <v>0.6398081618703262</v>
+        <v>1.968079098680966</v>
       </c>
       <c r="K10">
-        <v>3.222309460185478</v>
+        <v>9.911970925057233</v>
       </c>
       <c r="L10">
-        <v>0.5610304196503328</v>
+        <v>1.725755169190568</v>
       </c>
       <c r="M10">
-        <v>3.417125296840307</v>
+        <v>10.511233327543</v>
       </c>
       <c r="N10">
-        <v>0.01379534704318944</v>
+        <v>0.04243511695034319</v>
       </c>
       <c r="O10">
-        <v>0.2180231394153475</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="P10">
-        <v>68.47353488125479</v>
+        <v>210.6277175624909</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>1.360788830565756</v>
+        <v>4.185848532044476</v>
       </c>
       <c r="C11">
-        <v>23.27312234601362</v>
+        <v>71.58918622785183</v>
       </c>
       <c r="D11">
-        <v>0.005965175386159251</v>
+        <v>0.01834915166312864</v>
       </c>
       <c r="E11">
-        <v>2.15761187352194</v>
+        <v>6.63691256912262</v>
       </c>
       <c r="F11">
-        <v>0.999000036652674</v>
+        <v>3.072969694494347</v>
       </c>
       <c r="G11">
-        <v>4.799183011031226</v>
+        <v>14.76250591606183</v>
       </c>
       <c r="H11">
-        <v>0.3165696297848578</v>
+        <v>0.9737826254598858</v>
       </c>
       <c r="I11">
-        <v>8.922167623410681</v>
+        <v>27.44499470471195</v>
       </c>
       <c r="J11">
-        <v>0.294164672124288</v>
+        <v>0.9048639534165358</v>
       </c>
       <c r="K11">
-        <v>1.481521590889875</v>
+        <v>4.557228011520565</v>
       </c>
       <c r="L11">
-        <v>0.4146746580024201</v>
+        <v>1.275558168532158</v>
       </c>
       <c r="M11">
-        <v>2.525701306360227</v>
+        <v>7.769172459488304</v>
       </c>
       <c r="N11">
-        <v>0.01839379605758592</v>
+        <v>0.0565801559337909</v>
       </c>
       <c r="O11">
-        <v>0.2906975192204635</v>
+        <v>0.8941988328872811</v>
       </c>
       <c r="P11">
-        <v>46.85956206902178</v>
+        <v>144.1421510031887</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>1.1721731635443</v>
+        <v>3.605658134248437</v>
       </c>
       <c r="C12">
-        <v>20.0472908309649</v>
+        <v>61.66638130133312</v>
       </c>
       <c r="D12">
-        <v>0.006640478260064071</v>
+        <v>0.0204264141155583</v>
       </c>
       <c r="E12">
-        <v>2.40186982146782</v>
+        <v>7.388261161853484</v>
       </c>
       <c r="F12">
-        <v>0.8325000305438949</v>
+        <v>2.560808078745289</v>
       </c>
       <c r="G12">
-        <v>3.999319175859354</v>
+        <v>12.30208826338486</v>
       </c>
       <c r="H12">
-        <v>0.2734010439051046</v>
+        <v>0.8409940856244471</v>
       </c>
       <c r="I12">
-        <v>7.705508402036497</v>
+        <v>23.70249542679668</v>
       </c>
       <c r="J12">
-        <v>0.3529976065491455</v>
+        <v>1.085836744099843</v>
       </c>
       <c r="K12">
-        <v>1.77782590906785</v>
+        <v>5.46867361382468</v>
       </c>
       <c r="L12">
-        <v>0.3658894041197821</v>
+        <v>1.125492501646022</v>
       </c>
       <c r="M12">
-        <v>2.2285599762002</v>
+        <v>6.855152170136737</v>
       </c>
       <c r="N12">
-        <v>0.01379534704318944</v>
+        <v>0.04243511695034319</v>
       </c>
       <c r="O12">
-        <v>0.2180231394153475</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="P12">
-        <v>41.39579432897745</v>
+        <v>127.3353521374249</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,43 +1030,43 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>0.8922640686494449</v>
+        <v>2.744644986834225</v>
       </c>
       <c r="C13">
-        <v>15.26009794333552</v>
+        <v>46.9407575519332</v>
       </c>
       <c r="D13">
-        <v>0.003714165806476515</v>
+        <v>0.01142494348836312</v>
       </c>
       <c r="E13">
-        <v>1.34341871370234</v>
+        <v>4.132417260019746</v>
       </c>
       <c r="F13">
-        <v>0.7215000264713756</v>
+        <v>2.21936700157925</v>
       </c>
       <c r="G13">
-        <v>3.466076619078107</v>
+        <v>10.66180982826688</v>
       </c>
       <c r="H13">
-        <v>0.2206394389409616</v>
+        <v>0.6786969813811325</v>
       </c>
       <c r="I13">
-        <v>6.218480464801384</v>
+        <v>19.12832964267803</v>
       </c>
       <c r="J13">
-        <v>0.2426858545025376</v>
+        <v>0.7465127615686421</v>
       </c>
       <c r="K13">
-        <v>1.222255312484147</v>
+        <v>3.759713109504467</v>
       </c>
       <c r="L13">
-        <v>0.2683188963545068</v>
+        <v>0.8253611678737498</v>
       </c>
       <c r="M13">
-        <v>1.634277315880147</v>
+        <v>5.027111591433607</v>
       </c>
       <c r="P13">
-        <v>31.49372882000695</v>
+        <v>96.87614682656128</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>0.6519728764166313</v>
+        <v>2.005498315669409</v>
       </c>
       <c r="C14">
-        <v>11.15047697210906</v>
+        <v>34.2993759332176</v>
       </c>
       <c r="D14">
-        <v>0.003939266764444788</v>
+        <v>0.01211736430583967</v>
       </c>
       <c r="E14">
-        <v>1.4248380296843</v>
+        <v>4.382866790930033</v>
       </c>
       <c r="F14">
-        <v>0.5827500213807265</v>
+        <v>1.792565655121702</v>
       </c>
       <c r="G14">
-        <v>2.799523423101549</v>
+        <v>8.611461784369403</v>
       </c>
       <c r="H14">
-        <v>0.1103197194704808</v>
+        <v>0.3393484906905663</v>
       </c>
       <c r="I14">
-        <v>3.109240232400692</v>
+        <v>9.564164821339013</v>
       </c>
       <c r="J14">
-        <v>0.2426858545025376</v>
+        <v>0.7465127615686421</v>
       </c>
       <c r="K14">
-        <v>1.222255312484147</v>
+        <v>3.759713109504467</v>
       </c>
       <c r="L14">
-        <v>0.2927115232958259</v>
+        <v>0.9003940013168176</v>
       </c>
       <c r="M14">
-        <v>1.78284798096016</v>
+        <v>5.484121736109391</v>
       </c>
       <c r="N14">
-        <v>0.004598449014396479</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O14">
-        <v>0.07267437980511587</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P14">
-        <v>23.45083404139007</v>
+        <v>72.13583551134815</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1124,49 +1124,49 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.408236649169727</v>
+        <v>1.255754559613342</v>
       </c>
       <c r="C15">
-        <v>6.98193670380409</v>
+        <v>21.47675586835553</v>
       </c>
       <c r="D15">
-        <v>0.001012954310857231</v>
+        <v>0.003115893678644487</v>
       </c>
       <c r="E15">
-        <v>0.3663869219188201</v>
+        <v>1.127022889096294</v>
       </c>
       <c r="F15">
-        <v>0.2497500091631685</v>
+        <v>0.7682424236235866</v>
       </c>
       <c r="G15">
-        <v>1.199795752757806</v>
+        <v>3.690626479015458</v>
       </c>
       <c r="H15">
-        <v>0.1007267003860911</v>
+        <v>0.3098399262826909</v>
       </c>
       <c r="I15">
-        <v>2.838871516539763</v>
+        <v>8.732498315135619</v>
       </c>
       <c r="J15">
-        <v>0.1323741024559296</v>
+        <v>0.4071887790374412</v>
       </c>
       <c r="K15">
-        <v>0.6666847159004438</v>
+        <v>2.050752605184255</v>
       </c>
       <c r="L15">
-        <v>0.4146746580024201</v>
+        <v>1.275558168532158</v>
       </c>
       <c r="M15">
-        <v>2.525701306360227</v>
+        <v>7.769172459488304</v>
       </c>
       <c r="N15">
-        <v>0.004598449014396479</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O15">
-        <v>0.07267437980511587</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P15">
-        <v>15.96342481958886</v>
+        <v>49.10422311424859</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1174,49 +1174,49 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.2867991649230359</v>
+        <v>0.8822073171967153</v>
       </c>
       <c r="C16">
-        <v>4.905031481786416</v>
+        <v>15.08810064169281</v>
       </c>
       <c r="D16">
-        <v>0.002363560058666873</v>
+        <v>0.007270418583503802</v>
       </c>
       <c r="E16">
-        <v>0.8549028178105801</v>
+        <v>2.62972007455802</v>
       </c>
       <c r="F16">
-        <v>0.166500006108779</v>
+        <v>0.5121616157490576</v>
       </c>
       <c r="G16">
-        <v>0.7998638351718708</v>
+        <v>2.460417652676971</v>
       </c>
       <c r="H16">
-        <v>0.04796509542194815</v>
+        <v>0.1475428220393766</v>
       </c>
       <c r="I16">
-        <v>1.351843579304649</v>
+        <v>4.158332531016962</v>
       </c>
       <c r="J16">
-        <v>0.2721023217149663</v>
+        <v>0.8369991569102955</v>
       </c>
       <c r="K16">
-        <v>1.370407471573134</v>
+        <v>4.215435910656525</v>
       </c>
       <c r="L16">
-        <v>0.2683188963545068</v>
+        <v>0.8253611678737498</v>
       </c>
       <c r="M16">
-        <v>1.634277315880147</v>
+        <v>5.027111591433607</v>
       </c>
       <c r="N16">
-        <v>0.009196898028792958</v>
+        <v>0.02829007796689545</v>
       </c>
       <c r="O16">
-        <v>0.1453487596102317</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="P16">
-        <v>12.11492120374773</v>
+        <v>37.26605039479813</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1224,37 +1224,37 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.1851706320073656</v>
+        <v>0.5695933129047863</v>
       </c>
       <c r="C17">
-        <v>3.166912217970208</v>
+        <v>9.741566480372235</v>
       </c>
       <c r="D17">
-        <v>0.00348906484850824</v>
+        <v>0.01073252267088657</v>
       </c>
       <c r="E17">
-        <v>1.26199939772038</v>
+        <v>3.881967729109458</v>
       </c>
       <c r="F17">
-        <v>0.05550000203625965</v>
+        <v>0.1707205385830192</v>
       </c>
       <c r="G17">
-        <v>0.2666212783906237</v>
+        <v>0.8201392175589906</v>
       </c>
       <c r="J17">
-        <v>0.1985611536838944</v>
+        <v>0.6107831685561618</v>
       </c>
       <c r="K17">
-        <v>1.000027073850666</v>
+        <v>3.076128907776382</v>
       </c>
       <c r="L17">
-        <v>0.4390672849437388</v>
+        <v>1.350591001975226</v>
       </c>
       <c r="M17">
-        <v>2.67427197144024</v>
+        <v>8.226182604164087</v>
       </c>
       <c r="P17">
-        <v>9.251620076891886</v>
+        <v>28.45840548367123</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1262,37 +1262,37 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.1197149667396456</v>
+        <v>0.3682486999710016</v>
       </c>
       <c r="C18">
-        <v>2.047445573478414</v>
+        <v>6.298036003589494</v>
       </c>
       <c r="D18">
-        <v>0.002363560058666873</v>
+        <v>0.007270418583503802</v>
       </c>
       <c r="E18">
-        <v>0.8549028178105801</v>
+        <v>2.62972007455802</v>
       </c>
       <c r="F18">
-        <v>0.1942500071269088</v>
+        <v>0.5975218850405674</v>
       </c>
       <c r="G18">
-        <v>0.9331744743671827</v>
+        <v>2.870487261456466</v>
       </c>
       <c r="J18">
-        <v>0.1323741024559296</v>
+        <v>0.4071887790374412</v>
       </c>
       <c r="K18">
-        <v>0.6666847159004438</v>
+        <v>2.050752605184255</v>
       </c>
       <c r="L18">
-        <v>0.5610304196503328</v>
+        <v>1.725755169190568</v>
       </c>
       <c r="M18">
-        <v>3.417125296840307</v>
+        <v>10.511233327543</v>
       </c>
       <c r="P18">
-        <v>8.929065934428412</v>
+        <v>27.46621422415431</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1300,43 +1300,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.1343563655495304</v>
+        <v>0.4132863107588216</v>
       </c>
       <c r="C19">
-        <v>2.297852586062105</v>
+        <v>7.068299399711948</v>
       </c>
       <c r="D19">
-        <v>0.002025908621714462</v>
+        <v>0.006231787357288973</v>
       </c>
       <c r="E19">
-        <v>0.7327738438376401</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="F19">
-        <v>0.166500006108779</v>
+        <v>0.5121616157490576</v>
       </c>
       <c r="G19">
-        <v>0.7998638351718708</v>
+        <v>2.460417652676971</v>
       </c>
       <c r="H19">
-        <v>0.03837207633755852</v>
+        <v>0.1180342576315013</v>
       </c>
       <c r="I19">
-        <v>1.081474863443719</v>
+        <v>3.326666024813569</v>
       </c>
       <c r="J19">
-        <v>0.1691446864714655</v>
+        <v>0.5202967732145083</v>
       </c>
       <c r="K19">
-        <v>0.8518749147616782</v>
+        <v>2.620406106624326</v>
       </c>
       <c r="L19">
-        <v>0.5366377927090137</v>
+        <v>1.6507223357475</v>
       </c>
       <c r="M19">
-        <v>3.268554631760294</v>
+        <v>10.05422318286721</v>
       </c>
       <c r="P19">
-        <v>10.07943151083537</v>
+        <v>31.00479122534529</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1344,43 +1344,43 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.2402911922328139</v>
+        <v>0.7391466711648156</v>
       </c>
       <c r="C20">
-        <v>4.109620971226459</v>
+        <v>12.64138161871561</v>
       </c>
       <c r="D20">
-        <v>0.001350605747809642</v>
+        <v>0.004154524904859316</v>
       </c>
       <c r="E20">
-        <v>0.48851589589176</v>
+        <v>1.502697185461725</v>
       </c>
       <c r="F20">
-        <v>0.3885000142538176</v>
+        <v>1.195043770081135</v>
       </c>
       <c r="G20">
-        <v>1.866348948734365</v>
+        <v>5.740974522912933</v>
       </c>
       <c r="H20">
-        <v>0.01918603816877926</v>
+        <v>0.05901712881575067</v>
       </c>
       <c r="I20">
-        <v>0.5407374317218595</v>
+        <v>1.663333012406784</v>
       </c>
       <c r="J20">
-        <v>0.3382893729429311</v>
+        <v>1.040593546429017</v>
       </c>
       <c r="K20">
-        <v>1.703749829523356</v>
+        <v>5.240812213248653</v>
       </c>
       <c r="L20">
-        <v>0.6829935543569269</v>
+        <v>2.100919336405909</v>
       </c>
       <c r="M20">
-        <v>4.159978622240375</v>
+        <v>12.7962840509219</v>
       </c>
       <c r="P20">
-        <v>14.53956247704125</v>
+        <v>44.72435758146909</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1388,49 +1388,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.5779046236136849</v>
+        <v>1.777660990507495</v>
       </c>
       <c r="C21">
-        <v>9.883712084920978</v>
+        <v>30.40274934106872</v>
       </c>
       <c r="D21">
-        <v>0.001012954310857231</v>
+        <v>0.003115893678644487</v>
       </c>
       <c r="E21">
-        <v>0.3663869219188201</v>
+        <v>1.127022889096294</v>
       </c>
       <c r="F21">
-        <v>0.8325000305438949</v>
+        <v>2.560808078745289</v>
       </c>
       <c r="G21">
-        <v>3.999319175859354</v>
+        <v>12.30208826338486</v>
       </c>
       <c r="H21">
-        <v>0.1774708530612081</v>
+        <v>0.5459084415456935</v>
       </c>
       <c r="I21">
-        <v>5.001821243427199</v>
+        <v>15.38583036476276</v>
       </c>
       <c r="J21">
-        <v>0.6030375778547905</v>
+        <v>1.854971104503899</v>
       </c>
       <c r="K21">
-        <v>3.037119261324245</v>
+        <v>9.342317423617162</v>
       </c>
       <c r="L21">
-        <v>1.000097704594072</v>
+        <v>3.076346171165795</v>
       </c>
       <c r="M21">
-        <v>6.091397268280546</v>
+        <v>18.73741593170709</v>
       </c>
       <c r="N21">
-        <v>0.01379534704318944</v>
+        <v>0.04243511695034319</v>
       </c>
       <c r="O21">
-        <v>0.2180231394153475</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="P21">
-        <v>31.80359818616818</v>
+        <v>97.8293191353995</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1438,49 +1438,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>1.098104910741355</v>
+        <v>3.377820809086523</v>
       </c>
       <c r="C22">
-        <v>18.78052594377683</v>
+        <v>57.76975470918422</v>
       </c>
       <c r="D22">
-        <v>0.001463156226793778</v>
+        <v>0.004500735313597592</v>
       </c>
       <c r="E22">
-        <v>0.52922555388274</v>
+        <v>1.62792195091687</v>
       </c>
       <c r="F22">
-        <v>1.776000065160309</v>
+        <v>5.463057234656615</v>
       </c>
       <c r="G22">
-        <v>8.531880908499959</v>
+        <v>26.2444549618877</v>
       </c>
       <c r="H22">
-        <v>0.4748544446772868</v>
+        <v>1.460673938189829</v>
       </c>
       <c r="I22">
-        <v>13.38325143511602</v>
+        <v>41.16749205706792</v>
       </c>
       <c r="J22">
-        <v>1.036930469238115</v>
+        <v>3.189645435793289</v>
       </c>
       <c r="K22">
-        <v>5.222363607886809</v>
+        <v>16.06422874061</v>
       </c>
       <c r="L22">
-        <v>1.756269139774955</v>
+        <v>5.402364007900904</v>
       </c>
       <c r="M22">
-        <v>10.69708788576096</v>
+        <v>32.90473041665635</v>
       </c>
       <c r="N22">
-        <v>0.0459844901439648</v>
+        <v>0.1414503898344773</v>
       </c>
       <c r="O22">
-        <v>0.7267437980511584</v>
+        <v>2.235497082218202</v>
       </c>
       <c r="P22">
-        <v>64.06068580893727</v>
+        <v>197.0535924693165</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1488,49 +1488,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>1.767302962228438</v>
+        <v>5.43630454921219</v>
       </c>
       <c r="C23">
-        <v>30.22559940127845</v>
+        <v>92.97532287313415</v>
       </c>
       <c r="D23">
-        <v>0.001575706705777915</v>
+        <v>0.004846945722335868</v>
       </c>
       <c r="E23">
-        <v>0.5699352118737202</v>
+        <v>1.753146716372014</v>
       </c>
       <c r="F23">
-        <v>1.387500050906491</v>
+        <v>4.26801346457548</v>
       </c>
       <c r="G23">
-        <v>6.665531959765592</v>
+        <v>20.50348043897477</v>
       </c>
       <c r="H23">
-        <v>0.470057935135092</v>
+        <v>1.445919655985891</v>
       </c>
       <c r="I23">
-        <v>13.24806707718555</v>
+        <v>40.75165880396622</v>
       </c>
       <c r="J23">
-        <v>1.206075155709581</v>
+        <v>3.709942209007798</v>
       </c>
       <c r="K23">
-        <v>6.074238522648489</v>
+        <v>18.68463484723432</v>
       </c>
       <c r="L23">
-        <v>2.219729051660012</v>
+        <v>6.8279878433192</v>
       </c>
       <c r="M23">
-        <v>13.51993052228121</v>
+        <v>41.5879231654962</v>
       </c>
       <c r="N23">
-        <v>0.04138604112956834</v>
+        <v>0.1273053508510296</v>
       </c>
       <c r="O23">
-        <v>0.6540694182460427</v>
+        <v>2.011947373996382</v>
       </c>
       <c r="P23">
-        <v>78.05099901675402</v>
+        <v>240.088434237848</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1538,49 +1538,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>2.169510800123507</v>
+        <v>6.673514210265845</v>
       </c>
       <c r="C24">
-        <v>37.10442733519517</v>
+        <v>114.1349114607334</v>
       </c>
       <c r="D24">
-        <v>0.003263963890539967</v>
+        <v>0.01004010185341001</v>
       </c>
       <c r="E24">
-        <v>1.18058008173842</v>
+        <v>3.63151819819917</v>
       </c>
       <c r="F24">
-        <v>2.025750074323476</v>
+        <v>6.231299658280202</v>
       </c>
       <c r="G24">
-        <v>9.731676661257762</v>
+        <v>29.93508144090316</v>
       </c>
       <c r="H24">
-        <v>0.2877905725316889</v>
+        <v>0.8852569322362598</v>
       </c>
       <c r="I24">
-        <v>8.111061475827892</v>
+        <v>24.94999518610176</v>
       </c>
       <c r="J24">
-        <v>1.478177477424547</v>
+        <v>4.546941365918093</v>
       </c>
       <c r="K24">
-        <v>7.444645994221622</v>
+        <v>22.90007075789084</v>
       </c>
       <c r="L24">
-        <v>2.707581590486389</v>
+        <v>8.328644512180567</v>
       </c>
       <c r="M24">
-        <v>16.49134382388149</v>
+        <v>50.72812605901185</v>
       </c>
       <c r="N24">
-        <v>0.0919689802879296</v>
+        <v>0.2829007796689545</v>
       </c>
       <c r="O24">
-        <v>1.453487596102317</v>
+        <v>4.470994164436404</v>
       </c>
       <c r="P24">
-        <v>90.28126642729273</v>
+        <v>277.7092948276799</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1588,49 +1588,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>1.577826036453459</v>
+        <v>4.853464880193343</v>
       </c>
       <c r="C25">
-        <v>26.98503806196009</v>
+        <v>83.00720833507883</v>
       </c>
       <c r="D25">
-        <v>0.005740074428190977</v>
+        <v>0.01765673084565209</v>
       </c>
       <c r="E25">
-        <v>2.07619255753998</v>
+        <v>6.386463038212333</v>
       </c>
       <c r="F25">
-        <v>2.830500103849241</v>
+        <v>8.706747467733978</v>
       </c>
       <c r="G25">
-        <v>13.59768519792181</v>
+        <v>41.82710009550852</v>
       </c>
       <c r="H25">
-        <v>0.2877905725316889</v>
+        <v>0.8852569322362598</v>
       </c>
       <c r="I25">
-        <v>8.111061475827892</v>
+        <v>24.94999518610176</v>
       </c>
       <c r="J25">
-        <v>1.662030397502227</v>
+        <v>5.112481336803427</v>
       </c>
       <c r="K25">
-        <v>8.370596988527794</v>
+        <v>25.7483382650912</v>
       </c>
       <c r="L25">
-        <v>3.610108787315184</v>
+        <v>11.10485934957409</v>
       </c>
       <c r="M25">
-        <v>21.98845843184197</v>
+        <v>67.63750141201582</v>
       </c>
       <c r="N25">
-        <v>0.1287565724031015</v>
+        <v>0.3960610915365365</v>
       </c>
       <c r="O25">
-        <v>2.034882634543244</v>
+        <v>6.259391830210967</v>
       </c>
       <c r="P25">
-        <v>93.26666789264587</v>
+        <v>286.8925259511427</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1638,49 +1638,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>1.334951067960078</v>
+        <v>4.106370395360084</v>
       </c>
       <c r="C26">
-        <v>22.83122761792476</v>
+        <v>70.22989788175336</v>
       </c>
       <c r="D26">
-        <v>0.003826716285460651</v>
+        <v>0.0117711538971014</v>
       </c>
       <c r="E26">
-        <v>1.38412837169332</v>
+        <v>4.257642025474889</v>
       </c>
       <c r="F26">
-        <v>3.024750110976151</v>
+        <v>9.304269352774547</v>
       </c>
       <c r="G26">
-        <v>14.53085967228899</v>
+        <v>44.69758735696497</v>
       </c>
       <c r="H26">
-        <v>0.1534883053502341</v>
+        <v>0.4721370305260054</v>
       </c>
       <c r="I26">
-        <v>4.325899453774876</v>
+        <v>13.30666409925428</v>
       </c>
       <c r="J26">
-        <v>1.78705038315505</v>
+        <v>5.497048517005456</v>
       </c>
       <c r="K26">
-        <v>9.00024366465599</v>
+        <v>27.68516016998744</v>
       </c>
       <c r="L26">
-        <v>4.219924460848158</v>
+        <v>12.98068018565078</v>
       </c>
       <c r="M26">
-        <v>25.7027250588423</v>
+        <v>79.06275502891042</v>
       </c>
       <c r="N26">
-        <v>0.06437828620155073</v>
+        <v>0.1980305457682682</v>
       </c>
       <c r="O26">
-        <v>1.017441317271622</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="P26">
-        <v>89.38089448722853</v>
+        <v>274.9397096584331</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1688,49 +1688,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>1.390932886939048</v>
+        <v>4.278573024842925</v>
       </c>
       <c r="C27">
-        <v>23.78866619545063</v>
+        <v>73.17502263163335</v>
       </c>
       <c r="D27">
-        <v>0.004727120117333746</v>
+        <v>0.0145408371670076</v>
       </c>
       <c r="E27">
-        <v>1.70980563562116</v>
+        <v>5.25944014911604</v>
       </c>
       <c r="F27">
-        <v>2.913750106903631</v>
+        <v>8.962828275608507</v>
       </c>
       <c r="G27">
-        <v>13.99761711550774</v>
+        <v>43.057308921847</v>
       </c>
       <c r="H27">
-        <v>0.1726743435190134</v>
+        <v>0.5311541593417558</v>
       </c>
       <c r="I27">
-        <v>4.866636885496734</v>
+        <v>14.96999711166106</v>
       </c>
       <c r="J27">
-        <v>1.662030397502227</v>
+        <v>5.112481336803427</v>
       </c>
       <c r="K27">
-        <v>8.370596988527794</v>
+        <v>25.7483382650912</v>
       </c>
       <c r="L27">
-        <v>3.756464548963097</v>
+        <v>11.55505635023249</v>
       </c>
       <c r="M27">
-        <v>22.87988242232205</v>
+        <v>70.37956228007049</v>
       </c>
       <c r="N27">
-        <v>0.05058293915836126</v>
+        <v>0.1555954288179251</v>
       </c>
       <c r="O27">
-        <v>0.7994181778562742</v>
+        <v>2.459046790440023</v>
       </c>
       <c r="P27">
-        <v>86.36378576388509</v>
+        <v>265.6589455626732</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1738,49 +1738,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>1.472752468523699</v>
+        <v>4.530253791010158</v>
       </c>
       <c r="C28">
-        <v>25.18799950106537</v>
+        <v>77.47943572761179</v>
       </c>
       <c r="D28">
-        <v>0.004502019159365471</v>
+        <v>0.01384841634953105</v>
       </c>
       <c r="E28">
-        <v>1.6283863196392</v>
+        <v>5.008990618205752</v>
       </c>
       <c r="F28">
-        <v>2.96925010893989</v>
+        <v>9.133548814191528</v>
       </c>
       <c r="G28">
-        <v>14.26423839389836</v>
+        <v>43.877448139406</v>
       </c>
       <c r="H28">
-        <v>0.1582848148924289</v>
+        <v>0.4868913127299429</v>
       </c>
       <c r="I28">
-        <v>4.461083811705341</v>
+        <v>13.72249735235597</v>
       </c>
       <c r="J28">
-        <v>1.632613930289798</v>
+        <v>5.021994941461774</v>
       </c>
       <c r="K28">
-        <v>8.222444829438807</v>
+        <v>25.29261546393915</v>
       </c>
       <c r="L28">
-        <v>3.561323533432548</v>
+        <v>10.95479368268795</v>
       </c>
       <c r="M28">
-        <v>21.69131710168195</v>
+        <v>66.72348112266425</v>
       </c>
       <c r="N28">
-        <v>0.08737053127353309</v>
+        <v>0.2687557406855068</v>
       </c>
       <c r="O28">
-        <v>1.380813216297201</v>
+        <v>4.247444456214585</v>
       </c>
       <c r="P28">
-        <v>86.72238058023748</v>
+        <v>266.7619995795139</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1788,49 +1788,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>1.458111069713813</v>
+        <v>4.48521618022234</v>
       </c>
       <c r="C29">
-        <v>24.93759248848169</v>
+        <v>76.70917233148931</v>
       </c>
       <c r="D29">
-        <v>0.004051817243428925</v>
+        <v>0.01246357471457795</v>
       </c>
       <c r="E29">
-        <v>1.46554768767528</v>
+        <v>4.508091556385176</v>
       </c>
       <c r="F29">
-        <v>2.469750090613555</v>
+        <v>7.597063966944354</v>
       </c>
       <c r="G29">
-        <v>11.86464688838275</v>
+        <v>36.49619518137508</v>
       </c>
       <c r="H29">
-        <v>0.1726743435190134</v>
+        <v>0.5311541593417558</v>
       </c>
       <c r="I29">
-        <v>4.866636885496734</v>
+        <v>14.96999711166106</v>
       </c>
       <c r="J29">
-        <v>1.860591551186122</v>
+        <v>5.72326450535959</v>
       </c>
       <c r="K29">
-        <v>9.370624062378457</v>
+        <v>28.82446717286758</v>
       </c>
       <c r="L29">
-        <v>2.439262694131882</v>
+        <v>7.503283344306816</v>
       </c>
       <c r="M29">
-        <v>14.85706650800133</v>
+        <v>45.70101446757823</v>
       </c>
       <c r="N29">
-        <v>0.06437828620155073</v>
+        <v>0.1980305457682682</v>
       </c>
       <c r="O29">
-        <v>1.017441317271622</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="P29">
-        <v>76.84837569029723</v>
+        <v>236.3891100131196</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1838,49 +1838,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>1.562323378890052</v>
+        <v>4.805777998182705</v>
       </c>
       <c r="C30">
-        <v>26.71990122510679</v>
+        <v>82.19163532741969</v>
       </c>
       <c r="D30">
-        <v>0.003939266764444788</v>
+        <v>0.01211736430583967</v>
       </c>
       <c r="E30">
-        <v>1.4248380296843</v>
+        <v>4.382866790930033</v>
       </c>
       <c r="F30">
-        <v>3.441000126248098</v>
+        <v>10.58467339214719</v>
       </c>
       <c r="G30">
-        <v>16.53051926021867</v>
+        <v>50.8486314886574</v>
       </c>
       <c r="H30">
-        <v>0.1774708530612081</v>
+        <v>0.5459084415456935</v>
       </c>
       <c r="I30">
-        <v>5.001821243427199</v>
+        <v>15.38583036476276</v>
       </c>
       <c r="J30">
-        <v>1.720863331927085</v>
+        <v>5.293454127486736</v>
       </c>
       <c r="K30">
-        <v>8.666901306705768</v>
+        <v>26.65978386739531</v>
       </c>
       <c r="L30">
-        <v>2.951507859899578</v>
+        <v>9.078972846611245</v>
       </c>
       <c r="M30">
-        <v>17.97705047468162</v>
+        <v>55.29822750576968</v>
       </c>
       <c r="N30">
-        <v>0.06437828620155073</v>
+        <v>0.1980305457682682</v>
       </c>
       <c r="O30">
-        <v>1.017441317271622</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="P30">
-        <v>87.25995596008798</v>
+        <v>268.415605976088</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1888,49 +1888,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>1.636391631692997</v>
+        <v>5.03361532334462</v>
       </c>
       <c r="C31">
-        <v>27.98666611229488</v>
+        <v>86.08826191956862</v>
       </c>
       <c r="D31">
-        <v>0.004164367722413061</v>
+        <v>0.01280978512331622</v>
       </c>
       <c r="E31">
-        <v>1.50625734566626</v>
+        <v>4.63331632184032</v>
       </c>
       <c r="F31">
-        <v>3.274500120139319</v>
+        <v>10.07251177639814</v>
       </c>
       <c r="G31">
-        <v>15.73065542504679</v>
+        <v>48.38821383598044</v>
       </c>
       <c r="H31">
-        <v>0.1678778339768185</v>
+        <v>0.5163998771378182</v>
       </c>
       <c r="I31">
-        <v>4.731452527566271</v>
+        <v>14.55416385855936</v>
       </c>
       <c r="J31">
-        <v>1.669384514305334</v>
+        <v>5.135102935638843</v>
       </c>
       <c r="K31">
-        <v>8.407635028300041</v>
+        <v>25.86226896537922</v>
       </c>
       <c r="L31">
-        <v>2.536833201897156</v>
+        <v>7.803414678079085</v>
       </c>
       <c r="M31">
-        <v>15.45134916832139</v>
+        <v>47.52905504628138</v>
       </c>
       <c r="N31">
-        <v>0.07357518423034366</v>
+        <v>0.2263206237351636</v>
       </c>
       <c r="O31">
-        <v>1.162790076881854</v>
+        <v>3.576795331549124</v>
       </c>
       <c r="P31">
-        <v>84.33953253804185</v>
+        <v>259.4322502786155</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1938,49 +1938,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>1.860318907608882</v>
+        <v>5.722425841275989</v>
       </c>
       <c r="C32">
-        <v>31.81642042239838</v>
+        <v>97.86876091908853</v>
       </c>
       <c r="D32">
-        <v>0.00315141341155583</v>
+        <v>0.009693891444671737</v>
       </c>
       <c r="E32">
-        <v>1.13987042374744</v>
+        <v>3.506293432744027</v>
       </c>
       <c r="F32">
-        <v>3.524250129302487</v>
+        <v>10.84075420002172</v>
       </c>
       <c r="G32">
-        <v>16.9304511778046</v>
+        <v>52.07884031499592</v>
       </c>
       <c r="H32">
-        <v>0.2446219866519356</v>
+        <v>0.752468392400821</v>
       </c>
       <c r="I32">
-        <v>6.894402254453707</v>
+        <v>21.20749590818649</v>
       </c>
       <c r="J32">
-        <v>1.595843346274262</v>
+        <v>4.908886947284707</v>
       </c>
       <c r="K32">
-        <v>8.037254630577571</v>
+        <v>24.72296196249907</v>
       </c>
       <c r="L32">
-        <v>1.487950243420448</v>
+        <v>4.577002840027157</v>
       </c>
       <c r="M32">
-        <v>9.062810569880812</v>
+        <v>27.87761882522273</v>
       </c>
       <c r="N32">
-        <v>0.09656742930232609</v>
+        <v>0.2970458186524022</v>
       </c>
       <c r="O32">
-        <v>1.526161975907433</v>
+        <v>4.694543872658226</v>
       </c>
       <c r="P32">
-        <v>84.22007491074183</v>
+        <v>259.0647931665025</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1988,49 +1988,49 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>2.033431917066931</v>
+        <v>6.254929357061394</v>
       </c>
       <c r="C33">
-        <v>34.77711510059376</v>
+        <v>106.9759928379481</v>
       </c>
       <c r="D33">
-        <v>0.002476110537651009</v>
+        <v>0.007616628992242076</v>
       </c>
       <c r="E33">
-        <v>0.89561247580156</v>
+        <v>2.754944840013164</v>
       </c>
       <c r="F33">
-        <v>3.024750110976151</v>
+        <v>9.304269352774547</v>
       </c>
       <c r="G33">
-        <v>14.53085967228899</v>
+        <v>44.69758735696497</v>
       </c>
       <c r="H33">
-        <v>0.3501451965802215</v>
+        <v>1.077062600887449</v>
       </c>
       <c r="I33">
-        <v>9.868458128923937</v>
+        <v>30.35582747642382</v>
       </c>
       <c r="J33">
-        <v>1.161950454890937</v>
+        <v>3.574212615995317</v>
       </c>
       <c r="K33">
-        <v>5.852010284015006</v>
+        <v>18.00105064550624</v>
       </c>
       <c r="L33">
-        <v>1.146453466241984</v>
+        <v>3.526543171824203</v>
       </c>
       <c r="M33">
-        <v>6.982821258760627</v>
+        <v>21.47947679976178</v>
       </c>
       <c r="N33">
-        <v>0.03218914310077536</v>
+        <v>0.09901527288413411</v>
       </c>
       <c r="O33">
-        <v>0.508720658635811</v>
+        <v>1.564847957552742</v>
       </c>
       <c r="P33">
-        <v>81.16699397841434</v>
+        <v>249.6733769145902</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2038,49 +2038,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>2.065298490947269</v>
+        <v>6.352952392305476</v>
       </c>
       <c r="C34">
-        <v>35.32211859857005</v>
+        <v>108.6524484648029</v>
       </c>
       <c r="D34">
-        <v>0.002926312453587557</v>
+        <v>0.009001470627195184</v>
       </c>
       <c r="E34">
-        <v>1.05845110776548</v>
+        <v>3.255843901833739</v>
       </c>
       <c r="F34">
-        <v>2.386500087559165</v>
+        <v>7.340983159069825</v>
       </c>
       <c r="G34">
-        <v>11.46471497079681</v>
+        <v>35.2659863550366</v>
       </c>
       <c r="H34">
-        <v>0.3741277442911955</v>
+        <v>1.150834011907138</v>
       </c>
       <c r="I34">
-        <v>10.54437991857626</v>
+        <v>32.43499374193229</v>
       </c>
       <c r="J34">
-        <v>0.625099928264112</v>
+        <v>1.922835901010139</v>
       </c>
       <c r="K34">
-        <v>3.148233380640984</v>
+        <v>9.684109524481205</v>
       </c>
       <c r="L34">
-        <v>0.6098156735329704</v>
+        <v>1.875820836076704</v>
       </c>
       <c r="M34">
-        <v>3.714266627000334</v>
+        <v>11.42525361689456</v>
       </c>
       <c r="N34">
-        <v>0.01379534704318944</v>
+        <v>0.04243511695034319</v>
       </c>
       <c r="O34">
-        <v>0.2180231394153475</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="P34">
-        <v>71.54775132685675</v>
+        <v>220.0841476175936</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2088,49 +2088,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>1.333228550453031</v>
+        <v>4.101071852914458</v>
       </c>
       <c r="C35">
-        <v>22.8017679693855</v>
+        <v>70.13927865868013</v>
       </c>
       <c r="D35">
-        <v>0.004614569638349606</v>
+        <v>0.01419462675826933</v>
       </c>
       <c r="E35">
-        <v>1.66909597763018</v>
+        <v>5.134215383660896</v>
       </c>
       <c r="F35">
-        <v>1.443000052942751</v>
+        <v>4.4387340031585</v>
       </c>
       <c r="G35">
-        <v>6.932153238156213</v>
+        <v>21.32361965653375</v>
       </c>
       <c r="H35">
-        <v>0.3069766107004682</v>
+        <v>0.9442740610520107</v>
       </c>
       <c r="I35">
-        <v>8.651798907549752</v>
+        <v>26.61332819850855</v>
       </c>
       <c r="J35">
-        <v>0.2868105553211808</v>
+        <v>0.8822423545811225</v>
       </c>
       <c r="K35">
-        <v>1.444483551117628</v>
+        <v>4.443297311232553</v>
       </c>
       <c r="L35">
-        <v>0.4634599118850575</v>
+        <v>1.425623835418295</v>
       </c>
       <c r="M35">
-        <v>2.822842636520253</v>
+        <v>8.683192748839868</v>
       </c>
       <c r="N35">
-        <v>0.01839379605758592</v>
+        <v>0.0565801559337909</v>
       </c>
       <c r="O35">
-        <v>0.2906975192204635</v>
+        <v>0.8941988328872811</v>
       </c>
       <c r="P35">
-        <v>48.46932384657843</v>
+        <v>149.0938516801595</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2138,49 +2138,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>1.148919177199189</v>
+        <v>3.534127811232485</v>
       </c>
       <c r="C36">
-        <v>19.64958557568492</v>
+        <v>60.4430217898445</v>
       </c>
       <c r="D36">
-        <v>0.005064771554286155</v>
+        <v>0.01557946839322243</v>
       </c>
       <c r="E36">
-        <v>1.8319346095941</v>
+        <v>5.63511444548147</v>
       </c>
       <c r="F36">
-        <v>1.193250043779582</v>
+        <v>3.670491579534913</v>
       </c>
       <c r="G36">
-        <v>5.732357485398407</v>
+        <v>17.6329931775183</v>
       </c>
       <c r="H36">
-        <v>0.2638080248207148</v>
+        <v>0.8114855212165715</v>
       </c>
       <c r="I36">
-        <v>7.435139686175567</v>
+        <v>22.87082892059329</v>
       </c>
       <c r="J36">
-        <v>0.3456434897460384</v>
+        <v>1.06321514526443</v>
       </c>
       <c r="K36">
-        <v>1.740787869295603</v>
+        <v>5.354742913536665</v>
       </c>
       <c r="L36">
-        <v>0.390282031061101</v>
+        <v>1.20052533508909</v>
       </c>
       <c r="M36">
-        <v>2.377130641280214</v>
+        <v>7.312162314812519</v>
       </c>
       <c r="N36">
-        <v>0.01379534704318944</v>
+        <v>0.04243511695034319</v>
       </c>
       <c r="O36">
-        <v>0.2180231394153475</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="P36">
-        <v>42.34572189204827</v>
+        <v>130.2573726641332</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2188,43 +2188,43 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>0.8741776348254696</v>
+        <v>2.689010291155153</v>
       </c>
       <c r="C37">
-        <v>14.95077163367332</v>
+        <v>45.98925570966428</v>
       </c>
       <c r="D37">
-        <v>0.00281376197460342</v>
+        <v>0.008655260218456909</v>
       </c>
       <c r="E37">
-        <v>1.0177414497745</v>
+        <v>3.130619136378595</v>
       </c>
       <c r="F37">
-        <v>1.026750037670803</v>
+        <v>3.158329963785856</v>
       </c>
       <c r="G37">
-        <v>4.932493650226537</v>
+        <v>15.17257552484132</v>
       </c>
       <c r="H37">
-        <v>0.2158429293987667</v>
+        <v>0.663942699177195</v>
       </c>
       <c r="I37">
-        <v>6.083296106870919</v>
+        <v>18.71249638957633</v>
       </c>
       <c r="J37">
-        <v>0.2353317376994303</v>
+        <v>0.7238911627332288</v>
       </c>
       <c r="K37">
-        <v>1.1852172727119</v>
+        <v>3.645782409216454</v>
       </c>
       <c r="L37">
-        <v>0.2927115232958259</v>
+        <v>0.9003940013168176</v>
       </c>
       <c r="M37">
-        <v>1.78284798096016</v>
+        <v>5.484121736109391</v>
       </c>
       <c r="P37">
-        <v>32.59999571908223</v>
+        <v>100.2790742841731</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2232,49 +2232,49 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.6390539951137918</v>
+        <v>1.965759247327215</v>
       </c>
       <c r="C38">
-        <v>10.92952960806464</v>
+        <v>33.61973176016837</v>
       </c>
       <c r="D38">
-        <v>0.003038862932571693</v>
+        <v>0.009347681035933461</v>
       </c>
       <c r="E38">
-        <v>1.09916076575646</v>
+        <v>3.381068667288883</v>
       </c>
       <c r="F38">
-        <v>0.8325000305438949</v>
+        <v>2.560808078745289</v>
       </c>
       <c r="G38">
-        <v>3.999319175859354</v>
+        <v>12.30208826338486</v>
       </c>
       <c r="H38">
-        <v>0.105523209928286</v>
+        <v>0.3245942084866286</v>
       </c>
       <c r="I38">
-        <v>2.974055874470228</v>
+        <v>9.148331568237312</v>
       </c>
       <c r="J38">
-        <v>0.2353317376994303</v>
+        <v>0.7238911627332288</v>
       </c>
       <c r="K38">
-        <v>1.1852172727119</v>
+        <v>3.645782409216454</v>
       </c>
       <c r="L38">
-        <v>0.3171041502371445</v>
+        <v>0.9754268347598856</v>
       </c>
       <c r="M38">
-        <v>1.931418646040174</v>
+        <v>5.941131880785172</v>
       </c>
       <c r="N38">
-        <v>0.004598449014396479</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O38">
-        <v>0.07267437980511587</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P38">
-        <v>24.32852615817739</v>
+        <v>74.83565650937452</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2282,49 +2282,49 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.3996240616345005</v>
+        <v>1.229261847385213</v>
       </c>
       <c r="C39">
-        <v>6.834638461107801</v>
+        <v>21.02365975298938</v>
       </c>
       <c r="D39">
-        <v>0.0007878533528889576</v>
+        <v>0.002423472861167934</v>
       </c>
       <c r="E39">
-        <v>0.2849676059368601</v>
+        <v>0.8765733581860068</v>
       </c>
       <c r="F39">
-        <v>0.3607500132356878</v>
+        <v>1.109683500789625</v>
       </c>
       <c r="G39">
-        <v>1.733038309539053</v>
+        <v>5.330904914133439</v>
       </c>
       <c r="H39">
-        <v>0.0959301908438963</v>
+        <v>0.2950856440787533</v>
       </c>
       <c r="I39">
-        <v>2.703687158609297</v>
+        <v>8.316665062033923</v>
       </c>
       <c r="J39">
-        <v>0.1323741024559296</v>
+        <v>0.4071887790374412</v>
       </c>
       <c r="K39">
-        <v>0.6666847159004438</v>
+        <v>2.050752605184255</v>
       </c>
       <c r="L39">
-        <v>0.4634599118850575</v>
+        <v>1.425623835418295</v>
       </c>
       <c r="M39">
-        <v>2.822842636520253</v>
+        <v>8.683192748839868</v>
       </c>
       <c r="N39">
-        <v>0.004598449014396479</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O39">
-        <v>0.07267437980511587</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P39">
-        <v>16.57605784984118</v>
+        <v>50.98871026814265</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2332,49 +2332,49 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.2807703536483776</v>
+        <v>0.8636624186370241</v>
       </c>
       <c r="C40">
-        <v>4.801922711899015</v>
+        <v>14.77093336093651</v>
       </c>
       <c r="D40">
-        <v>0.001800807663746189</v>
+        <v>0.005539366539812421</v>
       </c>
       <c r="E40">
-        <v>0.6513545278556802</v>
+        <v>2.003596247282301</v>
       </c>
       <c r="F40">
-        <v>0.2497500091631685</v>
+        <v>0.7682424236235866</v>
       </c>
       <c r="G40">
-        <v>1.199795752757806</v>
+        <v>3.690626479015458</v>
       </c>
       <c r="H40">
-        <v>0.04796509542194815</v>
+        <v>0.1475428220393766</v>
       </c>
       <c r="I40">
-        <v>1.351843579304649</v>
+        <v>4.158332531016962</v>
       </c>
       <c r="J40">
-        <v>0.2647482049118591</v>
+        <v>0.8143775580748823</v>
       </c>
       <c r="K40">
-        <v>1.333369431800888</v>
+        <v>4.10150521036851</v>
       </c>
       <c r="L40">
-        <v>0.2927115232958259</v>
+        <v>0.9003940013168176</v>
       </c>
       <c r="M40">
-        <v>1.78284798096016</v>
+        <v>5.484121736109391</v>
       </c>
       <c r="N40">
-        <v>0.009196898028792958</v>
+        <v>0.02829007796689545</v>
       </c>
       <c r="O40">
-        <v>0.1453487596102317</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="P40">
-        <v>12.41342563632215</v>
+        <v>38.18426364937117</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2382,37 +2382,37 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.1817255969932751</v>
+        <v>0.5589962280135345</v>
       </c>
       <c r="C41">
-        <v>3.107992920891694</v>
+        <v>9.560328034225781</v>
       </c>
       <c r="D41">
-        <v>0.002701211495619283</v>
+        <v>0.008309049809718631</v>
       </c>
       <c r="E41">
-        <v>0.9770317917835201</v>
+        <v>3.005394370923451</v>
       </c>
       <c r="F41">
-        <v>0.08325000305438948</v>
+        <v>0.2560808078745288</v>
       </c>
       <c r="G41">
-        <v>0.3999319175859354</v>
+        <v>1.230208826338486</v>
       </c>
       <c r="J41">
-        <v>0.1912070368807871</v>
+        <v>0.5881615697207484</v>
       </c>
       <c r="K41">
-        <v>0.9629890340784187</v>
+        <v>2.962198207488368</v>
       </c>
       <c r="L41">
-        <v>0.4878525388263764</v>
+        <v>1.500656668861363</v>
       </c>
       <c r="M41">
-        <v>2.971413301600267</v>
+        <v>9.140202893515649</v>
       </c>
       <c r="P41">
-        <v>9.366095353190282</v>
+        <v>28.81053665677163</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2420,37 +2420,37 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.1171311904790778</v>
+        <v>0.3603008863025626</v>
       </c>
       <c r="C42">
-        <v>2.003256100669527</v>
+        <v>6.162107168979647</v>
       </c>
       <c r="D42">
-        <v>0.001800807663746189</v>
+        <v>0.005539366539812421</v>
       </c>
       <c r="E42">
-        <v>0.6513545278556802</v>
+        <v>2.003596247282301</v>
       </c>
       <c r="F42">
-        <v>0.2775000101812982</v>
+        <v>0.8536026929150959</v>
       </c>
       <c r="G42">
-        <v>1.333106391953118</v>
+        <v>4.100696087794953</v>
       </c>
       <c r="J42">
-        <v>0.1323741024559296</v>
+        <v>0.4071887790374412</v>
       </c>
       <c r="K42">
-        <v>0.6666847159004438</v>
+        <v>2.050752605184255</v>
       </c>
       <c r="L42">
-        <v>0.6098156735329704</v>
+        <v>1.875820836076704</v>
       </c>
       <c r="M42">
-        <v>3.714266627000334</v>
+        <v>11.42525361689456</v>
       </c>
       <c r="P42">
-        <v>9.507290147692125</v>
+        <v>29.24485828700733</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2458,43 +2458,43 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.1317725892889624</v>
+        <v>0.4053384970903826</v>
       </c>
       <c r="C43">
-        <v>2.253663113253219</v>
+        <v>6.932370565102105</v>
       </c>
       <c r="D43">
-        <v>0.001575706705777915</v>
+        <v>0.004846945722335868</v>
       </c>
       <c r="E43">
-        <v>0.5699352118737202</v>
+        <v>1.753146716372014</v>
       </c>
       <c r="F43">
-        <v>0.2497500091631685</v>
+        <v>0.7682424236235866</v>
       </c>
       <c r="G43">
-        <v>1.199795752757806</v>
+        <v>3.690626479015458</v>
       </c>
       <c r="H43">
-        <v>0.03837207633755852</v>
+        <v>0.1180342576315013</v>
       </c>
       <c r="I43">
-        <v>1.081474863443719</v>
+        <v>3.326666024813569</v>
       </c>
       <c r="J43">
-        <v>0.1617905696683584</v>
+        <v>0.4976751743790947</v>
       </c>
       <c r="K43">
-        <v>0.8148368749894315</v>
+        <v>2.506475406336311</v>
       </c>
       <c r="L43">
-        <v>0.5854230465916518</v>
+        <v>1.800788002633635</v>
       </c>
       <c r="M43">
-        <v>3.565695961920321</v>
+        <v>10.96824347221878</v>
       </c>
       <c r="P43">
-        <v>10.65408577599369</v>
+        <v>32.77245396493878</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2502,43 +2502,43 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.2351236397116782</v>
+        <v>0.7232510438279375</v>
       </c>
       <c r="C44">
-        <v>4.021242025608685</v>
+        <v>12.36952394949592</v>
       </c>
       <c r="D44">
-        <v>0.001012954310857231</v>
+        <v>0.003115893678644487</v>
       </c>
       <c r="E44">
-        <v>0.3663869219188201</v>
+        <v>1.127022889096294</v>
       </c>
       <c r="F44">
-        <v>0.5550000203625963</v>
+        <v>1.707205385830192</v>
       </c>
       <c r="G44">
-        <v>2.666212783906236</v>
+        <v>8.201392175589906</v>
       </c>
       <c r="H44">
-        <v>0.01918603816877926</v>
+        <v>0.05901712881575067</v>
       </c>
       <c r="I44">
-        <v>0.5407374317218595</v>
+        <v>1.663333012406784</v>
       </c>
       <c r="J44">
-        <v>0.3309352561398239</v>
+        <v>1.017971947593603</v>
       </c>
       <c r="K44">
-        <v>1.666711789751109</v>
+        <v>5.126881512960638</v>
       </c>
       <c r="L44">
-        <v>0.756171435180883</v>
+        <v>2.326017836735113</v>
       </c>
       <c r="M44">
-        <v>4.605690617480414</v>
+        <v>14.16731448494926</v>
       </c>
       <c r="P44">
-        <v>15.76441091426174</v>
+        <v>48.49204726098004</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2546,49 +2546,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.5658470010643686</v>
+        <v>1.740571193388114</v>
       </c>
       <c r="C45">
-        <v>9.67749454514618</v>
+        <v>29.7684147795561</v>
       </c>
       <c r="D45">
-        <v>0.0007878533528889576</v>
+        <v>0.002423472861167934</v>
       </c>
       <c r="E45">
-        <v>0.2849676059368601</v>
+        <v>0.8765733581860068</v>
       </c>
       <c r="F45">
-        <v>1.193250043779582</v>
+        <v>3.670491579534913</v>
       </c>
       <c r="G45">
-        <v>5.732357485398407</v>
+        <v>17.6329931775183</v>
       </c>
       <c r="H45">
-        <v>0.1726743435190134</v>
+        <v>0.5311541593417558</v>
       </c>
       <c r="I45">
-        <v>4.866636885496734</v>
+        <v>14.96999711166106</v>
       </c>
       <c r="J45">
-        <v>0.588329344248576</v>
+        <v>1.809727906833072</v>
       </c>
       <c r="K45">
-        <v>2.96304318177975</v>
+        <v>9.11445602304113</v>
       </c>
       <c r="L45">
-        <v>1.097668212359347</v>
+        <v>3.376477504938066</v>
       </c>
       <c r="M45">
-        <v>6.6856799286006</v>
+        <v>20.56545651041021</v>
       </c>
       <c r="N45">
-        <v>0.01379534704318944</v>
+        <v>0.04243511695034319</v>
       </c>
       <c r="O45">
-        <v>0.2180231394153475</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="P45">
-        <v>34.06055491714085</v>
+        <v>104.7718210188857</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2596,49 +2596,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>1.075712183149765</v>
+        <v>3.308939757293383</v>
       </c>
       <c r="C46">
-        <v>18.39755051276646</v>
+        <v>56.59170480923222</v>
       </c>
       <c r="D46">
-        <v>0.001125504789841368</v>
+        <v>0.003462104087382763</v>
       </c>
       <c r="E46">
-        <v>0.4070965799098</v>
+        <v>1.252247654551438</v>
       </c>
       <c r="F46">
-        <v>2.553000093667944</v>
+        <v>7.853144774818885</v>
       </c>
       <c r="G46">
-        <v>12.26457880596869</v>
+        <v>37.72640400771357</v>
       </c>
       <c r="H46">
-        <v>0.4604649160507022</v>
+        <v>1.416411091578015</v>
       </c>
       <c r="I46">
-        <v>12.97769836132463</v>
+        <v>39.91999229776283</v>
       </c>
       <c r="J46">
-        <v>1.007514002025686</v>
+        <v>3.099159040451635</v>
       </c>
       <c r="K46">
-        <v>5.074211448797822</v>
+        <v>15.60850593945794</v>
       </c>
       <c r="L46">
-        <v>1.902624901422868</v>
+        <v>5.852561008559318</v>
       </c>
       <c r="M46">
-        <v>11.58851187624104</v>
+        <v>35.64679128471104</v>
       </c>
       <c r="N46">
-        <v>0.05058293915836126</v>
+        <v>0.1555954288179251</v>
       </c>
       <c r="O46">
-        <v>0.7994181778562742</v>
+        <v>2.459046790440023</v>
       </c>
       <c r="P46">
-        <v>68.56009030312988</v>
+        <v>210.8939659894756</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2646,49 +2646,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>1.73199135333401</v>
+        <v>5.32768442907686</v>
       </c>
       <c r="C47">
-        <v>29.62167660622367</v>
+        <v>91.11762880013288</v>
       </c>
       <c r="D47">
-        <v>0.001238055268825505</v>
+        <v>0.003808314496121038</v>
       </c>
       <c r="E47">
-        <v>0.44780623790078</v>
+        <v>1.377472420006582</v>
       </c>
       <c r="F47">
-        <v>1.998000073305348</v>
+        <v>6.145939388988693</v>
       </c>
       <c r="G47">
-        <v>9.598366022062452</v>
+        <v>29.52501183212367</v>
       </c>
       <c r="H47">
-        <v>0.4556684065085073</v>
+        <v>1.401656809374078</v>
       </c>
       <c r="I47">
-        <v>12.84251400339416</v>
+        <v>39.50415904466112</v>
       </c>
       <c r="J47">
-        <v>1.176658688497152</v>
+        <v>3.619455813666143</v>
       </c>
       <c r="K47">
-        <v>5.9260863635595</v>
+        <v>18.22891204608226</v>
       </c>
       <c r="L47">
-        <v>2.414870067190563</v>
+        <v>7.428250510863745</v>
       </c>
       <c r="M47">
-        <v>14.70849584292132</v>
+        <v>45.24400432290248</v>
       </c>
       <c r="N47">
-        <v>0.0459844901439648</v>
+        <v>0.1414503898344773</v>
       </c>
       <c r="O47">
-        <v>0.7267437980511584</v>
+        <v>2.235497082218202</v>
       </c>
       <c r="P47">
-        <v>81.69610000836141</v>
+        <v>251.3009312044273</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2696,49 +2696,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>2.125586603693852</v>
+        <v>6.538401377902384</v>
       </c>
       <c r="C48">
-        <v>36.35320629744407</v>
+        <v>111.824121272366</v>
       </c>
       <c r="D48">
-        <v>0.002476110537651009</v>
+        <v>0.007616628992242076</v>
       </c>
       <c r="E48">
-        <v>0.89561247580156</v>
+        <v>2.754944840013164</v>
       </c>
       <c r="F48">
-        <v>2.913750106903631</v>
+        <v>8.962828275608507</v>
       </c>
       <c r="G48">
-        <v>13.99761711550774</v>
+        <v>43.057308921847</v>
       </c>
       <c r="H48">
-        <v>0.2781975534472993</v>
+        <v>0.8557483678283846</v>
       </c>
       <c r="I48">
-        <v>7.840692759966965</v>
+        <v>24.11832867989837</v>
       </c>
       <c r="J48">
-        <v>1.441406893409011</v>
+        <v>4.433833371741028</v>
       </c>
       <c r="K48">
-        <v>7.259455795360387</v>
+        <v>22.33041725645077</v>
       </c>
       <c r="L48">
-        <v>2.951507859899578</v>
+        <v>9.078972846611245</v>
       </c>
       <c r="M48">
-        <v>17.97705047468162</v>
+        <v>55.29822750576968</v>
       </c>
       <c r="N48">
-        <v>0.1011658783167225</v>
+        <v>0.3111908576358501</v>
       </c>
       <c r="O48">
-        <v>1.598836355712548</v>
+        <v>4.918093580880046</v>
       </c>
       <c r="P48">
-        <v>95.73656228068263</v>
+        <v>294.4900337835447</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2746,49 +2746,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>1.545959462573121</v>
+        <v>4.755441844949261</v>
       </c>
       <c r="C49">
-        <v>26.44003456398384</v>
+        <v>81.33075270822404</v>
       </c>
       <c r="D49">
-        <v>0.004389468680381335</v>
+        <v>0.01350220594079277</v>
       </c>
       <c r="E49">
-        <v>1.58767666164822</v>
+        <v>4.883765852750609</v>
       </c>
       <c r="F49">
-        <v>4.079250149665083</v>
+        <v>12.54795958585192</v>
       </c>
       <c r="G49">
-        <v>19.59666396171084</v>
+        <v>60.28023249058579</v>
       </c>
       <c r="H49">
-        <v>0.2781975534472993</v>
+        <v>0.8557483678283846</v>
       </c>
       <c r="I49">
-        <v>7.840692759966965</v>
+        <v>24.11832867989837</v>
       </c>
       <c r="J49">
-        <v>1.617905696683584</v>
+        <v>4.976751743790947</v>
       </c>
       <c r="K49">
-        <v>8.148368749894313</v>
+        <v>25.06475406336311</v>
       </c>
       <c r="L49">
-        <v>3.927212937552329</v>
+        <v>12.08028618433397</v>
       </c>
       <c r="M49">
-        <v>23.91987707788214</v>
+        <v>73.57863329280097</v>
       </c>
       <c r="N49">
-        <v>0.1425519194462909</v>
+        <v>0.4384962084868797</v>
       </c>
       <c r="O49">
-        <v>2.252905773958592</v>
+        <v>6.930040954876427</v>
       </c>
       <c r="P49">
-        <v>101.381686737093</v>
+        <v>311.8546941836815</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM10.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>4.191147074490102</v>
+        <v>1.310704832936953</v>
       </c>
       <c r="C2">
-        <v>71.67980545092504</v>
+        <v>22.41655226091969</v>
       </c>
       <c r="D2">
-        <v>0.01523325798448415</v>
+        <v>0.004763923696012969</v>
       </c>
       <c r="E2">
-        <v>5.509889680026329</v>
+        <v>1.723117538994636</v>
       </c>
       <c r="F2">
-        <v>6.48738046615473</v>
+        <v>2.028809960367302</v>
       </c>
       <c r="G2">
-        <v>31.16529026724164</v>
+        <v>9.746376313488424</v>
       </c>
       <c r="H2">
-        <v>0.4868913127299429</v>
+        <v>0.1522663808661008</v>
       </c>
       <c r="I2">
-        <v>13.72249735235597</v>
+        <v>4.291460853085366</v>
       </c>
       <c r="J2">
-        <v>5.632778110017935</v>
+        <v>1.761548654925263</v>
       </c>
       <c r="K2">
-        <v>28.36874437171551</v>
+        <v>8.871807572365917</v>
       </c>
       <c r="L2">
-        <v>11.93022051744783</v>
+        <v>3.730958950450313</v>
       </c>
       <c r="M2">
-        <v>72.66461300344942</v>
+        <v>22.7245328675806</v>
       </c>
       <c r="N2">
-        <v>0.1838855067848205</v>
+        <v>0.0575068395754754</v>
       </c>
       <c r="O2">
-        <v>2.906146206883663</v>
+        <v>0.9088442402244336</v>
       </c>
       <c r="P2">
-        <v>254.9445225782074</v>
+        <v>79.72925118947649</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>4.365998975195756</v>
+        <v>1.365386576915359</v>
       </c>
       <c r="C3">
-        <v>74.67023981234166</v>
+        <v>23.35175608470015</v>
       </c>
       <c r="D3">
-        <v>0.01869536207186692</v>
+        <v>0.005846633626925008</v>
       </c>
       <c r="E3">
-        <v>6.762137334577766</v>
+        <v>2.114735161493417</v>
       </c>
       <c r="F3">
-        <v>6.231299658280202</v>
+        <v>1.948725356668592</v>
       </c>
       <c r="G3">
-        <v>29.93508144090316</v>
+        <v>9.361650932692831</v>
       </c>
       <c r="H3">
-        <v>0.5459084415456935</v>
+        <v>0.1707229118801736</v>
       </c>
       <c r="I3">
-        <v>15.38583036476276</v>
+        <v>4.811637926186622</v>
       </c>
       <c r="J3">
-        <v>5.248210929815908</v>
+        <v>1.641282280894221</v>
       </c>
       <c r="K3">
-        <v>26.43192246681928</v>
+        <v>8.266101834493545</v>
       </c>
       <c r="L3">
-        <v>10.5796295154726</v>
+        <v>3.308586239078579</v>
       </c>
       <c r="M3">
-        <v>64.43843039928535</v>
+        <v>20.15194424106204</v>
       </c>
       <c r="N3">
-        <v>0.1414503898344773</v>
+        <v>0.04423603044267338</v>
       </c>
       <c r="O3">
-        <v>2.235497082218202</v>
+        <v>0.699110954018795</v>
       </c>
       <c r="P3">
-        <v>246.9903321731247</v>
+        <v>77.24172316415392</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>4.622978283808614</v>
+        <v>1.445752170338169</v>
       </c>
       <c r="C4">
-        <v>79.06527213139331</v>
+        <v>24.72622231055934</v>
       </c>
       <c r="D4">
-        <v>0.01800294125439037</v>
+        <v>0.0056300916407426</v>
       </c>
       <c r="E4">
-        <v>6.511687803667479</v>
+        <v>2.036411636993661</v>
       </c>
       <c r="F4">
-        <v>6.316659927571711</v>
+        <v>1.975420224568162</v>
       </c>
       <c r="G4">
-        <v>30.34515104968265</v>
+        <v>9.489892726291357</v>
       </c>
       <c r="H4">
-        <v>0.5016455949338807</v>
+        <v>0.156880513619619</v>
       </c>
       <c r="I4">
-        <v>14.13833060545767</v>
+        <v>4.421505121360679</v>
       </c>
       <c r="J4">
-        <v>5.157724534474257</v>
+        <v>1.612984310533976</v>
       </c>
       <c r="K4">
-        <v>25.97619966566723</v>
+        <v>8.123582837347104</v>
       </c>
       <c r="L4">
-        <v>10.05439968137113</v>
+        <v>3.144330184656237</v>
       </c>
       <c r="M4">
-        <v>61.23935938655483</v>
+        <v>19.15149310852703</v>
       </c>
       <c r="N4">
-        <v>0.2404656627186113</v>
+        <v>0.07520125175254472</v>
       </c>
       <c r="O4">
-        <v>3.800345039770944</v>
+        <v>1.188488621831952</v>
       </c>
       <c r="P4">
-        <v>247.9882223083267</v>
+        <v>77.55379511002059</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>4.577940673020796</v>
+        <v>1.431667478707369</v>
       </c>
       <c r="C5">
-        <v>78.29500873527086</v>
+        <v>24.48533647716134</v>
       </c>
       <c r="D5">
-        <v>0.01627188921069899</v>
+        <v>0.00508873667528658</v>
       </c>
       <c r="E5">
-        <v>5.885563976391759</v>
+        <v>1.840602825744271</v>
       </c>
       <c r="F5">
-        <v>5.292336696073594</v>
+        <v>1.655081809773324</v>
       </c>
       <c r="G5">
-        <v>25.4243157443287</v>
+        <v>7.950991203108977</v>
       </c>
       <c r="H5">
-        <v>0.5459084415456935</v>
+        <v>0.1707229118801736</v>
       </c>
       <c r="I5">
-        <v>15.38583036476276</v>
+        <v>4.811637926186622</v>
       </c>
       <c r="J5">
-        <v>5.881615697207485</v>
+        <v>1.839368073415937</v>
       </c>
       <c r="K5">
-        <v>29.62198207488368</v>
+        <v>9.263734814518628</v>
       </c>
       <c r="L5">
-        <v>6.903020676762272</v>
+        <v>2.158793858122193</v>
       </c>
       <c r="M5">
-        <v>42.04493331017199</v>
+        <v>13.14878631331707</v>
       </c>
       <c r="N5">
-        <v>0.1838855067848205</v>
+        <v>0.0575068395754754</v>
       </c>
       <c r="O5">
-        <v>2.906146206883663</v>
+        <v>0.9088442402244336</v>
       </c>
       <c r="P5">
-        <v>222.9647599932988</v>
+        <v>69.7281635084111</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>4.903801033426788</v>
+        <v>1.53357436521258</v>
       </c>
       <c r="C6">
-        <v>83.86809095427448</v>
+        <v>26.22821633057039</v>
       </c>
       <c r="D6">
-        <v>0.01592567880196071</v>
+        <v>0.004980465682195376</v>
       </c>
       <c r="E6">
-        <v>5.760339210936616</v>
+        <v>1.801441063494393</v>
       </c>
       <c r="F6">
-        <v>7.340983159069825</v>
+        <v>2.295758639362999</v>
       </c>
       <c r="G6">
-        <v>35.2659863550366</v>
+        <v>11.02879424947374</v>
       </c>
       <c r="H6">
-        <v>0.5606627237496311</v>
+        <v>0.1753370446336918</v>
       </c>
       <c r="I6">
-        <v>15.80166361786445</v>
+        <v>4.941682194461935</v>
       </c>
       <c r="J6">
-        <v>5.429183720499216</v>
+        <v>1.697878221614711</v>
       </c>
       <c r="K6">
-        <v>27.3433680691234</v>
+        <v>8.551139828786427</v>
       </c>
       <c r="L6">
-        <v>8.328644512180567</v>
+        <v>2.604631720125689</v>
       </c>
       <c r="M6">
-        <v>50.72812605901185</v>
+        <v>15.86429653019778</v>
       </c>
       <c r="N6">
-        <v>0.1838855067848205</v>
+        <v>0.0575068395754754</v>
       </c>
       <c r="O6">
-        <v>2.906146206883663</v>
+        <v>0.9088442402244336</v>
       </c>
       <c r="P6">
-        <v>248.4368068076439</v>
+        <v>77.69408173341644</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>5.136936901034329</v>
+        <v>1.606483357183788</v>
       </c>
       <c r="C7">
-        <v>87.85533676949662</v>
+        <v>27.47515476227767</v>
       </c>
       <c r="D7">
-        <v>0.01661809961943726</v>
+        <v>0.005197007668377784</v>
       </c>
       <c r="E7">
-        <v>6.010788741846902</v>
+        <v>1.879764587994149</v>
       </c>
       <c r="F7">
-        <v>6.999542081903787</v>
+        <v>2.188979167764721</v>
       </c>
       <c r="G7">
-        <v>33.62570791991861</v>
+        <v>10.51582707507962</v>
       </c>
       <c r="H7">
-        <v>0.5311541593417558</v>
+        <v>0.1661087791266554</v>
       </c>
       <c r="I7">
-        <v>14.96999711166106</v>
+        <v>4.681593657911308</v>
       </c>
       <c r="J7">
-        <v>5.270832528651322</v>
+        <v>1.648356773484283</v>
       </c>
       <c r="K7">
-        <v>26.5458531671073</v>
+        <v>8.301731583780155</v>
       </c>
       <c r="L7">
-        <v>7.128119177091476</v>
+        <v>2.229189310017482</v>
       </c>
       <c r="M7">
-        <v>43.41596374419932</v>
+        <v>13.5775510844035</v>
       </c>
       <c r="N7">
-        <v>0.2121755847517159</v>
+        <v>0.06635404566401006</v>
       </c>
       <c r="O7">
-        <v>3.353245623327304</v>
+        <v>1.048666431028193</v>
       </c>
       <c r="P7">
-        <v>241.072271609951</v>
+        <v>75.3909576233839</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>5.838993775079761</v>
+        <v>1.826038844369814</v>
       </c>
       <c r="C8">
-        <v>99.86238382669966</v>
+        <v>31.23013981230531</v>
       </c>
       <c r="D8">
-        <v>0.01246357471457795</v>
+        <v>0.003897755751283338</v>
       </c>
       <c r="E8">
-        <v>4.508091556385176</v>
+        <v>1.409823440995612</v>
       </c>
       <c r="F8">
-        <v>7.511703697652847</v>
+        <v>2.349148375162139</v>
       </c>
       <c r="G8">
-        <v>36.08612557259559</v>
+        <v>11.28527783667081</v>
       </c>
       <c r="H8">
-        <v>0.7819769568086961</v>
+        <v>0.2445490359364649</v>
       </c>
       <c r="I8">
-        <v>22.03916241438989</v>
+        <v>6.892346218591646</v>
       </c>
       <c r="J8">
-        <v>5.044616540297187</v>
+        <v>1.577611847583669</v>
       </c>
       <c r="K8">
-        <v>25.40654616422716</v>
+        <v>7.945434090914054</v>
       </c>
       <c r="L8">
-        <v>4.201838672811818</v>
+        <v>1.314048435378727</v>
       </c>
       <c r="M8">
-        <v>25.59256810184381</v>
+        <v>8.003609060279958</v>
       </c>
       <c r="N8">
-        <v>0.2687557406855068</v>
+        <v>0.08404845784107938</v>
       </c>
       <c r="O8">
-        <v>4.247444456214585</v>
+        <v>1.328310812635711</v>
       </c>
       <c r="P8">
-        <v>241.4026710504063</v>
+        <v>75.49428402441627</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>6.382094375756417</v>
+        <v>1.995883655211834</v>
       </c>
       <c r="C9">
-        <v>109.1508541917057</v>
+        <v>34.13493956798705</v>
       </c>
       <c r="D9">
-        <v>0.01004010185341001</v>
+        <v>0.003139858799644911</v>
       </c>
       <c r="E9">
-        <v>3.63151819819917</v>
+        <v>1.135691105246465</v>
       </c>
       <c r="F9">
-        <v>6.48738046615473</v>
+        <v>2.028809960367302</v>
       </c>
       <c r="G9">
-        <v>31.16529026724164</v>
+        <v>9.746376313488424</v>
       </c>
       <c r="H9">
-        <v>1.106571165295325</v>
+        <v>0.3460599565138655</v>
       </c>
       <c r="I9">
-        <v>31.1874939826272</v>
+        <v>9.75332012064856</v>
       </c>
       <c r="J9">
-        <v>3.66469901133697</v>
+        <v>1.14606779958993</v>
       </c>
       <c r="K9">
-        <v>18.4567734466583</v>
+        <v>5.772019384430838</v>
       </c>
       <c r="L9">
-        <v>3.226411838051929</v>
+        <v>1.009001477165807</v>
       </c>
       <c r="M9">
-        <v>19.65143622105864</v>
+        <v>6.14562838557211</v>
       </c>
       <c r="N9">
-        <v>0.08487023390068639</v>
+        <v>0.02654161826560402</v>
       </c>
       <c r="O9">
-        <v>1.341298249330922</v>
+        <v>0.419466572411277</v>
       </c>
       <c r="P9">
-        <v>235.546731749171</v>
+        <v>73.66294577569873</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>6.482766682223309</v>
+        <v>2.027367083563038</v>
       </c>
       <c r="C10">
-        <v>110.872619430097</v>
+        <v>34.67339025440612</v>
       </c>
       <c r="D10">
-        <v>0.0117711538971014</v>
+        <v>0.003681213765100929</v>
       </c>
       <c r="E10">
-        <v>4.257642025474889</v>
+        <v>1.331499916495855</v>
       </c>
       <c r="F10">
-        <v>5.121616157490578</v>
+        <v>1.601692073974185</v>
       </c>
       <c r="G10">
-        <v>24.60417652676972</v>
+        <v>7.694507615911914</v>
       </c>
       <c r="H10">
-        <v>1.180342576315013</v>
+        <v>0.3691306202814564</v>
       </c>
       <c r="I10">
-        <v>33.26666024813569</v>
+        <v>10.40354146202513</v>
       </c>
       <c r="J10">
-        <v>1.968079098680966</v>
+        <v>0.6154808553353327</v>
       </c>
       <c r="K10">
-        <v>9.911970925057233</v>
+        <v>3.09978818793508</v>
       </c>
       <c r="L10">
-        <v>1.725755169190568</v>
+        <v>0.5396984645305481</v>
       </c>
       <c r="M10">
-        <v>10.511233327543</v>
+        <v>3.287196578329269</v>
       </c>
       <c r="N10">
-        <v>0.04243511695034319</v>
+        <v>0.01327080913280201</v>
       </c>
       <c r="O10">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="P10">
-        <v>210.6277175624909</v>
+        <v>65.86997842189146</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>4.185848532044476</v>
+        <v>1.309047810392153</v>
       </c>
       <c r="C11">
-        <v>71.58918622785183</v>
+        <v>22.38821275110816</v>
       </c>
       <c r="D11">
-        <v>0.01834915166312864</v>
+        <v>0.005738362633833804</v>
       </c>
       <c r="E11">
-        <v>6.63691256912262</v>
+        <v>2.075573399243539</v>
       </c>
       <c r="F11">
-        <v>3.072969694494347</v>
+        <v>0.9610152443845111</v>
       </c>
       <c r="G11">
-        <v>14.76250591606183</v>
+        <v>4.616704569547148</v>
       </c>
       <c r="H11">
-        <v>0.9737826254598858</v>
+        <v>0.3045327617322017</v>
       </c>
       <c r="I11">
-        <v>27.44499470471195</v>
+        <v>8.582921706170731</v>
       </c>
       <c r="J11">
-        <v>0.9048639534165358</v>
+        <v>0.2829797036024519</v>
       </c>
       <c r="K11">
-        <v>4.557228011520565</v>
+        <v>1.425189971464405</v>
       </c>
       <c r="L11">
-        <v>1.275558168532158</v>
+        <v>0.3989075607399705</v>
       </c>
       <c r="M11">
-        <v>7.769172459488304</v>
+        <v>2.429667036156415</v>
       </c>
       <c r="N11">
-        <v>0.0565801559337909</v>
+        <v>0.01769441217706934</v>
       </c>
       <c r="O11">
-        <v>0.8941988328872811</v>
+        <v>0.2796443816075181</v>
       </c>
       <c r="P11">
-        <v>144.1421510031887</v>
+        <v>45.07782967096011</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>3.605658134248437</v>
+        <v>1.127603841736532</v>
       </c>
       <c r="C12">
-        <v>61.66638130133312</v>
+        <v>19.2850364267457</v>
       </c>
       <c r="D12">
-        <v>0.0204264141155583</v>
+        <v>0.006387988592381026</v>
       </c>
       <c r="E12">
-        <v>7.388261161853484</v>
+        <v>2.310543972742808</v>
       </c>
       <c r="F12">
-        <v>2.560808078745289</v>
+        <v>0.8008460369870924</v>
       </c>
       <c r="G12">
-        <v>12.30208826338486</v>
+        <v>3.847253807955957</v>
       </c>
       <c r="H12">
-        <v>0.8409940856244471</v>
+        <v>0.2630055669505378</v>
       </c>
       <c r="I12">
-        <v>23.70249542679668</v>
+        <v>7.412523291692903</v>
       </c>
       <c r="J12">
-        <v>1.085836744099843</v>
+        <v>0.3395756443229422</v>
       </c>
       <c r="K12">
-        <v>5.46867361382468</v>
+        <v>1.710227965757285</v>
       </c>
       <c r="L12">
-        <v>1.125492501646022</v>
+        <v>0.3519772594764444</v>
       </c>
       <c r="M12">
-        <v>6.855152170136737</v>
+        <v>2.143823855432132</v>
       </c>
       <c r="N12">
-        <v>0.04243511695034319</v>
+        <v>0.01327080913280201</v>
       </c>
       <c r="O12">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="P12">
-        <v>127.3353521374249</v>
+        <v>39.82180975373115</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,43 +1030,43 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>2.744644986834225</v>
+        <v>0.8583376782065005</v>
       </c>
       <c r="C13">
-        <v>46.9407575519332</v>
+        <v>14.67986608237219</v>
       </c>
       <c r="D13">
-        <v>0.01142494348836312</v>
+        <v>0.003572942772009727</v>
       </c>
       <c r="E13">
-        <v>4.132417260019746</v>
+        <v>1.292338154245977</v>
       </c>
       <c r="F13">
-        <v>2.21936700157925</v>
+        <v>0.6940665653888137</v>
       </c>
       <c r="G13">
-        <v>10.66180982826688</v>
+        <v>3.334286633561828</v>
       </c>
       <c r="H13">
-        <v>0.6786969813811325</v>
+        <v>0.2122501066618375</v>
       </c>
       <c r="I13">
-        <v>19.12832964267803</v>
+        <v>5.982036340664449</v>
       </c>
       <c r="J13">
-        <v>0.7465127615686421</v>
+        <v>0.2334582554720228</v>
       </c>
       <c r="K13">
-        <v>3.759713109504467</v>
+        <v>1.175781726458134</v>
       </c>
       <c r="L13">
-        <v>0.8253611678737498</v>
+        <v>0.2581166569493927</v>
       </c>
       <c r="M13">
-        <v>5.027111591433607</v>
+        <v>1.572137493983563</v>
       </c>
       <c r="P13">
-        <v>96.87614682656128</v>
+        <v>30.29624863673671</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>2.005498315669409</v>
+        <v>0.6271830332068732</v>
       </c>
       <c r="C14">
-        <v>34.2993759332176</v>
+        <v>10.72650446366385</v>
       </c>
       <c r="D14">
-        <v>0.01211736430583967</v>
+        <v>0.003789484758192134</v>
       </c>
       <c r="E14">
-        <v>4.382866790930033</v>
+        <v>1.370661678745734</v>
       </c>
       <c r="F14">
-        <v>1.792565655121702</v>
+        <v>0.5605922258909649</v>
       </c>
       <c r="G14">
-        <v>8.611461784369403</v>
+        <v>2.693077665569171</v>
       </c>
       <c r="H14">
-        <v>0.3393484906905663</v>
+        <v>0.1061250533309187</v>
       </c>
       <c r="I14">
-        <v>9.564164821339013</v>
+        <v>2.991018170332224</v>
       </c>
       <c r="J14">
-        <v>0.7465127615686421</v>
+        <v>0.2334582554720228</v>
       </c>
       <c r="K14">
-        <v>3.759713109504467</v>
+        <v>1.175781726458134</v>
       </c>
       <c r="L14">
-        <v>0.9003940013168176</v>
+        <v>0.2815818075811558</v>
       </c>
       <c r="M14">
-        <v>5.484121736109391</v>
+        <v>1.715059084345705</v>
       </c>
       <c r="N14">
-        <v>0.01414503898344772</v>
+        <v>0.004423603044267335</v>
       </c>
       <c r="O14">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="P14">
-        <v>72.13583551134815</v>
+        <v>22.5591673478011</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1124,49 +1124,49 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>1.255754559613342</v>
+        <v>0.3927143431176457</v>
       </c>
       <c r="C15">
-        <v>21.47675586835553</v>
+        <v>6.716463825332446</v>
       </c>
       <c r="D15">
-        <v>0.003115893678644487</v>
+        <v>0.0009744389378208344</v>
       </c>
       <c r="E15">
-        <v>1.127022889096294</v>
+        <v>0.3524558602489029</v>
       </c>
       <c r="F15">
-        <v>0.7682424236235866</v>
+        <v>0.2402538110961278</v>
       </c>
       <c r="G15">
-        <v>3.690626479015458</v>
+        <v>1.154176142386787</v>
       </c>
       <c r="H15">
-        <v>0.3098399262826909</v>
+        <v>0.09689678782388234</v>
       </c>
       <c r="I15">
-        <v>8.732498315135619</v>
+        <v>2.730929633781595</v>
       </c>
       <c r="J15">
-        <v>0.4071887790374412</v>
+        <v>0.1273408666211033</v>
       </c>
       <c r="K15">
-        <v>2.050752605184255</v>
+        <v>0.6413354871589821</v>
       </c>
       <c r="L15">
-        <v>1.275558168532158</v>
+        <v>0.3989075607399705</v>
       </c>
       <c r="M15">
-        <v>7.769172459488304</v>
+        <v>2.429667036156415</v>
       </c>
       <c r="N15">
-        <v>0.01414503898344772</v>
+        <v>0.004423603044267335</v>
       </c>
       <c r="O15">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="P15">
-        <v>49.10422311424859</v>
+        <v>15.35645049184782</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1174,49 +1174,49 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.8822073171967153</v>
+        <v>0.2758942537092321</v>
       </c>
       <c r="C16">
-        <v>15.08810064169281</v>
+        <v>4.718528383619634</v>
       </c>
       <c r="D16">
-        <v>0.007270418583503802</v>
+        <v>0.00227369085491528</v>
       </c>
       <c r="E16">
-        <v>2.62972007455802</v>
+        <v>0.8223970072474399</v>
       </c>
       <c r="F16">
-        <v>0.5121616157490576</v>
+        <v>0.1601692073974186</v>
       </c>
       <c r="G16">
-        <v>2.460417652676971</v>
+        <v>0.7694507615911914</v>
       </c>
       <c r="H16">
-        <v>0.1475428220393766</v>
+        <v>0.04614132753518205</v>
       </c>
       <c r="I16">
-        <v>4.158332531016962</v>
+        <v>1.300442682753141</v>
       </c>
       <c r="J16">
-        <v>0.8369991569102955</v>
+        <v>0.261756225832268</v>
       </c>
       <c r="K16">
-        <v>4.215435910656525</v>
+        <v>1.318300723604575</v>
       </c>
       <c r="L16">
-        <v>0.8253611678737498</v>
+        <v>0.2581166569493927</v>
       </c>
       <c r="M16">
-        <v>5.027111591433607</v>
+        <v>1.572137493983563</v>
       </c>
       <c r="N16">
-        <v>0.02829007796689545</v>
+        <v>0.008847206088534671</v>
       </c>
       <c r="O16">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="P16">
-        <v>37.26605039479813</v>
+        <v>11.65427781197025</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1224,37 +1224,37 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.5695933129047863</v>
+        <v>0.1781299235660208</v>
       </c>
       <c r="C17">
-        <v>9.741566480372235</v>
+        <v>3.046497304739403</v>
       </c>
       <c r="D17">
-        <v>0.01073252267088657</v>
+        <v>0.003356400785827319</v>
       </c>
       <c r="E17">
-        <v>3.881967729109458</v>
+        <v>1.214014629746221</v>
       </c>
       <c r="F17">
-        <v>0.1707205385830192</v>
+        <v>0.0533897357991395</v>
       </c>
       <c r="G17">
-        <v>0.8201392175589906</v>
+        <v>0.2564835871970639</v>
       </c>
       <c r="J17">
-        <v>0.6107831685561618</v>
+        <v>0.191011299931655</v>
       </c>
       <c r="K17">
-        <v>3.076128907776382</v>
+        <v>0.9620032307384729</v>
       </c>
       <c r="L17">
-        <v>1.350591001975226</v>
+        <v>0.4223727113717335</v>
       </c>
       <c r="M17">
-        <v>8.226182604164087</v>
+        <v>2.572588626518558</v>
       </c>
       <c r="P17">
-        <v>28.45840548367123</v>
+        <v>8.899847450394095</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1262,37 +1262,37 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.3682486999710016</v>
+        <v>0.1151630668636135</v>
       </c>
       <c r="C18">
-        <v>6.298036003589494</v>
+        <v>1.969595931901288</v>
       </c>
       <c r="D18">
-        <v>0.007270418583503802</v>
+        <v>0.00227369085491528</v>
       </c>
       <c r="E18">
-        <v>2.62972007455802</v>
+        <v>0.8223970072474399</v>
       </c>
       <c r="F18">
-        <v>0.5975218850405674</v>
+        <v>0.1868640752969883</v>
       </c>
       <c r="G18">
-        <v>2.870487261456466</v>
+        <v>0.8976925551897235</v>
       </c>
       <c r="J18">
-        <v>0.4071887790374412</v>
+        <v>0.1273408666211033</v>
       </c>
       <c r="K18">
-        <v>2.050752605184255</v>
+        <v>0.6413354871589821</v>
       </c>
       <c r="L18">
-        <v>1.725755169190568</v>
+        <v>0.5396984645305481</v>
       </c>
       <c r="M18">
-        <v>10.511233327543</v>
+        <v>3.287196578329269</v>
       </c>
       <c r="P18">
-        <v>27.46621422415431</v>
+        <v>8.58955772399387</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1300,43 +1300,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.4132863107588216</v>
+        <v>0.1292477584944152</v>
       </c>
       <c r="C19">
-        <v>7.068299399711948</v>
+        <v>2.210481765299288</v>
       </c>
       <c r="D19">
-        <v>0.006231787357288973</v>
+        <v>0.001948877875641669</v>
       </c>
       <c r="E19">
-        <v>2.254045778192588</v>
+        <v>0.7049117204978058</v>
       </c>
       <c r="F19">
-        <v>0.5121616157490576</v>
+        <v>0.1601692073974186</v>
       </c>
       <c r="G19">
-        <v>2.460417652676971</v>
+        <v>0.7694507615911914</v>
       </c>
       <c r="H19">
-        <v>0.1180342576315013</v>
+        <v>0.03691306202814566</v>
       </c>
       <c r="I19">
-        <v>3.326666024813569</v>
+        <v>1.040354146202513</v>
       </c>
       <c r="J19">
-        <v>0.5202967732145083</v>
+        <v>0.1627133295714098</v>
       </c>
       <c r="K19">
-        <v>2.620406106624326</v>
+        <v>0.8194842335920327</v>
       </c>
       <c r="L19">
-        <v>1.6507223357475</v>
+        <v>0.5162333138987854</v>
       </c>
       <c r="M19">
-        <v>10.05422318286721</v>
+        <v>3.144274987967126</v>
       </c>
       <c r="P19">
-        <v>31.00479122534529</v>
+        <v>9.696183164415771</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1344,43 +1344,43 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.7391466711648156</v>
+        <v>0.231154644999627</v>
       </c>
       <c r="C20">
-        <v>12.64138161871561</v>
+        <v>3.953361618708342</v>
       </c>
       <c r="D20">
-        <v>0.004154524904859316</v>
+        <v>0.001299251917094446</v>
       </c>
       <c r="E20">
-        <v>1.502697185461725</v>
+        <v>0.4699411469985373</v>
       </c>
       <c r="F20">
-        <v>1.195043770081135</v>
+        <v>0.3737281505939766</v>
       </c>
       <c r="G20">
-        <v>5.740974522912933</v>
+        <v>1.795385110379447</v>
       </c>
       <c r="H20">
-        <v>0.05901712881575067</v>
+        <v>0.01845653101407283</v>
       </c>
       <c r="I20">
-        <v>1.663333012406784</v>
+        <v>0.5201770731012563</v>
       </c>
       <c r="J20">
-        <v>1.040593546429017</v>
+        <v>0.3254266591428197</v>
       </c>
       <c r="K20">
-        <v>5.240812213248653</v>
+        <v>1.638968467184065</v>
       </c>
       <c r="L20">
-        <v>2.100919336405909</v>
+        <v>0.6570242176893633</v>
       </c>
       <c r="M20">
-        <v>12.7962840509219</v>
+        <v>4.001804530139979</v>
       </c>
       <c r="P20">
-        <v>44.72435758146909</v>
+        <v>13.98672740186858</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1388,49 +1388,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>1.777660990507495</v>
+        <v>0.5559310637804653</v>
       </c>
       <c r="C21">
-        <v>30.40274934106872</v>
+        <v>9.507905541768089</v>
       </c>
       <c r="D21">
-        <v>0.003115893678644487</v>
+        <v>0.0009744389378208344</v>
       </c>
       <c r="E21">
-        <v>1.127022889096294</v>
+        <v>0.3524558602489029</v>
       </c>
       <c r="F21">
-        <v>2.560808078745289</v>
+        <v>0.8008460369870924</v>
       </c>
       <c r="G21">
-        <v>12.30208826338486</v>
+        <v>3.847253807955957</v>
       </c>
       <c r="H21">
-        <v>0.5459084415456935</v>
+        <v>0.1707229118801736</v>
       </c>
       <c r="I21">
-        <v>15.38583036476276</v>
+        <v>4.811637926186622</v>
       </c>
       <c r="J21">
-        <v>1.854971104503899</v>
+        <v>0.5801083923850263</v>
       </c>
       <c r="K21">
-        <v>9.342317423617162</v>
+        <v>2.921639441502029</v>
       </c>
       <c r="L21">
-        <v>3.076346171165795</v>
+        <v>0.9620711759022819</v>
       </c>
       <c r="M21">
-        <v>18.73741593170709</v>
+        <v>5.859785204847825</v>
       </c>
       <c r="N21">
-        <v>0.04243511695034319</v>
+        <v>0.01327080913280201</v>
       </c>
       <c r="O21">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="P21">
-        <v>97.8293191353995</v>
+        <v>30.59433589772072</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1438,49 +1438,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>3.377820809086523</v>
+        <v>1.056351872310124</v>
       </c>
       <c r="C22">
-        <v>57.76975470918422</v>
+        <v>18.06643750484995</v>
       </c>
       <c r="D22">
-        <v>0.004500735313597592</v>
+        <v>0.00140752291018565</v>
       </c>
       <c r="E22">
-        <v>1.62792195091687</v>
+        <v>0.5091029092484153</v>
       </c>
       <c r="F22">
-        <v>5.463057234656615</v>
+        <v>1.708471545572464</v>
       </c>
       <c r="G22">
-        <v>26.2444549618877</v>
+        <v>8.207474790306044</v>
       </c>
       <c r="H22">
-        <v>1.460673938189829</v>
+        <v>0.4567991425983023</v>
       </c>
       <c r="I22">
-        <v>41.16749205706792</v>
+        <v>12.87438255925609</v>
       </c>
       <c r="J22">
-        <v>3.189645435793289</v>
+        <v>0.9975034551986428</v>
       </c>
       <c r="K22">
-        <v>16.06422874061</v>
+        <v>5.023794649412026</v>
       </c>
       <c r="L22">
-        <v>5.402364007900904</v>
+        <v>1.689490845486934</v>
       </c>
       <c r="M22">
-        <v>32.90473041665635</v>
+        <v>10.29035450607423</v>
       </c>
       <c r="N22">
-        <v>0.1414503898344773</v>
+        <v>0.04423603044267338</v>
       </c>
       <c r="O22">
-        <v>2.235497082218202</v>
+        <v>0.699110954018795</v>
       </c>
       <c r="P22">
-        <v>197.0535924693165</v>
+        <v>61.62491828768488</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1488,49 +1488,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>5.43630454921219</v>
+        <v>1.700105130964999</v>
       </c>
       <c r="C23">
-        <v>92.97532287313415</v>
+        <v>29.07633706662908</v>
       </c>
       <c r="D23">
-        <v>0.004846945722335868</v>
+        <v>0.001515793903276854</v>
       </c>
       <c r="E23">
-        <v>1.753146716372014</v>
+        <v>0.5482646714982933</v>
       </c>
       <c r="F23">
-        <v>4.26801346457548</v>
+        <v>1.334743394978488</v>
       </c>
       <c r="G23">
-        <v>20.50348043897477</v>
+        <v>6.412089679926597</v>
       </c>
       <c r="H23">
-        <v>1.445919655985891</v>
+        <v>0.4521850098447842</v>
       </c>
       <c r="I23">
-        <v>40.75165880396622</v>
+        <v>12.74433829098078</v>
       </c>
       <c r="J23">
-        <v>3.709942209007798</v>
+        <v>1.160216784770053</v>
       </c>
       <c r="K23">
-        <v>18.68463484723432</v>
+        <v>5.843278883004057</v>
       </c>
       <c r="L23">
-        <v>6.8279878433192</v>
+        <v>2.135328707490431</v>
       </c>
       <c r="M23">
-        <v>41.5879231654962</v>
+        <v>13.00586472295494</v>
       </c>
       <c r="N23">
-        <v>0.1273053508510296</v>
+        <v>0.03981242739840602</v>
       </c>
       <c r="O23">
-        <v>2.011947373996382</v>
+        <v>0.6291998586169157</v>
       </c>
       <c r="P23">
-        <v>240.088434237848</v>
+        <v>75.08328042296111</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1538,49 +1538,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>6.673514210265845</v>
+        <v>2.087019895175844</v>
       </c>
       <c r="C24">
-        <v>114.1349114607334</v>
+        <v>35.69361260762118</v>
       </c>
       <c r="D24">
-        <v>0.01004010185341001</v>
+        <v>0.003139858799644911</v>
       </c>
       <c r="E24">
-        <v>3.63151819819917</v>
+        <v>1.135691105246465</v>
       </c>
       <c r="F24">
-        <v>6.231299658280202</v>
+        <v>1.948725356668592</v>
       </c>
       <c r="G24">
-        <v>29.93508144090316</v>
+        <v>9.361650932692831</v>
       </c>
       <c r="H24">
-        <v>0.8852569322362598</v>
+        <v>0.2768479652110924</v>
       </c>
       <c r="I24">
-        <v>24.94999518610176</v>
+        <v>7.802656096518847</v>
       </c>
       <c r="J24">
-        <v>4.546941365918093</v>
+        <v>1.421973010602321</v>
       </c>
       <c r="K24">
-        <v>22.90007075789084</v>
+        <v>7.161579606608634</v>
       </c>
       <c r="L24">
-        <v>8.328644512180567</v>
+        <v>2.604631720125689</v>
       </c>
       <c r="M24">
-        <v>50.72812605901185</v>
+        <v>15.86429653019778</v>
       </c>
       <c r="N24">
-        <v>0.2829007796689545</v>
+        <v>0.08847206088534676</v>
       </c>
       <c r="O24">
-        <v>4.470994164436404</v>
+        <v>1.39822190803759</v>
       </c>
       <c r="P24">
-        <v>277.7092948276799</v>
+        <v>86.84851865439184</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1588,49 +1588,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>4.853464880193343</v>
+        <v>1.517832651036978</v>
       </c>
       <c r="C25">
-        <v>83.00720833507883</v>
+        <v>25.95899098736086</v>
       </c>
       <c r="D25">
-        <v>0.01765673084565209</v>
+        <v>0.005521820647651395</v>
       </c>
       <c r="E25">
-        <v>6.386463038212333</v>
+        <v>1.997249874743783</v>
       </c>
       <c r="F25">
-        <v>8.706747467733978</v>
+        <v>2.722876525756115</v>
       </c>
       <c r="G25">
-        <v>41.82710009550852</v>
+        <v>13.08066294705026</v>
       </c>
       <c r="H25">
-        <v>0.8852569322362598</v>
+        <v>0.2768479652110924</v>
       </c>
       <c r="I25">
-        <v>24.94999518610176</v>
+        <v>7.802656096518847</v>
       </c>
       <c r="J25">
-        <v>5.112481336803427</v>
+        <v>1.598835325353853</v>
       </c>
       <c r="K25">
-        <v>25.7483382650912</v>
+        <v>8.052323338773885</v>
       </c>
       <c r="L25">
-        <v>11.10485934957409</v>
+        <v>3.47284229350092</v>
       </c>
       <c r="M25">
-        <v>67.63750141201582</v>
+        <v>21.15239537359704</v>
       </c>
       <c r="N25">
-        <v>0.3960610915365365</v>
+        <v>0.1238608852394855</v>
       </c>
       <c r="O25">
-        <v>6.259391830210967</v>
+        <v>1.957510671252626</v>
       </c>
       <c r="P25">
-        <v>286.8925259511427</v>
+        <v>89.72040675604337</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1638,49 +1638,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>4.106370395360084</v>
+        <v>1.284192472220151</v>
       </c>
       <c r="C26">
-        <v>70.22989788175336</v>
+        <v>21.96312010393522</v>
       </c>
       <c r="D26">
-        <v>0.0117711538971014</v>
+        <v>0.003681213765100929</v>
       </c>
       <c r="E26">
-        <v>4.257642025474889</v>
+        <v>1.331499916495855</v>
       </c>
       <c r="F26">
-        <v>9.304269352774547</v>
+        <v>2.909740601053104</v>
       </c>
       <c r="G26">
-        <v>44.69758735696497</v>
+        <v>13.97835550223998</v>
       </c>
       <c r="H26">
-        <v>0.4721370305260054</v>
+        <v>0.1476522481125827</v>
       </c>
       <c r="I26">
-        <v>13.30666409925428</v>
+        <v>4.16141658481005</v>
       </c>
       <c r="J26">
-        <v>5.497048517005456</v>
+        <v>1.719101699384896</v>
       </c>
       <c r="K26">
-        <v>27.68516016998744</v>
+        <v>8.658029076646256</v>
       </c>
       <c r="L26">
-        <v>12.98068018565078</v>
+        <v>4.059471059294995</v>
       </c>
       <c r="M26">
-        <v>79.06275502891042</v>
+        <v>24.72543513265058</v>
       </c>
       <c r="N26">
-        <v>0.1980305457682682</v>
+        <v>0.06193044261974273</v>
       </c>
       <c r="O26">
-        <v>3.129695915105484</v>
+        <v>0.9787553356263129</v>
       </c>
       <c r="P26">
-        <v>274.9397096584331</v>
+        <v>85.98238138885483</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1688,49 +1688,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>4.278573024842925</v>
+        <v>1.338045704926156</v>
       </c>
       <c r="C27">
-        <v>73.17502263163335</v>
+        <v>22.88415417280993</v>
       </c>
       <c r="D27">
-        <v>0.0145408371670076</v>
+        <v>0.00454738170983056</v>
       </c>
       <c r="E27">
-        <v>5.25944014911604</v>
+        <v>1.64479401449488</v>
       </c>
       <c r="F27">
-        <v>8.962828275608507</v>
+        <v>2.802961129454825</v>
       </c>
       <c r="G27">
-        <v>43.057308921847</v>
+        <v>13.46538832784585</v>
       </c>
       <c r="H27">
-        <v>0.5311541593417558</v>
+        <v>0.1661087791266554</v>
       </c>
       <c r="I27">
-        <v>14.96999711166106</v>
+        <v>4.681593657911308</v>
       </c>
       <c r="J27">
-        <v>5.112481336803427</v>
+        <v>1.598835325353853</v>
       </c>
       <c r="K27">
-        <v>25.7483382650912</v>
+        <v>8.052323338773885</v>
       </c>
       <c r="L27">
-        <v>11.55505635023249</v>
+        <v>3.613633197291497</v>
       </c>
       <c r="M27">
-        <v>70.37956228007049</v>
+        <v>22.00992491576988</v>
       </c>
       <c r="N27">
-        <v>0.1555954288179251</v>
+        <v>0.04865963348694069</v>
       </c>
       <c r="O27">
-        <v>2.459046790440023</v>
+        <v>0.7690220494206744</v>
       </c>
       <c r="P27">
-        <v>265.6589455626732</v>
+        <v>83.07999162837615</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1738,49 +1738,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>4.530253791010158</v>
+        <v>1.416754275804166</v>
       </c>
       <c r="C28">
-        <v>77.47943572761179</v>
+        <v>24.23028088885757</v>
       </c>
       <c r="D28">
-        <v>0.01384841634953105</v>
+        <v>0.004330839723648152</v>
       </c>
       <c r="E28">
-        <v>5.008990618205752</v>
+        <v>1.566470489995124</v>
       </c>
       <c r="F28">
-        <v>9.133548814191528</v>
+        <v>2.856350865253964</v>
       </c>
       <c r="G28">
-        <v>43.877448139406</v>
+        <v>13.72187191504291</v>
       </c>
       <c r="H28">
-        <v>0.4868913127299429</v>
+        <v>0.1522663808661008</v>
       </c>
       <c r="I28">
-        <v>13.72249735235597</v>
+        <v>4.291460853085366</v>
       </c>
       <c r="J28">
-        <v>5.021994941461774</v>
+        <v>1.570537354993608</v>
       </c>
       <c r="K28">
-        <v>25.29261546393915</v>
+        <v>7.909804341627445</v>
       </c>
       <c r="L28">
-        <v>10.95479368268795</v>
+        <v>3.425911992237392</v>
       </c>
       <c r="M28">
-        <v>66.72348112266425</v>
+        <v>20.86655219287275</v>
       </c>
       <c r="N28">
-        <v>0.2687557406855068</v>
+        <v>0.08404845784107938</v>
       </c>
       <c r="O28">
-        <v>4.247444456214585</v>
+        <v>1.328310812635711</v>
       </c>
       <c r="P28">
-        <v>266.7619995795139</v>
+        <v>83.42495166083683</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1788,49 +1788,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>4.48521618022234</v>
+        <v>1.402669584173364</v>
       </c>
       <c r="C29">
-        <v>76.70917233148931</v>
+        <v>23.98939505545957</v>
       </c>
       <c r="D29">
-        <v>0.01246357471457795</v>
+        <v>0.003897755751283338</v>
       </c>
       <c r="E29">
-        <v>4.508091556385176</v>
+        <v>1.409823440995612</v>
       </c>
       <c r="F29">
-        <v>7.597063966944354</v>
+        <v>2.375843243061708</v>
       </c>
       <c r="G29">
-        <v>36.49619518137508</v>
+        <v>11.41351963026934</v>
       </c>
       <c r="H29">
-        <v>0.5311541593417558</v>
+        <v>0.1661087791266554</v>
       </c>
       <c r="I29">
-        <v>14.96999711166106</v>
+        <v>4.681593657911308</v>
       </c>
       <c r="J29">
-        <v>5.72326450535959</v>
+        <v>1.789846625285508</v>
       </c>
       <c r="K29">
-        <v>28.82446717286758</v>
+        <v>9.01432656951236</v>
       </c>
       <c r="L29">
-        <v>7.503283344306816</v>
+        <v>2.346515063176298</v>
       </c>
       <c r="M29">
-        <v>45.70101446757823</v>
+        <v>14.29215903621421</v>
       </c>
       <c r="N29">
-        <v>0.1980305457682682</v>
+        <v>0.06193044261974273</v>
       </c>
       <c r="O29">
-        <v>3.129695915105484</v>
+        <v>0.9787553356263129</v>
       </c>
       <c r="P29">
-        <v>236.3891100131196</v>
+        <v>73.92638421918328</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1838,49 +1838,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>4.805777998182705</v>
+        <v>1.502919448133776</v>
       </c>
       <c r="C30">
-        <v>82.19163532741969</v>
+        <v>25.70393539905708</v>
       </c>
       <c r="D30">
-        <v>0.01211736430583967</v>
+        <v>0.003789484758192134</v>
       </c>
       <c r="E30">
-        <v>4.382866790930033</v>
+        <v>1.370661678745734</v>
       </c>
       <c r="F30">
-        <v>10.58467339214719</v>
+        <v>3.310163619546649</v>
       </c>
       <c r="G30">
-        <v>50.8486314886574</v>
+        <v>15.90198240621795</v>
       </c>
       <c r="H30">
-        <v>0.5459084415456935</v>
+        <v>0.1707229118801736</v>
       </c>
       <c r="I30">
-        <v>15.38583036476276</v>
+        <v>4.811637926186622</v>
       </c>
       <c r="J30">
-        <v>5.293454127486736</v>
+        <v>1.655431266074344</v>
       </c>
       <c r="K30">
-        <v>26.65978386739531</v>
+        <v>8.337361333066767</v>
       </c>
       <c r="L30">
-        <v>9.078972846611245</v>
+        <v>2.839283226443318</v>
       </c>
       <c r="M30">
-        <v>55.29822750576968</v>
+        <v>17.29351243381919</v>
       </c>
       <c r="N30">
-        <v>0.1980305457682682</v>
+        <v>0.06193044261974273</v>
       </c>
       <c r="O30">
-        <v>3.129695915105484</v>
+        <v>0.9787553356263129</v>
       </c>
       <c r="P30">
-        <v>268.415605976088</v>
+        <v>83.94208691217585</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1888,49 +1888,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>5.03361532334462</v>
+        <v>1.574171417560184</v>
       </c>
       <c r="C31">
-        <v>86.08826191956862</v>
+        <v>26.92253432095286</v>
       </c>
       <c r="D31">
-        <v>0.01280978512331622</v>
+        <v>0.004006026744374541</v>
       </c>
       <c r="E31">
-        <v>4.63331632184032</v>
+        <v>1.448985203245489</v>
       </c>
       <c r="F31">
-        <v>10.07251177639814</v>
+        <v>3.149994412149231</v>
       </c>
       <c r="G31">
-        <v>48.38821383598044</v>
+        <v>15.13253164462676</v>
       </c>
       <c r="H31">
-        <v>0.5163998771378182</v>
+        <v>0.1614946463731372</v>
       </c>
       <c r="I31">
-        <v>14.55416385855936</v>
+        <v>4.551549389635993</v>
       </c>
       <c r="J31">
-        <v>5.135102935638843</v>
+        <v>1.605909817943915</v>
       </c>
       <c r="K31">
-        <v>25.86226896537922</v>
+        <v>8.087953088060495</v>
       </c>
       <c r="L31">
-        <v>7.803414678079085</v>
+        <v>2.440375665703349</v>
       </c>
       <c r="M31">
-        <v>47.52905504628138</v>
+        <v>14.86384539766278</v>
       </c>
       <c r="N31">
-        <v>0.2263206237351636</v>
+        <v>0.07077764870827737</v>
       </c>
       <c r="O31">
-        <v>3.576795331549124</v>
+        <v>1.118577526430072</v>
       </c>
       <c r="P31">
-        <v>259.4322502786155</v>
+        <v>81.13270620579694</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1938,49 +1938,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>5.722425841275989</v>
+        <v>1.78958434838421</v>
       </c>
       <c r="C32">
-        <v>97.86876091908853</v>
+        <v>30.60667059645167</v>
       </c>
       <c r="D32">
-        <v>0.009693891444671737</v>
+        <v>0.003031587806553708</v>
       </c>
       <c r="E32">
-        <v>3.506293432744027</v>
+        <v>1.096529342996587</v>
       </c>
       <c r="F32">
-        <v>10.84075420002172</v>
+        <v>3.390248223245359</v>
       </c>
       <c r="G32">
-        <v>52.07884031499592</v>
+        <v>16.28670778701355</v>
       </c>
       <c r="H32">
-        <v>0.752468392400821</v>
+        <v>0.2353207704294285</v>
       </c>
       <c r="I32">
-        <v>21.20749590818649</v>
+        <v>6.63225768204102</v>
       </c>
       <c r="J32">
-        <v>4.908886947284707</v>
+        <v>1.535164892043301</v>
       </c>
       <c r="K32">
-        <v>24.72296196249907</v>
+        <v>7.731655595194395</v>
       </c>
       <c r="L32">
-        <v>4.577002840027157</v>
+        <v>1.431374188537541</v>
       </c>
       <c r="M32">
-        <v>27.87761882522273</v>
+        <v>8.718217012090671</v>
       </c>
       <c r="N32">
-        <v>0.2970458186524022</v>
+        <v>0.09289566392961407</v>
       </c>
       <c r="O32">
-        <v>4.694543872658226</v>
+        <v>1.468133003439469</v>
       </c>
       <c r="P32">
-        <v>259.0647931665025</v>
+        <v>81.01779069360339</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1988,49 +1988,49 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>6.254929357061394</v>
+        <v>1.956115114136629</v>
       </c>
       <c r="C33">
-        <v>106.9759928379481</v>
+        <v>33.45479133251036</v>
       </c>
       <c r="D33">
-        <v>0.007616628992242076</v>
+        <v>0.002381961848006485</v>
       </c>
       <c r="E33">
-        <v>2.754944840013164</v>
+        <v>0.8615587694973182</v>
       </c>
       <c r="F33">
-        <v>9.304269352774547</v>
+        <v>2.909740601053104</v>
       </c>
       <c r="G33">
-        <v>44.69758735696497</v>
+        <v>13.97835550223998</v>
       </c>
       <c r="H33">
-        <v>1.077062600887449</v>
+        <v>0.336831691006829</v>
       </c>
       <c r="I33">
-        <v>30.35582747642382</v>
+        <v>9.493231584097931</v>
       </c>
       <c r="J33">
-        <v>3.574212615995317</v>
+        <v>1.117769829229685</v>
       </c>
       <c r="K33">
-        <v>18.00105064550624</v>
+        <v>5.629500387284398</v>
       </c>
       <c r="L33">
-        <v>3.526543171824203</v>
+        <v>1.10286207969286</v>
       </c>
       <c r="M33">
-        <v>21.47947679976178</v>
+        <v>6.717314747020679</v>
       </c>
       <c r="N33">
-        <v>0.09901527288413411</v>
+        <v>0.03096522130987137</v>
       </c>
       <c r="O33">
-        <v>1.564847957552742</v>
+        <v>0.4893776678131564</v>
       </c>
       <c r="P33">
-        <v>249.6733769145902</v>
+        <v>78.0807964887408</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2038,49 +2038,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>6.352952392305476</v>
+        <v>1.986770031215432</v>
       </c>
       <c r="C34">
-        <v>108.6524484648029</v>
+        <v>33.97907226402366</v>
       </c>
       <c r="D34">
-        <v>0.009001470627195184</v>
+        <v>0.0028150458203713</v>
       </c>
       <c r="E34">
-        <v>3.255843901833739</v>
+        <v>1.018205818496831</v>
       </c>
       <c r="F34">
-        <v>7.340983159069825</v>
+        <v>2.295758639362999</v>
       </c>
       <c r="G34">
-        <v>35.2659863550366</v>
+        <v>11.02879424947374</v>
       </c>
       <c r="H34">
-        <v>1.150834011907138</v>
+        <v>0.3599023547744201</v>
       </c>
       <c r="I34">
-        <v>32.43499374193229</v>
+        <v>10.1434529254745</v>
       </c>
       <c r="J34">
-        <v>1.922835901010139</v>
+        <v>0.6013318701552103</v>
       </c>
       <c r="K34">
-        <v>9.684109524481205</v>
+        <v>3.02852868936186</v>
       </c>
       <c r="L34">
-        <v>1.875820836076704</v>
+        <v>0.5866287657940744</v>
       </c>
       <c r="M34">
-        <v>11.42525361689456</v>
+        <v>3.573039759053553</v>
       </c>
       <c r="N34">
-        <v>0.04243511695034319</v>
+        <v>0.01327080913280201</v>
       </c>
       <c r="O34">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="P34">
-        <v>220.0841476175936</v>
+        <v>68.82730450834509</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2088,49 +2088,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>4.101071852914458</v>
+        <v>1.282535449675351</v>
       </c>
       <c r="C35">
-        <v>70.13927865868013</v>
+        <v>21.93478059412369</v>
       </c>
       <c r="D35">
-        <v>0.01419462675826933</v>
+        <v>0.004439110716739357</v>
       </c>
       <c r="E35">
-        <v>5.134215383660896</v>
+        <v>1.605632252245002</v>
       </c>
       <c r="F35">
-        <v>4.4387340031585</v>
+        <v>1.388133130777627</v>
       </c>
       <c r="G35">
-        <v>21.32361965653375</v>
+        <v>6.668573267123657</v>
       </c>
       <c r="H35">
-        <v>0.9442740610520107</v>
+        <v>0.2953044962251653</v>
       </c>
       <c r="I35">
-        <v>26.61332819850855</v>
+        <v>8.3228331696201</v>
       </c>
       <c r="J35">
-        <v>0.8822423545811225</v>
+        <v>0.2759052110123907</v>
       </c>
       <c r="K35">
-        <v>4.443297311232553</v>
+        <v>1.389560222177795</v>
       </c>
       <c r="L35">
-        <v>1.425623835418295</v>
+        <v>0.4458378620034963</v>
       </c>
       <c r="M35">
-        <v>8.683192748839868</v>
+        <v>2.715510216880701</v>
       </c>
       <c r="N35">
-        <v>0.0565801559337909</v>
+        <v>0.01769441217706934</v>
       </c>
       <c r="O35">
-        <v>0.8941988328872811</v>
+        <v>0.2796443816075181</v>
       </c>
       <c r="P35">
-        <v>149.0938516801595</v>
+        <v>46.6263837763663</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2138,49 +2138,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>3.534127811232485</v>
+        <v>1.10523403738173</v>
       </c>
       <c r="C36">
-        <v>60.4430217898445</v>
+        <v>18.90245304429006</v>
       </c>
       <c r="D36">
-        <v>0.01557946839322243</v>
+        <v>0.004872194689104172</v>
       </c>
       <c r="E36">
-        <v>5.63511444548147</v>
+        <v>1.762279301244514</v>
       </c>
       <c r="F36">
-        <v>3.670491579534913</v>
+        <v>1.1478793196815</v>
       </c>
       <c r="G36">
-        <v>17.6329931775183</v>
+        <v>5.51439712473687</v>
       </c>
       <c r="H36">
-        <v>0.8114855212165715</v>
+        <v>0.2537773014435014</v>
       </c>
       <c r="I36">
-        <v>22.87082892059329</v>
+        <v>7.152434755142275</v>
       </c>
       <c r="J36">
-        <v>1.06321514526443</v>
+        <v>0.332501151732881</v>
       </c>
       <c r="K36">
-        <v>5.354742913536665</v>
+        <v>1.674598216470675</v>
       </c>
       <c r="L36">
-        <v>1.20052533508909</v>
+        <v>0.3754424101082076</v>
       </c>
       <c r="M36">
-        <v>7.312162314812519</v>
+        <v>2.286745445794274</v>
       </c>
       <c r="N36">
-        <v>0.04243511695034319</v>
+        <v>0.01327080913280201</v>
       </c>
       <c r="O36">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="P36">
-        <v>130.2573726641332</v>
+        <v>40.73561839805404</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2188,43 +2188,43 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>2.689010291155153</v>
+        <v>0.8409389414860985</v>
       </c>
       <c r="C37">
-        <v>45.98925570966428</v>
+        <v>14.38230122935112</v>
       </c>
       <c r="D37">
-        <v>0.008655260218456909</v>
+        <v>0.002706774827280095</v>
       </c>
       <c r="E37">
-        <v>3.130619136378595</v>
+        <v>0.9790440562469523</v>
       </c>
       <c r="F37">
-        <v>3.158329963785856</v>
+        <v>0.9877101122840808</v>
       </c>
       <c r="G37">
-        <v>15.17257552484132</v>
+        <v>4.744946363145679</v>
       </c>
       <c r="H37">
-        <v>0.663942699177195</v>
+        <v>0.2076359739083193</v>
       </c>
       <c r="I37">
-        <v>18.71249638957633</v>
+        <v>5.851992072389135</v>
       </c>
       <c r="J37">
-        <v>0.7238911627332288</v>
+        <v>0.2263837628819615</v>
       </c>
       <c r="K37">
-        <v>3.645782409216454</v>
+        <v>1.140151977171524</v>
       </c>
       <c r="L37">
-        <v>0.9003940013168176</v>
+        <v>0.2815818075811558</v>
       </c>
       <c r="M37">
-        <v>5.484121736109391</v>
+        <v>1.715059084345705</v>
       </c>
       <c r="P37">
-        <v>100.2790742841731</v>
+        <v>31.36045215561901</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2232,49 +2232,49 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>1.965759247327215</v>
+        <v>0.6147553641208719</v>
       </c>
       <c r="C38">
-        <v>33.61973176016837</v>
+        <v>10.51395814007738</v>
       </c>
       <c r="D38">
-        <v>0.009347681035933461</v>
+        <v>0.002923316813462504</v>
       </c>
       <c r="E38">
-        <v>3.381068667288883</v>
+        <v>1.057367580746709</v>
       </c>
       <c r="F38">
-        <v>2.560808078745289</v>
+        <v>0.8008460369870924</v>
       </c>
       <c r="G38">
-        <v>12.30208826338486</v>
+        <v>3.847253807955957</v>
       </c>
       <c r="H38">
-        <v>0.3245942084866286</v>
+        <v>0.1015109205774005</v>
       </c>
       <c r="I38">
-        <v>9.148331568237312</v>
+        <v>2.86097390205691</v>
       </c>
       <c r="J38">
-        <v>0.7238911627332288</v>
+        <v>0.2263837628819615</v>
       </c>
       <c r="K38">
-        <v>3.645782409216454</v>
+        <v>1.140151977171524</v>
       </c>
       <c r="L38">
-        <v>0.9754268347598856</v>
+        <v>0.3050469582129186</v>
       </c>
       <c r="M38">
-        <v>5.941131880785172</v>
+        <v>1.857980674707848</v>
       </c>
       <c r="N38">
-        <v>0.01414503898344772</v>
+        <v>0.004423603044267335</v>
       </c>
       <c r="O38">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="P38">
-        <v>74.83565650937452</v>
+        <v>23.40348714075618</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2282,49 +2282,49 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>1.229261847385213</v>
+        <v>0.3844292303936449</v>
       </c>
       <c r="C39">
-        <v>21.02365975298938</v>
+        <v>6.574766276274803</v>
       </c>
       <c r="D39">
-        <v>0.002423472861167934</v>
+        <v>0.0007578969516384269</v>
       </c>
       <c r="E39">
-        <v>0.8765733581860068</v>
+        <v>0.2741323357491466</v>
       </c>
       <c r="F39">
-        <v>1.109683500789625</v>
+        <v>0.3470332826944069</v>
       </c>
       <c r="G39">
-        <v>5.330904914133439</v>
+        <v>1.667143316780914</v>
       </c>
       <c r="H39">
-        <v>0.2950856440787533</v>
+        <v>0.09228265507036411</v>
       </c>
       <c r="I39">
-        <v>8.316665062033923</v>
+        <v>2.600885365506282</v>
       </c>
       <c r="J39">
-        <v>0.4071887790374412</v>
+        <v>0.1273408666211033</v>
       </c>
       <c r="K39">
-        <v>2.050752605184255</v>
+        <v>0.6413354871589821</v>
       </c>
       <c r="L39">
-        <v>1.425623835418295</v>
+        <v>0.4458378620034963</v>
       </c>
       <c r="M39">
-        <v>8.683192748839868</v>
+        <v>2.715510216880701</v>
       </c>
       <c r="N39">
-        <v>0.01414503898344772</v>
+        <v>0.004423603044267335</v>
       </c>
       <c r="O39">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="P39">
-        <v>50.98871026814265</v>
+        <v>15.94578949053163</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2332,49 +2332,49 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.8636624186370241</v>
+        <v>0.2700946748024315</v>
       </c>
       <c r="C40">
-        <v>14.77093336093651</v>
+        <v>4.61934009927928</v>
       </c>
       <c r="D40">
-        <v>0.005539366539812421</v>
+        <v>0.001732335889459261</v>
       </c>
       <c r="E40">
-        <v>2.003596247282301</v>
+        <v>0.6265881959980495</v>
       </c>
       <c r="F40">
-        <v>0.7682424236235866</v>
+        <v>0.2402538110961278</v>
       </c>
       <c r="G40">
-        <v>3.690626479015458</v>
+        <v>1.154176142386787</v>
       </c>
       <c r="H40">
-        <v>0.1475428220393766</v>
+        <v>0.04614132753518205</v>
       </c>
       <c r="I40">
-        <v>4.158332531016962</v>
+        <v>1.300442682753141</v>
       </c>
       <c r="J40">
-        <v>0.8143775580748823</v>
+        <v>0.2546817332422067</v>
       </c>
       <c r="K40">
-        <v>4.10150521036851</v>
+        <v>1.282670974317964</v>
       </c>
       <c r="L40">
-        <v>0.9003940013168176</v>
+        <v>0.2815818075811558</v>
       </c>
       <c r="M40">
-        <v>5.484121736109391</v>
+        <v>1.715059084345705</v>
       </c>
       <c r="N40">
-        <v>0.02829007796689545</v>
+        <v>0.008847206088534671</v>
       </c>
       <c r="O40">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="P40">
-        <v>38.18426364937117</v>
+        <v>11.94143226611979</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2382,37 +2382,37 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.5589962280135345</v>
+        <v>0.1748158784764205</v>
       </c>
       <c r="C41">
-        <v>9.560328034225781</v>
+        <v>2.989818285116342</v>
       </c>
       <c r="D41">
-        <v>0.008309049809718631</v>
+        <v>0.002598503834188892</v>
       </c>
       <c r="E41">
-        <v>3.005394370923451</v>
+        <v>0.9398822939970746</v>
       </c>
       <c r="F41">
-        <v>0.2560808078745288</v>
+        <v>0.08008460369870929</v>
       </c>
       <c r="G41">
-        <v>1.230208826338486</v>
+        <v>0.3847253807955957</v>
       </c>
       <c r="J41">
-        <v>0.5881615697207484</v>
+        <v>0.1839368073415938</v>
       </c>
       <c r="K41">
-        <v>2.962198207488368</v>
+        <v>0.926373481451863</v>
       </c>
       <c r="L41">
-        <v>1.500656668861363</v>
+        <v>0.4693030126352593</v>
       </c>
       <c r="M41">
-        <v>9.140202893515649</v>
+        <v>2.858431807242844</v>
       </c>
       <c r="P41">
-        <v>28.81053665677163</v>
+        <v>9.009970054589891</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2420,37 +2420,37 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.3603008863025626</v>
+        <v>0.1126775330464132</v>
       </c>
       <c r="C42">
-        <v>6.162107168979647</v>
+        <v>1.927086667183994</v>
       </c>
       <c r="D42">
-        <v>0.005539366539812421</v>
+        <v>0.001732335889459261</v>
       </c>
       <c r="E42">
-        <v>2.003596247282301</v>
+        <v>0.6265881959980495</v>
       </c>
       <c r="F42">
-        <v>0.8536026929150959</v>
+        <v>0.2669486789956976</v>
       </c>
       <c r="G42">
-        <v>4.100696087794953</v>
+        <v>1.282417935985319</v>
       </c>
       <c r="J42">
-        <v>0.4071887790374412</v>
+        <v>0.1273408666211033</v>
       </c>
       <c r="K42">
-        <v>2.050752605184255</v>
+        <v>0.6413354871589821</v>
       </c>
       <c r="L42">
-        <v>1.875820836076704</v>
+        <v>0.5866287657940744</v>
       </c>
       <c r="M42">
-        <v>11.42525361689456</v>
+        <v>3.573039759053553</v>
       </c>
       <c r="P42">
-        <v>29.24485828700733</v>
+        <v>9.145796225726645</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2458,43 +2458,43 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.4053384970903826</v>
+        <v>0.1267622246772149</v>
       </c>
       <c r="C43">
-        <v>6.932370565102105</v>
+        <v>2.167972500581993</v>
       </c>
       <c r="D43">
-        <v>0.004846945722335868</v>
+        <v>0.001515793903276854</v>
       </c>
       <c r="E43">
-        <v>1.753146716372014</v>
+        <v>0.5482646714982933</v>
       </c>
       <c r="F43">
-        <v>0.7682424236235866</v>
+        <v>0.2402538110961278</v>
       </c>
       <c r="G43">
-        <v>3.690626479015458</v>
+        <v>1.154176142386787</v>
       </c>
       <c r="H43">
-        <v>0.1180342576315013</v>
+        <v>0.03691306202814566</v>
       </c>
       <c r="I43">
-        <v>3.326666024813569</v>
+        <v>1.040354146202513</v>
       </c>
       <c r="J43">
-        <v>0.4976751743790947</v>
+        <v>0.1556388369813485</v>
       </c>
       <c r="K43">
-        <v>2.506475406336311</v>
+        <v>0.7838544843054223</v>
       </c>
       <c r="L43">
-        <v>1.800788002633635</v>
+        <v>0.5631636151623115</v>
       </c>
       <c r="M43">
-        <v>10.96824347221878</v>
+        <v>3.430118168691411</v>
       </c>
       <c r="P43">
-        <v>32.77245396493878</v>
+        <v>10.24898745751485</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2502,43 +2502,43 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.7232510438279375</v>
+        <v>0.2261835773652265</v>
       </c>
       <c r="C44">
-        <v>12.36952394949592</v>
+        <v>3.868343089273753</v>
       </c>
       <c r="D44">
-        <v>0.003115893678644487</v>
+        <v>0.0009744389378208344</v>
       </c>
       <c r="E44">
-        <v>1.127022889096294</v>
+        <v>0.3524558602489029</v>
       </c>
       <c r="F44">
-        <v>1.707205385830192</v>
+        <v>0.5338973579913951</v>
       </c>
       <c r="G44">
-        <v>8.201392175589906</v>
+        <v>2.564835871970639</v>
       </c>
       <c r="H44">
-        <v>0.05901712881575067</v>
+        <v>0.01845653101407283</v>
       </c>
       <c r="I44">
-        <v>1.663333012406784</v>
+        <v>0.5201770731012563</v>
       </c>
       <c r="J44">
-        <v>1.017971947593603</v>
+        <v>0.3183521665527584</v>
       </c>
       <c r="K44">
-        <v>5.126881512960638</v>
+        <v>1.603338717897455</v>
       </c>
       <c r="L44">
-        <v>2.326017836735113</v>
+        <v>0.727419669584652</v>
       </c>
       <c r="M44">
-        <v>14.16731448494926</v>
+        <v>4.430569301226404</v>
       </c>
       <c r="P44">
-        <v>48.49204726098004</v>
+        <v>15.16500365516434</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2546,49 +2546,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>1.740571193388114</v>
+        <v>0.5443319059668638</v>
       </c>
       <c r="C45">
-        <v>29.7684147795561</v>
+        <v>9.309528973087385</v>
       </c>
       <c r="D45">
-        <v>0.002423472861167934</v>
+        <v>0.0007578969516384269</v>
       </c>
       <c r="E45">
-        <v>0.8765733581860068</v>
+        <v>0.2741323357491466</v>
       </c>
       <c r="F45">
-        <v>3.670491579534913</v>
+        <v>1.1478793196815</v>
       </c>
       <c r="G45">
-        <v>17.6329931775183</v>
+        <v>5.51439712473687</v>
       </c>
       <c r="H45">
-        <v>0.5311541593417558</v>
+        <v>0.1661087791266554</v>
       </c>
       <c r="I45">
-        <v>14.96999711166106</v>
+        <v>4.681593657911308</v>
       </c>
       <c r="J45">
-        <v>1.809727906833072</v>
+        <v>0.5659594072049038</v>
       </c>
       <c r="K45">
-        <v>9.11445602304113</v>
+        <v>2.850379942928809</v>
       </c>
       <c r="L45">
-        <v>3.376477504938066</v>
+        <v>1.055931778429333</v>
       </c>
       <c r="M45">
-        <v>20.56545651041021</v>
+        <v>6.431471566296396</v>
       </c>
       <c r="N45">
-        <v>0.04243511695034319</v>
+        <v>0.01327080913280201</v>
       </c>
       <c r="O45">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="P45">
-        <v>104.7718210188857</v>
+        <v>32.76547678340926</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2596,49 +2596,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>3.308939757293383</v>
+        <v>1.034810579227722</v>
       </c>
       <c r="C46">
-        <v>56.59170480923222</v>
+        <v>17.69802387730006</v>
       </c>
       <c r="D46">
-        <v>0.003462104087382763</v>
+        <v>0.001082709930912038</v>
       </c>
       <c r="E46">
-        <v>1.252247654551438</v>
+        <v>0.3916176224987811</v>
       </c>
       <c r="F46">
-        <v>7.853144774818885</v>
+        <v>2.455927846760417</v>
       </c>
       <c r="G46">
-        <v>37.72640400771357</v>
+        <v>11.79824501106493</v>
       </c>
       <c r="H46">
-        <v>1.416411091578015</v>
+        <v>0.4429567443377477</v>
       </c>
       <c r="I46">
-        <v>39.91999229776283</v>
+        <v>12.48424975443015</v>
       </c>
       <c r="J46">
-        <v>3.099159040451635</v>
+        <v>0.9692054848383977</v>
       </c>
       <c r="K46">
-        <v>15.60850593945794</v>
+        <v>4.881275652265585</v>
       </c>
       <c r="L46">
-        <v>5.852561008559318</v>
+        <v>1.830281749277512</v>
       </c>
       <c r="M46">
-        <v>35.64679128471104</v>
+        <v>11.14788404824709</v>
       </c>
       <c r="N46">
-        <v>0.1555954288179251</v>
+        <v>0.04865963348694069</v>
       </c>
       <c r="O46">
-        <v>2.459046790440023</v>
+        <v>0.7690220494206744</v>
       </c>
       <c r="P46">
-        <v>210.8939659894756</v>
+        <v>65.95324276308692</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2646,49 +2646,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>5.32768442907686</v>
+        <v>1.666136168796596</v>
       </c>
       <c r="C47">
-        <v>91.11762880013288</v>
+        <v>28.49537711549274</v>
       </c>
       <c r="D47">
-        <v>0.003808314496121038</v>
+        <v>0.001190980924003242</v>
       </c>
       <c r="E47">
-        <v>1.377472420006582</v>
+        <v>0.4307793847486591</v>
       </c>
       <c r="F47">
-        <v>6.145939388988693</v>
+        <v>1.922030488769022</v>
       </c>
       <c r="G47">
-        <v>29.52501183212367</v>
+        <v>9.233409139094297</v>
       </c>
       <c r="H47">
-        <v>1.401656809374078</v>
+        <v>0.4383426115842295</v>
       </c>
       <c r="I47">
-        <v>39.50415904466112</v>
+        <v>12.35420548615484</v>
       </c>
       <c r="J47">
-        <v>3.619455813666143</v>
+        <v>1.131918814409808</v>
       </c>
       <c r="K47">
-        <v>18.22891204608226</v>
+        <v>5.700759885857619</v>
       </c>
       <c r="L47">
-        <v>7.428250510863745</v>
+        <v>2.323049912544534</v>
       </c>
       <c r="M47">
-        <v>45.24400432290248</v>
+        <v>14.14923744585207</v>
       </c>
       <c r="N47">
-        <v>0.1414503898344773</v>
+        <v>0.04423603044267338</v>
       </c>
       <c r="O47">
-        <v>2.235497082218202</v>
+        <v>0.699110954018795</v>
       </c>
       <c r="P47">
-        <v>251.3009312044273</v>
+        <v>78.58978441868989</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2696,49 +2696,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>6.538401377902384</v>
+        <v>2.044765820283441</v>
       </c>
       <c r="C48">
-        <v>111.824121272366</v>
+        <v>34.97095510742719</v>
       </c>
       <c r="D48">
-        <v>0.007616628992242076</v>
+        <v>0.002381961848006485</v>
       </c>
       <c r="E48">
-        <v>2.754944840013164</v>
+        <v>0.8615587694973182</v>
       </c>
       <c r="F48">
-        <v>8.962828275608507</v>
+        <v>2.802961129454825</v>
       </c>
       <c r="G48">
-        <v>43.057308921847</v>
+        <v>13.46538832784585</v>
       </c>
       <c r="H48">
-        <v>0.8557483678283846</v>
+        <v>0.267619699704056</v>
       </c>
       <c r="I48">
-        <v>24.11832867989837</v>
+        <v>7.542567559968218</v>
       </c>
       <c r="J48">
-        <v>4.433833371741028</v>
+        <v>1.386600547652014</v>
       </c>
       <c r="K48">
-        <v>22.33041725645077</v>
+        <v>6.983430860175583</v>
       </c>
       <c r="L48">
-        <v>9.078972846611245</v>
+        <v>2.839283226443318</v>
       </c>
       <c r="M48">
-        <v>55.29822750576968</v>
+        <v>17.29351243381919</v>
       </c>
       <c r="N48">
-        <v>0.3111908576358501</v>
+        <v>0.09731926697388138</v>
       </c>
       <c r="O48">
-        <v>4.918093580880046</v>
+        <v>1.538044098841349</v>
       </c>
       <c r="P48">
-        <v>294.4900337835447</v>
+        <v>92.09638880993425</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2746,49 +2746,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>4.755441844949261</v>
+        <v>1.487177733958174</v>
       </c>
       <c r="C49">
-        <v>81.33075270822404</v>
+        <v>25.43471005584757</v>
       </c>
       <c r="D49">
-        <v>0.01350220594079277</v>
+        <v>0.004222568730556949</v>
       </c>
       <c r="E49">
-        <v>4.883765852750609</v>
+        <v>1.527308727745246</v>
       </c>
       <c r="F49">
-        <v>12.54795958585192</v>
+        <v>3.924145581236754</v>
       </c>
       <c r="G49">
-        <v>60.28023249058579</v>
+        <v>18.8515436589842</v>
       </c>
       <c r="H49">
-        <v>0.8557483678283846</v>
+        <v>0.267619699704056</v>
       </c>
       <c r="I49">
-        <v>24.11832867989837</v>
+        <v>7.542567559968218</v>
       </c>
       <c r="J49">
-        <v>4.976751743790947</v>
+        <v>1.556388369813485</v>
       </c>
       <c r="K49">
-        <v>25.06475406336311</v>
+        <v>7.838544843054225</v>
       </c>
       <c r="L49">
-        <v>12.08028618433397</v>
+        <v>3.777889251713837</v>
       </c>
       <c r="M49">
-        <v>73.57863329280097</v>
+        <v>23.01037604830488</v>
       </c>
       <c r="N49">
-        <v>0.4384962084868797</v>
+        <v>0.1371316943722875</v>
       </c>
       <c r="O49">
-        <v>6.930040954876427</v>
+        <v>2.167243957458265</v>
       </c>
       <c r="P49">
-        <v>311.8546941836815</v>
+        <v>97.52686975089175</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM10.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>1.310704832936953</v>
+        <v>4.191147074490102</v>
       </c>
       <c r="C2">
-        <v>22.41655226091969</v>
+        <v>71.67980545092504</v>
       </c>
       <c r="D2">
-        <v>0.004763923696012969</v>
+        <v>0.01523325798448415</v>
       </c>
       <c r="E2">
-        <v>1.723117538994636</v>
+        <v>5.509889680026329</v>
       </c>
       <c r="F2">
-        <v>2.028809960367302</v>
+        <v>6.48738046615473</v>
       </c>
       <c r="G2">
-        <v>9.746376313488424</v>
+        <v>31.16529026724164</v>
       </c>
       <c r="H2">
-        <v>0.1522663808661008</v>
+        <v>0.4868913127299429</v>
       </c>
       <c r="I2">
-        <v>4.291460853085366</v>
+        <v>13.72249735235597</v>
       </c>
       <c r="J2">
-        <v>1.761548654925263</v>
+        <v>5.632778110017935</v>
       </c>
       <c r="K2">
-        <v>8.871807572365917</v>
+        <v>28.36874437171551</v>
       </c>
       <c r="L2">
-        <v>3.730958950450313</v>
+        <v>11.93022051744783</v>
       </c>
       <c r="M2">
-        <v>22.7245328675806</v>
+        <v>72.66461300344942</v>
       </c>
       <c r="N2">
-        <v>0.0575068395754754</v>
+        <v>0.1838855067848205</v>
       </c>
       <c r="O2">
-        <v>0.9088442402244336</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="P2">
-        <v>79.72925118947649</v>
+        <v>254.9445225782074</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>1.365386576915359</v>
+        <v>4.365998975195756</v>
       </c>
       <c r="C3">
-        <v>23.35175608470015</v>
+        <v>74.67023981234166</v>
       </c>
       <c r="D3">
-        <v>0.005846633626925008</v>
+        <v>0.01869536207186692</v>
       </c>
       <c r="E3">
-        <v>2.114735161493417</v>
+        <v>6.762137334577766</v>
       </c>
       <c r="F3">
-        <v>1.948725356668592</v>
+        <v>6.231299658280202</v>
       </c>
       <c r="G3">
-        <v>9.361650932692831</v>
+        <v>29.93508144090316</v>
       </c>
       <c r="H3">
-        <v>0.1707229118801736</v>
+        <v>0.5459084415456935</v>
       </c>
       <c r="I3">
-        <v>4.811637926186622</v>
+        <v>15.38583036476276</v>
       </c>
       <c r="J3">
-        <v>1.641282280894221</v>
+        <v>5.248210929815908</v>
       </c>
       <c r="K3">
-        <v>8.266101834493545</v>
+        <v>26.43192246681928</v>
       </c>
       <c r="L3">
-        <v>3.308586239078579</v>
+        <v>10.5796295154726</v>
       </c>
       <c r="M3">
-        <v>20.15194424106204</v>
+        <v>64.43843039928535</v>
       </c>
       <c r="N3">
-        <v>0.04423603044267338</v>
+        <v>0.1414503898344773</v>
       </c>
       <c r="O3">
-        <v>0.699110954018795</v>
+        <v>2.235497082218202</v>
       </c>
       <c r="P3">
-        <v>77.24172316415392</v>
+        <v>246.9903321731247</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>1.445752170338169</v>
+        <v>4.622978283808614</v>
       </c>
       <c r="C4">
-        <v>24.72622231055934</v>
+        <v>79.06527213139331</v>
       </c>
       <c r="D4">
-        <v>0.0056300916407426</v>
+        <v>0.01800294125439037</v>
       </c>
       <c r="E4">
-        <v>2.036411636993661</v>
+        <v>6.511687803667479</v>
       </c>
       <c r="F4">
-        <v>1.975420224568162</v>
+        <v>6.316659927571711</v>
       </c>
       <c r="G4">
-        <v>9.489892726291357</v>
+        <v>30.34515104968265</v>
       </c>
       <c r="H4">
-        <v>0.156880513619619</v>
+        <v>0.5016455949338807</v>
       </c>
       <c r="I4">
-        <v>4.421505121360679</v>
+        <v>14.13833060545767</v>
       </c>
       <c r="J4">
-        <v>1.612984310533976</v>
+        <v>5.157724534474257</v>
       </c>
       <c r="K4">
-        <v>8.123582837347104</v>
+        <v>25.97619966566723</v>
       </c>
       <c r="L4">
-        <v>3.144330184656237</v>
+        <v>10.05439968137113</v>
       </c>
       <c r="M4">
-        <v>19.15149310852703</v>
+        <v>61.23935938655483</v>
       </c>
       <c r="N4">
-        <v>0.07520125175254472</v>
+        <v>0.2404656627186113</v>
       </c>
       <c r="O4">
-        <v>1.188488621831952</v>
+        <v>3.800345039770944</v>
       </c>
       <c r="P4">
-        <v>77.55379511002059</v>
+        <v>247.9882223083267</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>1.431667478707369</v>
+        <v>4.577940673020796</v>
       </c>
       <c r="C5">
-        <v>24.48533647716134</v>
+        <v>78.29500873527086</v>
       </c>
       <c r="D5">
-        <v>0.00508873667528658</v>
+        <v>0.01627188921069899</v>
       </c>
       <c r="E5">
-        <v>1.840602825744271</v>
+        <v>5.885563976391759</v>
       </c>
       <c r="F5">
-        <v>1.655081809773324</v>
+        <v>5.292336696073594</v>
       </c>
       <c r="G5">
-        <v>7.950991203108977</v>
+        <v>25.4243157443287</v>
       </c>
       <c r="H5">
-        <v>0.1707229118801736</v>
+        <v>0.5459084415456935</v>
       </c>
       <c r="I5">
-        <v>4.811637926186622</v>
+        <v>15.38583036476276</v>
       </c>
       <c r="J5">
-        <v>1.839368073415937</v>
+        <v>5.881615697207485</v>
       </c>
       <c r="K5">
-        <v>9.263734814518628</v>
+        <v>29.62198207488368</v>
       </c>
       <c r="L5">
-        <v>2.158793858122193</v>
+        <v>6.903020676762272</v>
       </c>
       <c r="M5">
-        <v>13.14878631331707</v>
+        <v>42.04493331017199</v>
       </c>
       <c r="N5">
-        <v>0.0575068395754754</v>
+        <v>0.1838855067848205</v>
       </c>
       <c r="O5">
-        <v>0.9088442402244336</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="P5">
-        <v>69.7281635084111</v>
+        <v>222.9647599932988</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>1.53357436521258</v>
+        <v>4.903801033426788</v>
       </c>
       <c r="C6">
-        <v>26.22821633057039</v>
+        <v>83.86809095427448</v>
       </c>
       <c r="D6">
-        <v>0.004980465682195376</v>
+        <v>0.01592567880196071</v>
       </c>
       <c r="E6">
-        <v>1.801441063494393</v>
+        <v>5.760339210936616</v>
       </c>
       <c r="F6">
-        <v>2.295758639362999</v>
+        <v>7.340983159069825</v>
       </c>
       <c r="G6">
-        <v>11.02879424947374</v>
+        <v>35.2659863550366</v>
       </c>
       <c r="H6">
-        <v>0.1753370446336918</v>
+        <v>0.5606627237496311</v>
       </c>
       <c r="I6">
-        <v>4.941682194461935</v>
+        <v>15.80166361786445</v>
       </c>
       <c r="J6">
-        <v>1.697878221614711</v>
+        <v>5.429183720499216</v>
       </c>
       <c r="K6">
-        <v>8.551139828786427</v>
+        <v>27.3433680691234</v>
       </c>
       <c r="L6">
-        <v>2.604631720125689</v>
+        <v>8.328644512180567</v>
       </c>
       <c r="M6">
-        <v>15.86429653019778</v>
+        <v>50.72812605901185</v>
       </c>
       <c r="N6">
-        <v>0.0575068395754754</v>
+        <v>0.1838855067848205</v>
       </c>
       <c r="O6">
-        <v>0.9088442402244336</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="P6">
-        <v>77.69408173341644</v>
+        <v>248.4368068076439</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>1.606483357183788</v>
+        <v>5.136936901034329</v>
       </c>
       <c r="C7">
-        <v>27.47515476227767</v>
+        <v>87.85533676949662</v>
       </c>
       <c r="D7">
-        <v>0.005197007668377784</v>
+        <v>0.01661809961943726</v>
       </c>
       <c r="E7">
-        <v>1.879764587994149</v>
+        <v>6.010788741846902</v>
       </c>
       <c r="F7">
-        <v>2.188979167764721</v>
+        <v>6.999542081903787</v>
       </c>
       <c r="G7">
-        <v>10.51582707507962</v>
+        <v>33.62570791991861</v>
       </c>
       <c r="H7">
-        <v>0.1661087791266554</v>
+        <v>0.5311541593417558</v>
       </c>
       <c r="I7">
-        <v>4.681593657911308</v>
+        <v>14.96999711166106</v>
       </c>
       <c r="J7">
-        <v>1.648356773484283</v>
+        <v>5.270832528651322</v>
       </c>
       <c r="K7">
-        <v>8.301731583780155</v>
+        <v>26.5458531671073</v>
       </c>
       <c r="L7">
-        <v>2.229189310017482</v>
+        <v>7.128119177091476</v>
       </c>
       <c r="M7">
-        <v>13.5775510844035</v>
+        <v>43.41596374419932</v>
       </c>
       <c r="N7">
-        <v>0.06635404566401006</v>
+        <v>0.2121755847517159</v>
       </c>
       <c r="O7">
-        <v>1.048666431028193</v>
+        <v>3.353245623327304</v>
       </c>
       <c r="P7">
-        <v>75.3909576233839</v>
+        <v>241.072271609951</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>1.826038844369814</v>
+        <v>5.838993775079761</v>
       </c>
       <c r="C8">
-        <v>31.23013981230531</v>
+        <v>99.86238382669966</v>
       </c>
       <c r="D8">
-        <v>0.003897755751283338</v>
+        <v>0.01246357471457795</v>
       </c>
       <c r="E8">
-        <v>1.409823440995612</v>
+        <v>4.508091556385176</v>
       </c>
       <c r="F8">
-        <v>2.349148375162139</v>
+        <v>7.511703697652847</v>
       </c>
       <c r="G8">
-        <v>11.28527783667081</v>
+        <v>36.08612557259559</v>
       </c>
       <c r="H8">
-        <v>0.2445490359364649</v>
+        <v>0.7819769568086961</v>
       </c>
       <c r="I8">
-        <v>6.892346218591646</v>
+        <v>22.03916241438989</v>
       </c>
       <c r="J8">
-        <v>1.577611847583669</v>
+        <v>5.044616540297187</v>
       </c>
       <c r="K8">
-        <v>7.945434090914054</v>
+        <v>25.40654616422716</v>
       </c>
       <c r="L8">
-        <v>1.314048435378727</v>
+        <v>4.201838672811818</v>
       </c>
       <c r="M8">
-        <v>8.003609060279958</v>
+        <v>25.59256810184381</v>
       </c>
       <c r="N8">
-        <v>0.08404845784107938</v>
+        <v>0.2687557406855068</v>
       </c>
       <c r="O8">
-        <v>1.328310812635711</v>
+        <v>4.247444456214585</v>
       </c>
       <c r="P8">
-        <v>75.49428402441627</v>
+        <v>241.4026710504063</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>1.995883655211834</v>
+        <v>6.382094375756417</v>
       </c>
       <c r="C9">
-        <v>34.13493956798705</v>
+        <v>109.1508541917057</v>
       </c>
       <c r="D9">
-        <v>0.003139858799644911</v>
+        <v>0.01004010185341001</v>
       </c>
       <c r="E9">
-        <v>1.135691105246465</v>
+        <v>3.63151819819917</v>
       </c>
       <c r="F9">
-        <v>2.028809960367302</v>
+        <v>6.48738046615473</v>
       </c>
       <c r="G9">
-        <v>9.746376313488424</v>
+        <v>31.16529026724164</v>
       </c>
       <c r="H9">
-        <v>0.3460599565138655</v>
+        <v>1.106571165295325</v>
       </c>
       <c r="I9">
-        <v>9.75332012064856</v>
+        <v>31.1874939826272</v>
       </c>
       <c r="J9">
-        <v>1.14606779958993</v>
+        <v>3.66469901133697</v>
       </c>
       <c r="K9">
-        <v>5.772019384430838</v>
+        <v>18.4567734466583</v>
       </c>
       <c r="L9">
-        <v>1.009001477165807</v>
+        <v>3.226411838051929</v>
       </c>
       <c r="M9">
-        <v>6.14562838557211</v>
+        <v>19.65143622105864</v>
       </c>
       <c r="N9">
-        <v>0.02654161826560402</v>
+        <v>0.08487023390068639</v>
       </c>
       <c r="O9">
-        <v>0.419466572411277</v>
+        <v>1.341298249330922</v>
       </c>
       <c r="P9">
-        <v>73.66294577569873</v>
+        <v>235.546731749171</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>2.027367083563038</v>
+        <v>6.482766682223309</v>
       </c>
       <c r="C10">
-        <v>34.67339025440612</v>
+        <v>110.872619430097</v>
       </c>
       <c r="D10">
-        <v>0.003681213765100929</v>
+        <v>0.0117711538971014</v>
       </c>
       <c r="E10">
-        <v>1.331499916495855</v>
+        <v>4.257642025474889</v>
       </c>
       <c r="F10">
-        <v>1.601692073974185</v>
+        <v>5.121616157490578</v>
       </c>
       <c r="G10">
-        <v>7.694507615911914</v>
+        <v>24.60417652676972</v>
       </c>
       <c r="H10">
-        <v>0.3691306202814564</v>
+        <v>1.180342576315013</v>
       </c>
       <c r="I10">
-        <v>10.40354146202513</v>
+        <v>33.26666024813569</v>
       </c>
       <c r="J10">
-        <v>0.6154808553353327</v>
+        <v>1.968079098680966</v>
       </c>
       <c r="K10">
-        <v>3.09978818793508</v>
+        <v>9.911970925057233</v>
       </c>
       <c r="L10">
-        <v>0.5396984645305481</v>
+        <v>1.725755169190568</v>
       </c>
       <c r="M10">
-        <v>3.287196578329269</v>
+        <v>10.511233327543</v>
       </c>
       <c r="N10">
-        <v>0.01327080913280201</v>
+        <v>0.04243511695034319</v>
       </c>
       <c r="O10">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="P10">
-        <v>65.86997842189146</v>
+        <v>210.6277175624909</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>1.309047810392153</v>
+        <v>4.185848532044476</v>
       </c>
       <c r="C11">
-        <v>22.38821275110816</v>
+        <v>71.58918622785183</v>
       </c>
       <c r="D11">
-        <v>0.005738362633833804</v>
+        <v>0.01834915166312864</v>
       </c>
       <c r="E11">
-        <v>2.075573399243539</v>
+        <v>6.63691256912262</v>
       </c>
       <c r="F11">
-        <v>0.9610152443845111</v>
+        <v>3.072969694494347</v>
       </c>
       <c r="G11">
-        <v>4.616704569547148</v>
+        <v>14.76250591606183</v>
       </c>
       <c r="H11">
-        <v>0.3045327617322017</v>
+        <v>0.9737826254598858</v>
       </c>
       <c r="I11">
-        <v>8.582921706170731</v>
+        <v>27.44499470471195</v>
       </c>
       <c r="J11">
-        <v>0.2829797036024519</v>
+        <v>0.9048639534165358</v>
       </c>
       <c r="K11">
-        <v>1.425189971464405</v>
+        <v>4.557228011520565</v>
       </c>
       <c r="L11">
-        <v>0.3989075607399705</v>
+        <v>1.275558168532158</v>
       </c>
       <c r="M11">
-        <v>2.429667036156415</v>
+        <v>7.769172459488304</v>
       </c>
       <c r="N11">
-        <v>0.01769441217706934</v>
+        <v>0.0565801559337909</v>
       </c>
       <c r="O11">
-        <v>0.2796443816075181</v>
+        <v>0.8941988328872811</v>
       </c>
       <c r="P11">
-        <v>45.07782967096011</v>
+        <v>144.1421510031887</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>1.127603841736532</v>
+        <v>3.605658134248437</v>
       </c>
       <c r="C12">
-        <v>19.2850364267457</v>
+        <v>61.66638130133312</v>
       </c>
       <c r="D12">
-        <v>0.006387988592381026</v>
+        <v>0.0204264141155583</v>
       </c>
       <c r="E12">
-        <v>2.310543972742808</v>
+        <v>7.388261161853484</v>
       </c>
       <c r="F12">
-        <v>0.8008460369870924</v>
+        <v>2.560808078745289</v>
       </c>
       <c r="G12">
-        <v>3.847253807955957</v>
+        <v>12.30208826338486</v>
       </c>
       <c r="H12">
-        <v>0.2630055669505378</v>
+        <v>0.8409940856244471</v>
       </c>
       <c r="I12">
-        <v>7.412523291692903</v>
+        <v>23.70249542679668</v>
       </c>
       <c r="J12">
-        <v>0.3395756443229422</v>
+        <v>1.085836744099843</v>
       </c>
       <c r="K12">
-        <v>1.710227965757285</v>
+        <v>5.46867361382468</v>
       </c>
       <c r="L12">
-        <v>0.3519772594764444</v>
+        <v>1.125492501646022</v>
       </c>
       <c r="M12">
-        <v>2.143823855432132</v>
+        <v>6.855152170136737</v>
       </c>
       <c r="N12">
-        <v>0.01327080913280201</v>
+        <v>0.04243511695034319</v>
       </c>
       <c r="O12">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="P12">
-        <v>39.82180975373115</v>
+        <v>127.3353521374249</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,43 +1030,43 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>0.8583376782065005</v>
+        <v>2.744644986834225</v>
       </c>
       <c r="C13">
-        <v>14.67986608237219</v>
+        <v>46.9407575519332</v>
       </c>
       <c r="D13">
-        <v>0.003572942772009727</v>
+        <v>0.01142494348836312</v>
       </c>
       <c r="E13">
-        <v>1.292338154245977</v>
+        <v>4.132417260019746</v>
       </c>
       <c r="F13">
-        <v>0.6940665653888137</v>
+        <v>2.21936700157925</v>
       </c>
       <c r="G13">
-        <v>3.334286633561828</v>
+        <v>10.66180982826688</v>
       </c>
       <c r="H13">
-        <v>0.2122501066618375</v>
+        <v>0.6786969813811325</v>
       </c>
       <c r="I13">
-        <v>5.982036340664449</v>
+        <v>19.12832964267803</v>
       </c>
       <c r="J13">
-        <v>0.2334582554720228</v>
+        <v>0.7465127615686421</v>
       </c>
       <c r="K13">
-        <v>1.175781726458134</v>
+        <v>3.759713109504467</v>
       </c>
       <c r="L13">
-        <v>0.2581166569493927</v>
+        <v>0.8253611678737498</v>
       </c>
       <c r="M13">
-        <v>1.572137493983563</v>
+        <v>5.027111591433607</v>
       </c>
       <c r="P13">
-        <v>30.29624863673671</v>
+        <v>96.87614682656128</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>0.6271830332068732</v>
+        <v>2.005498315669409</v>
       </c>
       <c r="C14">
-        <v>10.72650446366385</v>
+        <v>34.2993759332176</v>
       </c>
       <c r="D14">
-        <v>0.003789484758192134</v>
+        <v>0.01211736430583967</v>
       </c>
       <c r="E14">
-        <v>1.370661678745734</v>
+        <v>4.382866790930033</v>
       </c>
       <c r="F14">
-        <v>0.5605922258909649</v>
+        <v>1.792565655121702</v>
       </c>
       <c r="G14">
-        <v>2.693077665569171</v>
+        <v>8.611461784369403</v>
       </c>
       <c r="H14">
-        <v>0.1061250533309187</v>
+        <v>0.3393484906905663</v>
       </c>
       <c r="I14">
-        <v>2.991018170332224</v>
+        <v>9.564164821339013</v>
       </c>
       <c r="J14">
-        <v>0.2334582554720228</v>
+        <v>0.7465127615686421</v>
       </c>
       <c r="K14">
-        <v>1.175781726458134</v>
+        <v>3.759713109504467</v>
       </c>
       <c r="L14">
-        <v>0.2815818075811558</v>
+        <v>0.9003940013168176</v>
       </c>
       <c r="M14">
-        <v>1.715059084345705</v>
+        <v>5.484121736109391</v>
       </c>
       <c r="N14">
-        <v>0.004423603044267335</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O14">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P14">
-        <v>22.5591673478011</v>
+        <v>72.13583551134815</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1124,49 +1124,49 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.3927143431176457</v>
+        <v>1.255754559613342</v>
       </c>
       <c r="C15">
-        <v>6.716463825332446</v>
+        <v>21.47675586835553</v>
       </c>
       <c r="D15">
-        <v>0.0009744389378208344</v>
+        <v>0.003115893678644487</v>
       </c>
       <c r="E15">
-        <v>0.3524558602489029</v>
+        <v>1.127022889096294</v>
       </c>
       <c r="F15">
-        <v>0.2402538110961278</v>
+        <v>0.7682424236235866</v>
       </c>
       <c r="G15">
-        <v>1.154176142386787</v>
+        <v>3.690626479015458</v>
       </c>
       <c r="H15">
-        <v>0.09689678782388234</v>
+        <v>0.3098399262826909</v>
       </c>
       <c r="I15">
-        <v>2.730929633781595</v>
+        <v>8.732498315135619</v>
       </c>
       <c r="J15">
-        <v>0.1273408666211033</v>
+        <v>0.4071887790374412</v>
       </c>
       <c r="K15">
-        <v>0.6413354871589821</v>
+        <v>2.050752605184255</v>
       </c>
       <c r="L15">
-        <v>0.3989075607399705</v>
+        <v>1.275558168532158</v>
       </c>
       <c r="M15">
-        <v>2.429667036156415</v>
+        <v>7.769172459488304</v>
       </c>
       <c r="N15">
-        <v>0.004423603044267335</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O15">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P15">
-        <v>15.35645049184782</v>
+        <v>49.10422311424859</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1174,49 +1174,49 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.2758942537092321</v>
+        <v>0.8822073171967153</v>
       </c>
       <c r="C16">
-        <v>4.718528383619634</v>
+        <v>15.08810064169281</v>
       </c>
       <c r="D16">
-        <v>0.00227369085491528</v>
+        <v>0.007270418583503802</v>
       </c>
       <c r="E16">
-        <v>0.8223970072474399</v>
+        <v>2.62972007455802</v>
       </c>
       <c r="F16">
-        <v>0.1601692073974186</v>
+        <v>0.5121616157490576</v>
       </c>
       <c r="G16">
-        <v>0.7694507615911914</v>
+        <v>2.460417652676971</v>
       </c>
       <c r="H16">
-        <v>0.04614132753518205</v>
+        <v>0.1475428220393766</v>
       </c>
       <c r="I16">
-        <v>1.300442682753141</v>
+        <v>4.158332531016962</v>
       </c>
       <c r="J16">
-        <v>0.261756225832268</v>
+        <v>0.8369991569102955</v>
       </c>
       <c r="K16">
-        <v>1.318300723604575</v>
+        <v>4.215435910656525</v>
       </c>
       <c r="L16">
-        <v>0.2581166569493927</v>
+        <v>0.8253611678737498</v>
       </c>
       <c r="M16">
-        <v>1.572137493983563</v>
+        <v>5.027111591433607</v>
       </c>
       <c r="N16">
-        <v>0.008847206088534671</v>
+        <v>0.02829007796689545</v>
       </c>
       <c r="O16">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="P16">
-        <v>11.65427781197025</v>
+        <v>37.26605039479813</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1224,37 +1224,37 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.1781299235660208</v>
+        <v>0.5695933129047863</v>
       </c>
       <c r="C17">
-        <v>3.046497304739403</v>
+        <v>9.741566480372235</v>
       </c>
       <c r="D17">
-        <v>0.003356400785827319</v>
+        <v>0.01073252267088657</v>
       </c>
       <c r="E17">
-        <v>1.214014629746221</v>
+        <v>3.881967729109458</v>
       </c>
       <c r="F17">
-        <v>0.0533897357991395</v>
+        <v>0.1707205385830192</v>
       </c>
       <c r="G17">
-        <v>0.2564835871970639</v>
+        <v>0.8201392175589906</v>
       </c>
       <c r="J17">
-        <v>0.191011299931655</v>
+        <v>0.6107831685561618</v>
       </c>
       <c r="K17">
-        <v>0.9620032307384729</v>
+        <v>3.076128907776382</v>
       </c>
       <c r="L17">
-        <v>0.4223727113717335</v>
+        <v>1.350591001975226</v>
       </c>
       <c r="M17">
-        <v>2.572588626518558</v>
+        <v>8.226182604164087</v>
       </c>
       <c r="P17">
-        <v>8.899847450394095</v>
+        <v>28.45840548367123</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1262,37 +1262,37 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.1151630668636135</v>
+        <v>0.3682486999710016</v>
       </c>
       <c r="C18">
-        <v>1.969595931901288</v>
+        <v>6.298036003589494</v>
       </c>
       <c r="D18">
-        <v>0.00227369085491528</v>
+        <v>0.007270418583503802</v>
       </c>
       <c r="E18">
-        <v>0.8223970072474399</v>
+        <v>2.62972007455802</v>
       </c>
       <c r="F18">
-        <v>0.1868640752969883</v>
+        <v>0.5975218850405674</v>
       </c>
       <c r="G18">
-        <v>0.8976925551897235</v>
+        <v>2.870487261456466</v>
       </c>
       <c r="J18">
-        <v>0.1273408666211033</v>
+        <v>0.4071887790374412</v>
       </c>
       <c r="K18">
-        <v>0.6413354871589821</v>
+        <v>2.050752605184255</v>
       </c>
       <c r="L18">
-        <v>0.5396984645305481</v>
+        <v>1.725755169190568</v>
       </c>
       <c r="M18">
-        <v>3.287196578329269</v>
+        <v>10.511233327543</v>
       </c>
       <c r="P18">
-        <v>8.58955772399387</v>
+        <v>27.46621422415431</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1300,43 +1300,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.1292477584944152</v>
+        <v>0.4132863107588216</v>
       </c>
       <c r="C19">
-        <v>2.210481765299288</v>
+        <v>7.068299399711948</v>
       </c>
       <c r="D19">
-        <v>0.001948877875641669</v>
+        <v>0.006231787357288973</v>
       </c>
       <c r="E19">
-        <v>0.7049117204978058</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="F19">
-        <v>0.1601692073974186</v>
+        <v>0.5121616157490576</v>
       </c>
       <c r="G19">
-        <v>0.7694507615911914</v>
+        <v>2.460417652676971</v>
       </c>
       <c r="H19">
-        <v>0.03691306202814566</v>
+        <v>0.1180342576315013</v>
       </c>
       <c r="I19">
-        <v>1.040354146202513</v>
+        <v>3.326666024813569</v>
       </c>
       <c r="J19">
-        <v>0.1627133295714098</v>
+        <v>0.5202967732145083</v>
       </c>
       <c r="K19">
-        <v>0.8194842335920327</v>
+        <v>2.620406106624326</v>
       </c>
       <c r="L19">
-        <v>0.5162333138987854</v>
+        <v>1.6507223357475</v>
       </c>
       <c r="M19">
-        <v>3.144274987967126</v>
+        <v>10.05422318286721</v>
       </c>
       <c r="P19">
-        <v>9.696183164415771</v>
+        <v>31.00479122534529</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1344,43 +1344,43 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.231154644999627</v>
+        <v>0.7391466711648156</v>
       </c>
       <c r="C20">
-        <v>3.953361618708342</v>
+        <v>12.64138161871561</v>
       </c>
       <c r="D20">
-        <v>0.001299251917094446</v>
+        <v>0.004154524904859316</v>
       </c>
       <c r="E20">
-        <v>0.4699411469985373</v>
+        <v>1.502697185461725</v>
       </c>
       <c r="F20">
-        <v>0.3737281505939766</v>
+        <v>1.195043770081135</v>
       </c>
       <c r="G20">
-        <v>1.795385110379447</v>
+        <v>5.740974522912933</v>
       </c>
       <c r="H20">
-        <v>0.01845653101407283</v>
+        <v>0.05901712881575067</v>
       </c>
       <c r="I20">
-        <v>0.5201770731012563</v>
+        <v>1.663333012406784</v>
       </c>
       <c r="J20">
-        <v>0.3254266591428197</v>
+        <v>1.040593546429017</v>
       </c>
       <c r="K20">
-        <v>1.638968467184065</v>
+        <v>5.240812213248653</v>
       </c>
       <c r="L20">
-        <v>0.6570242176893633</v>
+        <v>2.100919336405909</v>
       </c>
       <c r="M20">
-        <v>4.001804530139979</v>
+        <v>12.7962840509219</v>
       </c>
       <c r="P20">
-        <v>13.98672740186858</v>
+        <v>44.72435758146909</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1388,49 +1388,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.5559310637804653</v>
+        <v>1.777660990507495</v>
       </c>
       <c r="C21">
-        <v>9.507905541768089</v>
+        <v>30.40274934106872</v>
       </c>
       <c r="D21">
-        <v>0.0009744389378208344</v>
+        <v>0.003115893678644487</v>
       </c>
       <c r="E21">
-        <v>0.3524558602489029</v>
+        <v>1.127022889096294</v>
       </c>
       <c r="F21">
-        <v>0.8008460369870924</v>
+        <v>2.560808078745289</v>
       </c>
       <c r="G21">
-        <v>3.847253807955957</v>
+        <v>12.30208826338486</v>
       </c>
       <c r="H21">
-        <v>0.1707229118801736</v>
+        <v>0.5459084415456935</v>
       </c>
       <c r="I21">
-        <v>4.811637926186622</v>
+        <v>15.38583036476276</v>
       </c>
       <c r="J21">
-        <v>0.5801083923850263</v>
+        <v>1.854971104503899</v>
       </c>
       <c r="K21">
-        <v>2.921639441502029</v>
+        <v>9.342317423617162</v>
       </c>
       <c r="L21">
-        <v>0.9620711759022819</v>
+        <v>3.076346171165795</v>
       </c>
       <c r="M21">
-        <v>5.859785204847825</v>
+        <v>18.73741593170709</v>
       </c>
       <c r="N21">
-        <v>0.01327080913280201</v>
+        <v>0.04243511695034319</v>
       </c>
       <c r="O21">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="P21">
-        <v>30.59433589772072</v>
+        <v>97.8293191353995</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1438,49 +1438,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>1.056351872310124</v>
+        <v>3.377820809086523</v>
       </c>
       <c r="C22">
-        <v>18.06643750484995</v>
+        <v>57.76975470918422</v>
       </c>
       <c r="D22">
-        <v>0.00140752291018565</v>
+        <v>0.004500735313597592</v>
       </c>
       <c r="E22">
-        <v>0.5091029092484153</v>
+        <v>1.62792195091687</v>
       </c>
       <c r="F22">
-        <v>1.708471545572464</v>
+        <v>5.463057234656615</v>
       </c>
       <c r="G22">
-        <v>8.207474790306044</v>
+        <v>26.2444549618877</v>
       </c>
       <c r="H22">
-        <v>0.4567991425983023</v>
+        <v>1.460673938189829</v>
       </c>
       <c r="I22">
-        <v>12.87438255925609</v>
+        <v>41.16749205706792</v>
       </c>
       <c r="J22">
-        <v>0.9975034551986428</v>
+        <v>3.189645435793289</v>
       </c>
       <c r="K22">
-        <v>5.023794649412026</v>
+        <v>16.06422874061</v>
       </c>
       <c r="L22">
-        <v>1.689490845486934</v>
+        <v>5.402364007900904</v>
       </c>
       <c r="M22">
-        <v>10.29035450607423</v>
+        <v>32.90473041665635</v>
       </c>
       <c r="N22">
-        <v>0.04423603044267338</v>
+        <v>0.1414503898344773</v>
       </c>
       <c r="O22">
-        <v>0.699110954018795</v>
+        <v>2.235497082218202</v>
       </c>
       <c r="P22">
-        <v>61.62491828768488</v>
+        <v>197.0535924693165</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1488,49 +1488,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>1.700105130964999</v>
+        <v>5.43630454921219</v>
       </c>
       <c r="C23">
-        <v>29.07633706662908</v>
+        <v>92.97532287313415</v>
       </c>
       <c r="D23">
-        <v>0.001515793903276854</v>
+        <v>0.004846945722335868</v>
       </c>
       <c r="E23">
-        <v>0.5482646714982933</v>
+        <v>1.753146716372014</v>
       </c>
       <c r="F23">
-        <v>1.334743394978488</v>
+        <v>4.26801346457548</v>
       </c>
       <c r="G23">
-        <v>6.412089679926597</v>
+        <v>20.50348043897477</v>
       </c>
       <c r="H23">
-        <v>0.4521850098447842</v>
+        <v>1.445919655985891</v>
       </c>
       <c r="I23">
-        <v>12.74433829098078</v>
+        <v>40.75165880396622</v>
       </c>
       <c r="J23">
-        <v>1.160216784770053</v>
+        <v>3.709942209007798</v>
       </c>
       <c r="K23">
-        <v>5.843278883004057</v>
+        <v>18.68463484723432</v>
       </c>
       <c r="L23">
-        <v>2.135328707490431</v>
+        <v>6.8279878433192</v>
       </c>
       <c r="M23">
-        <v>13.00586472295494</v>
+        <v>41.5879231654962</v>
       </c>
       <c r="N23">
-        <v>0.03981242739840602</v>
+        <v>0.1273053508510296</v>
       </c>
       <c r="O23">
-        <v>0.6291998586169157</v>
+        <v>2.011947373996382</v>
       </c>
       <c r="P23">
-        <v>75.08328042296111</v>
+        <v>240.088434237848</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1538,49 +1538,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>2.087019895175844</v>
+        <v>6.673514210265845</v>
       </c>
       <c r="C24">
-        <v>35.69361260762118</v>
+        <v>114.1349114607334</v>
       </c>
       <c r="D24">
-        <v>0.003139858799644911</v>
+        <v>0.01004010185341001</v>
       </c>
       <c r="E24">
-        <v>1.135691105246465</v>
+        <v>3.63151819819917</v>
       </c>
       <c r="F24">
-        <v>1.948725356668592</v>
+        <v>6.231299658280202</v>
       </c>
       <c r="G24">
-        <v>9.361650932692831</v>
+        <v>29.93508144090316</v>
       </c>
       <c r="H24">
-        <v>0.2768479652110924</v>
+        <v>0.8852569322362598</v>
       </c>
       <c r="I24">
-        <v>7.802656096518847</v>
+        <v>24.94999518610176</v>
       </c>
       <c r="J24">
-        <v>1.421973010602321</v>
+        <v>4.546941365918093</v>
       </c>
       <c r="K24">
-        <v>7.161579606608634</v>
+        <v>22.90007075789084</v>
       </c>
       <c r="L24">
-        <v>2.604631720125689</v>
+        <v>8.328644512180567</v>
       </c>
       <c r="M24">
-        <v>15.86429653019778</v>
+        <v>50.72812605901185</v>
       </c>
       <c r="N24">
-        <v>0.08847206088534676</v>
+        <v>0.2829007796689545</v>
       </c>
       <c r="O24">
-        <v>1.39822190803759</v>
+        <v>4.470994164436404</v>
       </c>
       <c r="P24">
-        <v>86.84851865439184</v>
+        <v>277.7092948276799</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1588,49 +1588,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>1.517832651036978</v>
+        <v>4.853464880193343</v>
       </c>
       <c r="C25">
-        <v>25.95899098736086</v>
+        <v>83.00720833507883</v>
       </c>
       <c r="D25">
-        <v>0.005521820647651395</v>
+        <v>0.01765673084565209</v>
       </c>
       <c r="E25">
-        <v>1.997249874743783</v>
+        <v>6.386463038212333</v>
       </c>
       <c r="F25">
-        <v>2.722876525756115</v>
+        <v>8.706747467733978</v>
       </c>
       <c r="G25">
-        <v>13.08066294705026</v>
+        <v>41.82710009550852</v>
       </c>
       <c r="H25">
-        <v>0.2768479652110924</v>
+        <v>0.8852569322362598</v>
       </c>
       <c r="I25">
-        <v>7.802656096518847</v>
+        <v>24.94999518610176</v>
       </c>
       <c r="J25">
-        <v>1.598835325353853</v>
+        <v>5.112481336803427</v>
       </c>
       <c r="K25">
-        <v>8.052323338773885</v>
+        <v>25.7483382650912</v>
       </c>
       <c r="L25">
-        <v>3.47284229350092</v>
+        <v>11.10485934957409</v>
       </c>
       <c r="M25">
-        <v>21.15239537359704</v>
+        <v>67.63750141201582</v>
       </c>
       <c r="N25">
-        <v>0.1238608852394855</v>
+        <v>0.3960610915365365</v>
       </c>
       <c r="O25">
-        <v>1.957510671252626</v>
+        <v>6.259391830210967</v>
       </c>
       <c r="P25">
-        <v>89.72040675604337</v>
+        <v>286.8925259511427</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1638,49 +1638,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>1.284192472220151</v>
+        <v>4.106370395360084</v>
       </c>
       <c r="C26">
-        <v>21.96312010393522</v>
+        <v>70.22989788175336</v>
       </c>
       <c r="D26">
-        <v>0.003681213765100929</v>
+        <v>0.0117711538971014</v>
       </c>
       <c r="E26">
-        <v>1.331499916495855</v>
+        <v>4.257642025474889</v>
       </c>
       <c r="F26">
-        <v>2.909740601053104</v>
+        <v>9.304269352774547</v>
       </c>
       <c r="G26">
-        <v>13.97835550223998</v>
+        <v>44.69758735696497</v>
       </c>
       <c r="H26">
-        <v>0.1476522481125827</v>
+        <v>0.4721370305260054</v>
       </c>
       <c r="I26">
-        <v>4.16141658481005</v>
+        <v>13.30666409925428</v>
       </c>
       <c r="J26">
-        <v>1.719101699384896</v>
+        <v>5.497048517005456</v>
       </c>
       <c r="K26">
-        <v>8.658029076646256</v>
+        <v>27.68516016998744</v>
       </c>
       <c r="L26">
-        <v>4.059471059294995</v>
+        <v>12.98068018565078</v>
       </c>
       <c r="M26">
-        <v>24.72543513265058</v>
+        <v>79.06275502891042</v>
       </c>
       <c r="N26">
-        <v>0.06193044261974273</v>
+        <v>0.1980305457682682</v>
       </c>
       <c r="O26">
-        <v>0.9787553356263129</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="P26">
-        <v>85.98238138885483</v>
+        <v>274.9397096584331</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1688,49 +1688,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>1.338045704926156</v>
+        <v>4.278573024842925</v>
       </c>
       <c r="C27">
-        <v>22.88415417280993</v>
+        <v>73.17502263163335</v>
       </c>
       <c r="D27">
-        <v>0.00454738170983056</v>
+        <v>0.0145408371670076</v>
       </c>
       <c r="E27">
-        <v>1.64479401449488</v>
+        <v>5.25944014911604</v>
       </c>
       <c r="F27">
-        <v>2.802961129454825</v>
+        <v>8.962828275608507</v>
       </c>
       <c r="G27">
-        <v>13.46538832784585</v>
+        <v>43.057308921847</v>
       </c>
       <c r="H27">
-        <v>0.1661087791266554</v>
+        <v>0.5311541593417558</v>
       </c>
       <c r="I27">
-        <v>4.681593657911308</v>
+        <v>14.96999711166106</v>
       </c>
       <c r="J27">
-        <v>1.598835325353853</v>
+        <v>5.112481336803427</v>
       </c>
       <c r="K27">
-        <v>8.052323338773885</v>
+        <v>25.7483382650912</v>
       </c>
       <c r="L27">
-        <v>3.613633197291497</v>
+        <v>11.55505635023249</v>
       </c>
       <c r="M27">
-        <v>22.00992491576988</v>
+        <v>70.37956228007049</v>
       </c>
       <c r="N27">
-        <v>0.04865963348694069</v>
+        <v>0.1555954288179251</v>
       </c>
       <c r="O27">
-        <v>0.7690220494206744</v>
+        <v>2.459046790440023</v>
       </c>
       <c r="P27">
-        <v>83.07999162837615</v>
+        <v>265.6589455626732</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1738,49 +1738,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>1.416754275804166</v>
+        <v>4.530253791010158</v>
       </c>
       <c r="C28">
-        <v>24.23028088885757</v>
+        <v>77.47943572761179</v>
       </c>
       <c r="D28">
-        <v>0.004330839723648152</v>
+        <v>0.01384841634953105</v>
       </c>
       <c r="E28">
-        <v>1.566470489995124</v>
+        <v>5.008990618205752</v>
       </c>
       <c r="F28">
-        <v>2.856350865253964</v>
+        <v>9.133548814191528</v>
       </c>
       <c r="G28">
-        <v>13.72187191504291</v>
+        <v>43.877448139406</v>
       </c>
       <c r="H28">
-        <v>0.1522663808661008</v>
+        <v>0.4868913127299429</v>
       </c>
       <c r="I28">
-        <v>4.291460853085366</v>
+        <v>13.72249735235597</v>
       </c>
       <c r="J28">
-        <v>1.570537354993608</v>
+        <v>5.021994941461774</v>
       </c>
       <c r="K28">
-        <v>7.909804341627445</v>
+        <v>25.29261546393915</v>
       </c>
       <c r="L28">
-        <v>3.425911992237392</v>
+        <v>10.95479368268795</v>
       </c>
       <c r="M28">
-        <v>20.86655219287275</v>
+        <v>66.72348112266425</v>
       </c>
       <c r="N28">
-        <v>0.08404845784107938</v>
+        <v>0.2687557406855068</v>
       </c>
       <c r="O28">
-        <v>1.328310812635711</v>
+        <v>4.247444456214585</v>
       </c>
       <c r="P28">
-        <v>83.42495166083683</v>
+        <v>266.7619995795139</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1788,49 +1788,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>1.402669584173364</v>
+        <v>4.48521618022234</v>
       </c>
       <c r="C29">
-        <v>23.98939505545957</v>
+        <v>76.70917233148931</v>
       </c>
       <c r="D29">
-        <v>0.003897755751283338</v>
+        <v>0.01246357471457795</v>
       </c>
       <c r="E29">
-        <v>1.409823440995612</v>
+        <v>4.508091556385176</v>
       </c>
       <c r="F29">
-        <v>2.375843243061708</v>
+        <v>7.597063966944354</v>
       </c>
       <c r="G29">
-        <v>11.41351963026934</v>
+        <v>36.49619518137508</v>
       </c>
       <c r="H29">
-        <v>0.1661087791266554</v>
+        <v>0.5311541593417558</v>
       </c>
       <c r="I29">
-        <v>4.681593657911308</v>
+        <v>14.96999711166106</v>
       </c>
       <c r="J29">
-        <v>1.789846625285508</v>
+        <v>5.72326450535959</v>
       </c>
       <c r="K29">
-        <v>9.01432656951236</v>
+        <v>28.82446717286758</v>
       </c>
       <c r="L29">
-        <v>2.346515063176298</v>
+        <v>7.503283344306816</v>
       </c>
       <c r="M29">
-        <v>14.29215903621421</v>
+        <v>45.70101446757823</v>
       </c>
       <c r="N29">
-        <v>0.06193044261974273</v>
+        <v>0.1980305457682682</v>
       </c>
       <c r="O29">
-        <v>0.9787553356263129</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="P29">
-        <v>73.92638421918328</v>
+        <v>236.3891100131196</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1838,49 +1838,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>1.502919448133776</v>
+        <v>4.805777998182705</v>
       </c>
       <c r="C30">
-        <v>25.70393539905708</v>
+        <v>82.19163532741969</v>
       </c>
       <c r="D30">
-        <v>0.003789484758192134</v>
+        <v>0.01211736430583967</v>
       </c>
       <c r="E30">
-        <v>1.370661678745734</v>
+        <v>4.382866790930033</v>
       </c>
       <c r="F30">
-        <v>3.310163619546649</v>
+        <v>10.58467339214719</v>
       </c>
       <c r="G30">
-        <v>15.90198240621795</v>
+        <v>50.8486314886574</v>
       </c>
       <c r="H30">
-        <v>0.1707229118801736</v>
+        <v>0.5459084415456935</v>
       </c>
       <c r="I30">
-        <v>4.811637926186622</v>
+        <v>15.38583036476276</v>
       </c>
       <c r="J30">
-        <v>1.655431266074344</v>
+        <v>5.293454127486736</v>
       </c>
       <c r="K30">
-        <v>8.337361333066767</v>
+        <v>26.65978386739531</v>
       </c>
       <c r="L30">
-        <v>2.839283226443318</v>
+        <v>9.078972846611245</v>
       </c>
       <c r="M30">
-        <v>17.29351243381919</v>
+        <v>55.29822750576968</v>
       </c>
       <c r="N30">
-        <v>0.06193044261974273</v>
+        <v>0.1980305457682682</v>
       </c>
       <c r="O30">
-        <v>0.9787553356263129</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="P30">
-        <v>83.94208691217585</v>
+        <v>268.415605976088</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1888,49 +1888,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>1.574171417560184</v>
+        <v>5.03361532334462</v>
       </c>
       <c r="C31">
-        <v>26.92253432095286</v>
+        <v>86.08826191956862</v>
       </c>
       <c r="D31">
-        <v>0.004006026744374541</v>
+        <v>0.01280978512331622</v>
       </c>
       <c r="E31">
-        <v>1.448985203245489</v>
+        <v>4.63331632184032</v>
       </c>
       <c r="F31">
-        <v>3.149994412149231</v>
+        <v>10.07251177639814</v>
       </c>
       <c r="G31">
-        <v>15.13253164462676</v>
+        <v>48.38821383598044</v>
       </c>
       <c r="H31">
-        <v>0.1614946463731372</v>
+        <v>0.5163998771378182</v>
       </c>
       <c r="I31">
-        <v>4.551549389635993</v>
+        <v>14.55416385855936</v>
       </c>
       <c r="J31">
-        <v>1.605909817943915</v>
+        <v>5.135102935638843</v>
       </c>
       <c r="K31">
-        <v>8.087953088060495</v>
+        <v>25.86226896537922</v>
       </c>
       <c r="L31">
-        <v>2.440375665703349</v>
+        <v>7.803414678079085</v>
       </c>
       <c r="M31">
-        <v>14.86384539766278</v>
+        <v>47.52905504628138</v>
       </c>
       <c r="N31">
-        <v>0.07077764870827737</v>
+        <v>0.2263206237351636</v>
       </c>
       <c r="O31">
-        <v>1.118577526430072</v>
+        <v>3.576795331549124</v>
       </c>
       <c r="P31">
-        <v>81.13270620579694</v>
+        <v>259.4322502786155</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1938,49 +1938,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>1.78958434838421</v>
+        <v>5.722425841275989</v>
       </c>
       <c r="C32">
-        <v>30.60667059645167</v>
+        <v>97.86876091908853</v>
       </c>
       <c r="D32">
-        <v>0.003031587806553708</v>
+        <v>0.009693891444671737</v>
       </c>
       <c r="E32">
-        <v>1.096529342996587</v>
+        <v>3.506293432744027</v>
       </c>
       <c r="F32">
-        <v>3.390248223245359</v>
+        <v>10.84075420002172</v>
       </c>
       <c r="G32">
-        <v>16.28670778701355</v>
+        <v>52.07884031499592</v>
       </c>
       <c r="H32">
-        <v>0.2353207704294285</v>
+        <v>0.752468392400821</v>
       </c>
       <c r="I32">
-        <v>6.63225768204102</v>
+        <v>21.20749590818649</v>
       </c>
       <c r="J32">
-        <v>1.535164892043301</v>
+        <v>4.908886947284707</v>
       </c>
       <c r="K32">
-        <v>7.731655595194395</v>
+        <v>24.72296196249907</v>
       </c>
       <c r="L32">
-        <v>1.431374188537541</v>
+        <v>4.577002840027157</v>
       </c>
       <c r="M32">
-        <v>8.718217012090671</v>
+        <v>27.87761882522273</v>
       </c>
       <c r="N32">
-        <v>0.09289566392961407</v>
+        <v>0.2970458186524022</v>
       </c>
       <c r="O32">
-        <v>1.468133003439469</v>
+        <v>4.694543872658226</v>
       </c>
       <c r="P32">
-        <v>81.01779069360339</v>
+        <v>259.0647931665025</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1988,49 +1988,49 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>1.956115114136629</v>
+        <v>6.254929357061394</v>
       </c>
       <c r="C33">
-        <v>33.45479133251036</v>
+        <v>106.9759928379481</v>
       </c>
       <c r="D33">
-        <v>0.002381961848006485</v>
+        <v>0.007616628992242076</v>
       </c>
       <c r="E33">
-        <v>0.8615587694973182</v>
+        <v>2.754944840013164</v>
       </c>
       <c r="F33">
-        <v>2.909740601053104</v>
+        <v>9.304269352774547</v>
       </c>
       <c r="G33">
-        <v>13.97835550223998</v>
+        <v>44.69758735696497</v>
       </c>
       <c r="H33">
-        <v>0.336831691006829</v>
+        <v>1.077062600887449</v>
       </c>
       <c r="I33">
-        <v>9.493231584097931</v>
+        <v>30.35582747642382</v>
       </c>
       <c r="J33">
-        <v>1.117769829229685</v>
+        <v>3.574212615995317</v>
       </c>
       <c r="K33">
-        <v>5.629500387284398</v>
+        <v>18.00105064550624</v>
       </c>
       <c r="L33">
-        <v>1.10286207969286</v>
+        <v>3.526543171824203</v>
       </c>
       <c r="M33">
-        <v>6.717314747020679</v>
+        <v>21.47947679976178</v>
       </c>
       <c r="N33">
-        <v>0.03096522130987137</v>
+        <v>0.09901527288413411</v>
       </c>
       <c r="O33">
-        <v>0.4893776678131564</v>
+        <v>1.564847957552742</v>
       </c>
       <c r="P33">
-        <v>78.0807964887408</v>
+        <v>249.6733769145902</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2038,49 +2038,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>1.986770031215432</v>
+        <v>6.352952392305476</v>
       </c>
       <c r="C34">
-        <v>33.97907226402366</v>
+        <v>108.6524484648029</v>
       </c>
       <c r="D34">
-        <v>0.0028150458203713</v>
+        <v>0.009001470627195184</v>
       </c>
       <c r="E34">
-        <v>1.018205818496831</v>
+        <v>3.255843901833739</v>
       </c>
       <c r="F34">
-        <v>2.295758639362999</v>
+        <v>7.340983159069825</v>
       </c>
       <c r="G34">
-        <v>11.02879424947374</v>
+        <v>35.2659863550366</v>
       </c>
       <c r="H34">
-        <v>0.3599023547744201</v>
+        <v>1.150834011907138</v>
       </c>
       <c r="I34">
-        <v>10.1434529254745</v>
+        <v>32.43499374193229</v>
       </c>
       <c r="J34">
-        <v>0.6013318701552103</v>
+        <v>1.922835901010139</v>
       </c>
       <c r="K34">
-        <v>3.02852868936186</v>
+        <v>9.684109524481205</v>
       </c>
       <c r="L34">
-        <v>0.5866287657940744</v>
+        <v>1.875820836076704</v>
       </c>
       <c r="M34">
-        <v>3.573039759053553</v>
+        <v>11.42525361689456</v>
       </c>
       <c r="N34">
-        <v>0.01327080913280201</v>
+        <v>0.04243511695034319</v>
       </c>
       <c r="O34">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="P34">
-        <v>68.82730450834509</v>
+        <v>220.0841476175936</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2088,49 +2088,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>1.282535449675351</v>
+        <v>4.101071852914458</v>
       </c>
       <c r="C35">
-        <v>21.93478059412369</v>
+        <v>70.13927865868013</v>
       </c>
       <c r="D35">
-        <v>0.004439110716739357</v>
+        <v>0.01419462675826933</v>
       </c>
       <c r="E35">
-        <v>1.605632252245002</v>
+        <v>5.134215383660896</v>
       </c>
       <c r="F35">
-        <v>1.388133130777627</v>
+        <v>4.4387340031585</v>
       </c>
       <c r="G35">
-        <v>6.668573267123657</v>
+        <v>21.32361965653375</v>
       </c>
       <c r="H35">
-        <v>0.2953044962251653</v>
+        <v>0.9442740610520107</v>
       </c>
       <c r="I35">
-        <v>8.3228331696201</v>
+        <v>26.61332819850855</v>
       </c>
       <c r="J35">
-        <v>0.2759052110123907</v>
+        <v>0.8822423545811225</v>
       </c>
       <c r="K35">
-        <v>1.389560222177795</v>
+        <v>4.443297311232553</v>
       </c>
       <c r="L35">
-        <v>0.4458378620034963</v>
+        <v>1.425623835418295</v>
       </c>
       <c r="M35">
-        <v>2.715510216880701</v>
+        <v>8.683192748839868</v>
       </c>
       <c r="N35">
-        <v>0.01769441217706934</v>
+        <v>0.0565801559337909</v>
       </c>
       <c r="O35">
-        <v>0.2796443816075181</v>
+        <v>0.8941988328872811</v>
       </c>
       <c r="P35">
-        <v>46.6263837763663</v>
+        <v>149.0938516801595</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2138,49 +2138,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>1.10523403738173</v>
+        <v>3.534127811232485</v>
       </c>
       <c r="C36">
-        <v>18.90245304429006</v>
+        <v>60.4430217898445</v>
       </c>
       <c r="D36">
-        <v>0.004872194689104172</v>
+        <v>0.01557946839322243</v>
       </c>
       <c r="E36">
-        <v>1.762279301244514</v>
+        <v>5.63511444548147</v>
       </c>
       <c r="F36">
-        <v>1.1478793196815</v>
+        <v>3.670491579534913</v>
       </c>
       <c r="G36">
-        <v>5.51439712473687</v>
+        <v>17.6329931775183</v>
       </c>
       <c r="H36">
-        <v>0.2537773014435014</v>
+        <v>0.8114855212165715</v>
       </c>
       <c r="I36">
-        <v>7.152434755142275</v>
+        <v>22.87082892059329</v>
       </c>
       <c r="J36">
-        <v>0.332501151732881</v>
+        <v>1.06321514526443</v>
       </c>
       <c r="K36">
-        <v>1.674598216470675</v>
+        <v>5.354742913536665</v>
       </c>
       <c r="L36">
-        <v>0.3754424101082076</v>
+        <v>1.20052533508909</v>
       </c>
       <c r="M36">
-        <v>2.286745445794274</v>
+        <v>7.312162314812519</v>
       </c>
       <c r="N36">
-        <v>0.01327080913280201</v>
+        <v>0.04243511695034319</v>
       </c>
       <c r="O36">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="P36">
-        <v>40.73561839805404</v>
+        <v>130.2573726641332</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2188,43 +2188,43 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>0.8409389414860985</v>
+        <v>2.689010291155153</v>
       </c>
       <c r="C37">
-        <v>14.38230122935112</v>
+        <v>45.98925570966428</v>
       </c>
       <c r="D37">
-        <v>0.002706774827280095</v>
+        <v>0.008655260218456909</v>
       </c>
       <c r="E37">
-        <v>0.9790440562469523</v>
+        <v>3.130619136378595</v>
       </c>
       <c r="F37">
-        <v>0.9877101122840808</v>
+        <v>3.158329963785856</v>
       </c>
       <c r="G37">
-        <v>4.744946363145679</v>
+        <v>15.17257552484132</v>
       </c>
       <c r="H37">
-        <v>0.2076359739083193</v>
+        <v>0.663942699177195</v>
       </c>
       <c r="I37">
-        <v>5.851992072389135</v>
+        <v>18.71249638957633</v>
       </c>
       <c r="J37">
-        <v>0.2263837628819615</v>
+        <v>0.7238911627332288</v>
       </c>
       <c r="K37">
-        <v>1.140151977171524</v>
+        <v>3.645782409216454</v>
       </c>
       <c r="L37">
-        <v>0.2815818075811558</v>
+        <v>0.9003940013168176</v>
       </c>
       <c r="M37">
-        <v>1.715059084345705</v>
+        <v>5.484121736109391</v>
       </c>
       <c r="P37">
-        <v>31.36045215561901</v>
+        <v>100.2790742841731</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2232,49 +2232,49 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.6147553641208719</v>
+        <v>1.965759247327215</v>
       </c>
       <c r="C38">
-        <v>10.51395814007738</v>
+        <v>33.61973176016837</v>
       </c>
       <c r="D38">
-        <v>0.002923316813462504</v>
+        <v>0.009347681035933461</v>
       </c>
       <c r="E38">
-        <v>1.057367580746709</v>
+        <v>3.381068667288883</v>
       </c>
       <c r="F38">
-        <v>0.8008460369870924</v>
+        <v>2.560808078745289</v>
       </c>
       <c r="G38">
-        <v>3.847253807955957</v>
+        <v>12.30208826338486</v>
       </c>
       <c r="H38">
-        <v>0.1015109205774005</v>
+        <v>0.3245942084866286</v>
       </c>
       <c r="I38">
-        <v>2.86097390205691</v>
+        <v>9.148331568237312</v>
       </c>
       <c r="J38">
-        <v>0.2263837628819615</v>
+        <v>0.7238911627332288</v>
       </c>
       <c r="K38">
-        <v>1.140151977171524</v>
+        <v>3.645782409216454</v>
       </c>
       <c r="L38">
-        <v>0.3050469582129186</v>
+        <v>0.9754268347598856</v>
       </c>
       <c r="M38">
-        <v>1.857980674707848</v>
+        <v>5.941131880785172</v>
       </c>
       <c r="N38">
-        <v>0.004423603044267335</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O38">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P38">
-        <v>23.40348714075618</v>
+        <v>74.83565650937452</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2282,49 +2282,49 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.3844292303936449</v>
+        <v>1.229261847385213</v>
       </c>
       <c r="C39">
-        <v>6.574766276274803</v>
+        <v>21.02365975298938</v>
       </c>
       <c r="D39">
-        <v>0.0007578969516384269</v>
+        <v>0.002423472861167934</v>
       </c>
       <c r="E39">
-        <v>0.2741323357491466</v>
+        <v>0.8765733581860068</v>
       </c>
       <c r="F39">
-        <v>0.3470332826944069</v>
+        <v>1.109683500789625</v>
       </c>
       <c r="G39">
-        <v>1.667143316780914</v>
+        <v>5.330904914133439</v>
       </c>
       <c r="H39">
-        <v>0.09228265507036411</v>
+        <v>0.2950856440787533</v>
       </c>
       <c r="I39">
-        <v>2.600885365506282</v>
+        <v>8.316665062033923</v>
       </c>
       <c r="J39">
-        <v>0.1273408666211033</v>
+        <v>0.4071887790374412</v>
       </c>
       <c r="K39">
-        <v>0.6413354871589821</v>
+        <v>2.050752605184255</v>
       </c>
       <c r="L39">
-        <v>0.4458378620034963</v>
+        <v>1.425623835418295</v>
       </c>
       <c r="M39">
-        <v>2.715510216880701</v>
+        <v>8.683192748839868</v>
       </c>
       <c r="N39">
-        <v>0.004423603044267335</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O39">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P39">
-        <v>15.94578949053163</v>
+        <v>50.98871026814265</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2332,49 +2332,49 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.2700946748024315</v>
+        <v>0.8636624186370241</v>
       </c>
       <c r="C40">
-        <v>4.61934009927928</v>
+        <v>14.77093336093651</v>
       </c>
       <c r="D40">
-        <v>0.001732335889459261</v>
+        <v>0.005539366539812421</v>
       </c>
       <c r="E40">
-        <v>0.6265881959980495</v>
+        <v>2.003596247282301</v>
       </c>
       <c r="F40">
-        <v>0.2402538110961278</v>
+        <v>0.7682424236235866</v>
       </c>
       <c r="G40">
-        <v>1.154176142386787</v>
+        <v>3.690626479015458</v>
       </c>
       <c r="H40">
-        <v>0.04614132753518205</v>
+        <v>0.1475428220393766</v>
       </c>
       <c r="I40">
-        <v>1.300442682753141</v>
+        <v>4.158332531016962</v>
       </c>
       <c r="J40">
-        <v>0.2546817332422067</v>
+        <v>0.8143775580748823</v>
       </c>
       <c r="K40">
-        <v>1.282670974317964</v>
+        <v>4.10150521036851</v>
       </c>
       <c r="L40">
-        <v>0.2815818075811558</v>
+        <v>0.9003940013168176</v>
       </c>
       <c r="M40">
-        <v>1.715059084345705</v>
+        <v>5.484121736109391</v>
       </c>
       <c r="N40">
-        <v>0.008847206088534671</v>
+        <v>0.02829007796689545</v>
       </c>
       <c r="O40">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="P40">
-        <v>11.94143226611979</v>
+        <v>38.18426364937117</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2382,37 +2382,37 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.1748158784764205</v>
+        <v>0.5589962280135345</v>
       </c>
       <c r="C41">
-        <v>2.989818285116342</v>
+        <v>9.560328034225781</v>
       </c>
       <c r="D41">
-        <v>0.002598503834188892</v>
+        <v>0.008309049809718631</v>
       </c>
       <c r="E41">
-        <v>0.9398822939970746</v>
+        <v>3.005394370923451</v>
       </c>
       <c r="F41">
-        <v>0.08008460369870929</v>
+        <v>0.2560808078745288</v>
       </c>
       <c r="G41">
-        <v>0.3847253807955957</v>
+        <v>1.230208826338486</v>
       </c>
       <c r="J41">
-        <v>0.1839368073415938</v>
+        <v>0.5881615697207484</v>
       </c>
       <c r="K41">
-        <v>0.926373481451863</v>
+        <v>2.962198207488368</v>
       </c>
       <c r="L41">
-        <v>0.4693030126352593</v>
+        <v>1.500656668861363</v>
       </c>
       <c r="M41">
-        <v>2.858431807242844</v>
+        <v>9.140202893515649</v>
       </c>
       <c r="P41">
-        <v>9.009970054589891</v>
+        <v>28.81053665677163</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2420,37 +2420,37 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.1126775330464132</v>
+        <v>0.3603008863025626</v>
       </c>
       <c r="C42">
-        <v>1.927086667183994</v>
+        <v>6.162107168979647</v>
       </c>
       <c r="D42">
-        <v>0.001732335889459261</v>
+        <v>0.005539366539812421</v>
       </c>
       <c r="E42">
-        <v>0.6265881959980495</v>
+        <v>2.003596247282301</v>
       </c>
       <c r="F42">
-        <v>0.2669486789956976</v>
+        <v>0.8536026929150959</v>
       </c>
       <c r="G42">
-        <v>1.282417935985319</v>
+        <v>4.100696087794953</v>
       </c>
       <c r="J42">
-        <v>0.1273408666211033</v>
+        <v>0.4071887790374412</v>
       </c>
       <c r="K42">
-        <v>0.6413354871589821</v>
+        <v>2.050752605184255</v>
       </c>
       <c r="L42">
-        <v>0.5866287657940744</v>
+        <v>1.875820836076704</v>
       </c>
       <c r="M42">
-        <v>3.573039759053553</v>
+        <v>11.42525361689456</v>
       </c>
       <c r="P42">
-        <v>9.145796225726645</v>
+        <v>29.24485828700733</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2458,43 +2458,43 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.1267622246772149</v>
+        <v>0.4053384970903826</v>
       </c>
       <c r="C43">
-        <v>2.167972500581993</v>
+        <v>6.932370565102105</v>
       </c>
       <c r="D43">
-        <v>0.001515793903276854</v>
+        <v>0.004846945722335868</v>
       </c>
       <c r="E43">
-        <v>0.5482646714982933</v>
+        <v>1.753146716372014</v>
       </c>
       <c r="F43">
-        <v>0.2402538110961278</v>
+        <v>0.7682424236235866</v>
       </c>
       <c r="G43">
-        <v>1.154176142386787</v>
+        <v>3.690626479015458</v>
       </c>
       <c r="H43">
-        <v>0.03691306202814566</v>
+        <v>0.1180342576315013</v>
       </c>
       <c r="I43">
-        <v>1.040354146202513</v>
+        <v>3.326666024813569</v>
       </c>
       <c r="J43">
-        <v>0.1556388369813485</v>
+        <v>0.4976751743790947</v>
       </c>
       <c r="K43">
-        <v>0.7838544843054223</v>
+        <v>2.506475406336311</v>
       </c>
       <c r="L43">
-        <v>0.5631636151623115</v>
+        <v>1.800788002633635</v>
       </c>
       <c r="M43">
-        <v>3.430118168691411</v>
+        <v>10.96824347221878</v>
       </c>
       <c r="P43">
-        <v>10.24898745751485</v>
+        <v>32.77245396493878</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2502,43 +2502,43 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.2261835773652265</v>
+        <v>0.7232510438279375</v>
       </c>
       <c r="C44">
-        <v>3.868343089273753</v>
+        <v>12.36952394949592</v>
       </c>
       <c r="D44">
-        <v>0.0009744389378208344</v>
+        <v>0.003115893678644487</v>
       </c>
       <c r="E44">
-        <v>0.3524558602489029</v>
+        <v>1.127022889096294</v>
       </c>
       <c r="F44">
-        <v>0.5338973579913951</v>
+        <v>1.707205385830192</v>
       </c>
       <c r="G44">
-        <v>2.564835871970639</v>
+        <v>8.201392175589906</v>
       </c>
       <c r="H44">
-        <v>0.01845653101407283</v>
+        <v>0.05901712881575067</v>
       </c>
       <c r="I44">
-        <v>0.5201770731012563</v>
+        <v>1.663333012406784</v>
       </c>
       <c r="J44">
-        <v>0.3183521665527584</v>
+        <v>1.017971947593603</v>
       </c>
       <c r="K44">
-        <v>1.603338717897455</v>
+        <v>5.126881512960638</v>
       </c>
       <c r="L44">
-        <v>0.727419669584652</v>
+        <v>2.326017836735113</v>
       </c>
       <c r="M44">
-        <v>4.430569301226404</v>
+        <v>14.16731448494926</v>
       </c>
       <c r="P44">
-        <v>15.16500365516434</v>
+        <v>48.49204726098004</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2546,49 +2546,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.5443319059668638</v>
+        <v>1.740571193388114</v>
       </c>
       <c r="C45">
-        <v>9.309528973087385</v>
+        <v>29.7684147795561</v>
       </c>
       <c r="D45">
-        <v>0.0007578969516384269</v>
+        <v>0.002423472861167934</v>
       </c>
       <c r="E45">
-        <v>0.2741323357491466</v>
+        <v>0.8765733581860068</v>
       </c>
       <c r="F45">
-        <v>1.1478793196815</v>
+        <v>3.670491579534913</v>
       </c>
       <c r="G45">
-        <v>5.51439712473687</v>
+        <v>17.6329931775183</v>
       </c>
       <c r="H45">
-        <v>0.1661087791266554</v>
+        <v>0.5311541593417558</v>
       </c>
       <c r="I45">
-        <v>4.681593657911308</v>
+        <v>14.96999711166106</v>
       </c>
       <c r="J45">
-        <v>0.5659594072049038</v>
+        <v>1.809727906833072</v>
       </c>
       <c r="K45">
-        <v>2.850379942928809</v>
+        <v>9.11445602304113</v>
       </c>
       <c r="L45">
-        <v>1.055931778429333</v>
+        <v>3.376477504938066</v>
       </c>
       <c r="M45">
-        <v>6.431471566296396</v>
+        <v>20.56545651041021</v>
       </c>
       <c r="N45">
-        <v>0.01327080913280201</v>
+        <v>0.04243511695034319</v>
       </c>
       <c r="O45">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="P45">
-        <v>32.76547678340926</v>
+        <v>104.7718210188857</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2596,49 +2596,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>1.034810579227722</v>
+        <v>3.308939757293383</v>
       </c>
       <c r="C46">
-        <v>17.69802387730006</v>
+        <v>56.59170480923222</v>
       </c>
       <c r="D46">
-        <v>0.001082709930912038</v>
+        <v>0.003462104087382763</v>
       </c>
       <c r="E46">
-        <v>0.3916176224987811</v>
+        <v>1.252247654551438</v>
       </c>
       <c r="F46">
-        <v>2.455927846760417</v>
+        <v>7.853144774818885</v>
       </c>
       <c r="G46">
-        <v>11.79824501106493</v>
+        <v>37.72640400771357</v>
       </c>
       <c r="H46">
-        <v>0.4429567443377477</v>
+        <v>1.416411091578015</v>
       </c>
       <c r="I46">
-        <v>12.48424975443015</v>
+        <v>39.91999229776283</v>
       </c>
       <c r="J46">
-        <v>0.9692054848383977</v>
+        <v>3.099159040451635</v>
       </c>
       <c r="K46">
-        <v>4.881275652265585</v>
+        <v>15.60850593945794</v>
       </c>
       <c r="L46">
-        <v>1.830281749277512</v>
+        <v>5.852561008559318</v>
       </c>
       <c r="M46">
-        <v>11.14788404824709</v>
+        <v>35.64679128471104</v>
       </c>
       <c r="N46">
-        <v>0.04865963348694069</v>
+        <v>0.1555954288179251</v>
       </c>
       <c r="O46">
-        <v>0.7690220494206744</v>
+        <v>2.459046790440023</v>
       </c>
       <c r="P46">
-        <v>65.95324276308692</v>
+        <v>210.8939659894756</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2646,49 +2646,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>1.666136168796596</v>
+        <v>5.32768442907686</v>
       </c>
       <c r="C47">
-        <v>28.49537711549274</v>
+        <v>91.11762880013288</v>
       </c>
       <c r="D47">
-        <v>0.001190980924003242</v>
+        <v>0.003808314496121038</v>
       </c>
       <c r="E47">
-        <v>0.4307793847486591</v>
+        <v>1.377472420006582</v>
       </c>
       <c r="F47">
-        <v>1.922030488769022</v>
+        <v>6.145939388988693</v>
       </c>
       <c r="G47">
-        <v>9.233409139094297</v>
+        <v>29.52501183212367</v>
       </c>
       <c r="H47">
-        <v>0.4383426115842295</v>
+        <v>1.401656809374078</v>
       </c>
       <c r="I47">
-        <v>12.35420548615484</v>
+        <v>39.50415904466112</v>
       </c>
       <c r="J47">
-        <v>1.131918814409808</v>
+        <v>3.619455813666143</v>
       </c>
       <c r="K47">
-        <v>5.700759885857619</v>
+        <v>18.22891204608226</v>
       </c>
       <c r="L47">
-        <v>2.323049912544534</v>
+        <v>7.428250510863745</v>
       </c>
       <c r="M47">
-        <v>14.14923744585207</v>
+        <v>45.24400432290248</v>
       </c>
       <c r="N47">
-        <v>0.04423603044267338</v>
+        <v>0.1414503898344773</v>
       </c>
       <c r="O47">
-        <v>0.699110954018795</v>
+        <v>2.235497082218202</v>
       </c>
       <c r="P47">
-        <v>78.58978441868989</v>
+        <v>251.3009312044273</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2696,49 +2696,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>2.044765820283441</v>
+        <v>6.538401377902384</v>
       </c>
       <c r="C48">
-        <v>34.97095510742719</v>
+        <v>111.824121272366</v>
       </c>
       <c r="D48">
-        <v>0.002381961848006485</v>
+        <v>0.007616628992242076</v>
       </c>
       <c r="E48">
-        <v>0.8615587694973182</v>
+        <v>2.754944840013164</v>
       </c>
       <c r="F48">
-        <v>2.802961129454825</v>
+        <v>8.962828275608507</v>
       </c>
       <c r="G48">
-        <v>13.46538832784585</v>
+        <v>43.057308921847</v>
       </c>
       <c r="H48">
-        <v>0.267619699704056</v>
+        <v>0.8557483678283846</v>
       </c>
       <c r="I48">
-        <v>7.542567559968218</v>
+        <v>24.11832867989837</v>
       </c>
       <c r="J48">
-        <v>1.386600547652014</v>
+        <v>4.433833371741028</v>
       </c>
       <c r="K48">
-        <v>6.983430860175583</v>
+        <v>22.33041725645077</v>
       </c>
       <c r="L48">
-        <v>2.839283226443318</v>
+        <v>9.078972846611245</v>
       </c>
       <c r="M48">
-        <v>17.29351243381919</v>
+        <v>55.29822750576968</v>
       </c>
       <c r="N48">
-        <v>0.09731926697388138</v>
+        <v>0.3111908576358501</v>
       </c>
       <c r="O48">
-        <v>1.538044098841349</v>
+        <v>4.918093580880046</v>
       </c>
       <c r="P48">
-        <v>92.09638880993425</v>
+        <v>294.4900337835447</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2746,49 +2746,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>1.487177733958174</v>
+        <v>4.755441844949261</v>
       </c>
       <c r="C49">
-        <v>25.43471005584757</v>
+        <v>81.33075270822404</v>
       </c>
       <c r="D49">
-        <v>0.004222568730556949</v>
+        <v>0.01350220594079277</v>
       </c>
       <c r="E49">
-        <v>1.527308727745246</v>
+        <v>4.883765852750609</v>
       </c>
       <c r="F49">
-        <v>3.924145581236754</v>
+        <v>12.54795958585192</v>
       </c>
       <c r="G49">
-        <v>18.8515436589842</v>
+        <v>60.28023249058579</v>
       </c>
       <c r="H49">
-        <v>0.267619699704056</v>
+        <v>0.8557483678283846</v>
       </c>
       <c r="I49">
-        <v>7.542567559968218</v>
+        <v>24.11832867989837</v>
       </c>
       <c r="J49">
-        <v>1.556388369813485</v>
+        <v>4.976751743790947</v>
       </c>
       <c r="K49">
-        <v>7.838544843054225</v>
+        <v>25.06475406336311</v>
       </c>
       <c r="L49">
-        <v>3.777889251713837</v>
+        <v>12.08028618433397</v>
       </c>
       <c r="M49">
-        <v>23.01037604830488</v>
+        <v>73.57863329280097</v>
       </c>
       <c r="N49">
-        <v>0.1371316943722875</v>
+        <v>0.4384962084868797</v>
       </c>
       <c r="O49">
-        <v>2.167243957458265</v>
+        <v>6.930040954876427</v>
       </c>
       <c r="P49">
-        <v>97.52686975089175</v>
+        <v>311.8546941836815</v>
       </c>
     </row>
   </sheetData>
